--- a/TestCases_of_Idx-Auto-Tester.xlsx
+++ b/TestCases_of_Idx-Auto-Tester.xlsx
@@ -88,11 +88,13 @@
     <t>Verify that user is able to register with valid data</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Navigate to Site URL
+    <t>1. Navigate to Site URL
 2. Check that Login button displaying on page
 3. Click on Create Account link displaying on page
 4. Enter Email Id, Password, Confirm Password and other displayed fields
-5. Click on Register button </t>
+5. Click on Register button 
+6. Verify notification message displayed on page if email verification is required
+7. If email verification is optional/disabled then check profile page and logout from application</t>
   </si>
   <si>
     <t>User should able to register with entered data and notification message should display for verification of email.</t>
@@ -101,15 +103,17 @@
     <t>TC_05</t>
   </si>
   <si>
-    <t>Verify that user is able to verify email for registered user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Navigate to Site URL
+    <t>Verify that user is able to verify email for registered user if email verification flow is required</t>
+  </si>
+  <si>
+    <t>1. Navigate to Site URL
+2. Check email verification flow is required or not
 2. Check verification email to above registered email id 
-3. Click on verification link or copy paste on link on browser </t>
-  </si>
-  <si>
-    <t>User should able to verify received verification email successfully.</t>
+3. Click on verification link or copy paste on link on browser 
+4. If email verification flow is optional or disabled then assert message</t>
+  </si>
+  <si>
+    <t>User should able to verify received verification email successfully with required email verification flow.</t>
   </si>
   <si>
     <t>TC_06</t>
@@ -987,7 +991,7 @@
       <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="3"/>
@@ -1019,14 +1023,14 @@
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="3"/>

--- a/TestCases_of_Idx-Auto-Tester.xlsx
+++ b/TestCases_of_Idx-Auto-Tester.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miITF5WLBxD+qvt9+tBHsY2dnb8qg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mi56KB2OgTyHqhRR8VC/H+sOOcirA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="128">
   <si>
     <t>Test case ID</t>
   </si>
@@ -358,10 +358,30 @@
     <t>User should receive error message of 'The Confirm Password field does not match the Password field.'</t>
   </si>
   <si>
+    <t>TC_20</t>
+  </si>
+  <si>
+    <t>Verify that user should unable to change password with new password same as current password</t>
+  </si>
+  <si>
+    <t>1. Create user by account api with sample payload using loginradius-sdk 
+2. Navigate to Site URL
+3. Navigate to Login Page
+4. Enter Email Id and Password which used in sample payload
+5. Click on Login button 
+6. Check that navigated to profile page
+7. Navigate to Account Menu &gt; Change Password
+8. Enter valid Current Password in Old Password, New Password, Confirm Password
+9. Click on Submit button</t>
+  </si>
+  <si>
+    <t>User should receive error message of 'Your new password is too similar to your old passwords, please try a different password.'</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test Cases of Profile Editor Feature </t>
   </si>
   <si>
-    <t>TC_20</t>
+    <t>TC_21</t>
   </si>
   <si>
     <t>Verify that user is able to update profile after logged-in</t>
@@ -382,7 +402,7 @@
     <t>User should able to update profile successfully with new data.</t>
   </si>
   <si>
-    <t>TC_21</t>
+    <t>TC_22</t>
   </si>
   <si>
     <t>Verify that user is able to update profile with blank last name field</t>
@@ -405,7 +425,7 @@
     <t xml:space="preserve">Test Cases of Forgot Password Feature </t>
   </si>
   <si>
-    <t>TC_22</t>
+    <t>TC_23</t>
   </si>
   <si>
     <t>Verify that user is able to reset password by using forgot password option</t>
@@ -430,7 +450,7 @@
     <t xml:space="preserve">Test Cases of Passwordless Login Feature </t>
   </si>
   <si>
-    <t>TC_23</t>
+    <t>TC_24</t>
   </si>
   <si>
     <t>Verify that user is able to login by passwordless login using email</t>
@@ -452,7 +472,7 @@
     <t>User should able to login successfully with passwordless login using email feature.</t>
   </si>
   <si>
-    <t>TC_24</t>
+    <t>TC_25</t>
   </si>
   <si>
     <t>Verify that application sends the login link when login by unverified user's email</t>
@@ -471,7 +491,7 @@
     <t>User should receive verification link when try to login with unverified email.</t>
   </si>
   <si>
-    <t>TC_25</t>
+    <t>TC_26</t>
   </si>
   <si>
     <t>Verify that application is displaying validation message when pass email in invalid format</t>
@@ -486,6 +506,57 @@
   </si>
   <si>
     <t>User should get validation message on entering invalid email id for login.</t>
+  </si>
+  <si>
+    <t>Test Cases of ForgotPassword by Phone</t>
+  </si>
+  <si>
+    <t>TC_27</t>
+  </si>
+  <si>
+    <t>Verify that user is able to perform forgot password journey with valid registered phone number</t>
+  </si>
+  <si>
+    <t>1. Create user by account api with sample payload using loginradius-sdk 
+2. Navigate to Site URL
+3. Navigate to Forgot Password Page
+4. Enter registered Phone number which used in sample payload
+5. Click on Send button 
+6. Check that notification message displaying for further instruction send to provided phone number</t>
+  </si>
+  <si>
+    <t>User should able to perform forgot password journey</t>
+  </si>
+  <si>
+    <t>TC_28</t>
+  </si>
+  <si>
+    <t>Verify that user is not able to perform forgot password journey with not registered phone number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to Site URL
+2. Navigate to Forgot Password Page
+3. Enter not registered Phone number
+4. Click on Send button 
+</t>
+  </si>
+  <si>
+    <t>User should get error message for not registered phone number</t>
+  </si>
+  <si>
+    <t>TC_29</t>
+  </si>
+  <si>
+    <t>Verify that user is not able to perform forgot password journey with empty phone number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to Site URL
+2. Navigate to Forgot Password Page
+3. Click on Send button 
+</t>
+  </si>
+  <si>
+    <t>User should get error message for empty phone number</t>
   </si>
 </sst>
 </file>
@@ -549,7 +620,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -568,12 +639,6 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -588,13 +653,22 @@
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -918,14 +992,14 @@
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="3"/>
@@ -991,7 +1065,7 @@
       <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="3"/>
@@ -1023,14 +1097,14 @@
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="3"/>
@@ -1293,7 +1367,7 @@
       <c r="A15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>51</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -1328,7 +1402,7 @@
       <c r="A16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -1553,111 +1627,112 @@
       <c r="A23" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
         <v>77</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="10"/>
+      <c r="D23" s="8"/>
       <c r="E23" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="12"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="10"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="5" t="s">
         <v>81</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="10"/>
+      <c r="D24" s="8"/>
       <c r="E24" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="12"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="4" t="s">
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="10"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="s">
+      <c r="B25" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="C25" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D25" s="8"/>
+      <c r="E25" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="5" t="s">
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="10"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="4" t="s">
         <v>88</v>
       </c>
       <c r="F26" s="3"/>
@@ -1682,7 +1757,7 @@
       <c r="Y26" s="3"/>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="11" t="s">
         <v>89</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -1716,9 +1791,19 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="4" t="s">
+    <row r="28">
+      <c r="A28" s="11" t="s">
         <v>93</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -1741,18 +1826,8 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29">
-      <c r="A29" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="5" t="s">
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="4" t="s">
         <v>97</v>
       </c>
       <c r="F29" s="3"/>
@@ -1776,9 +1851,19 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="14" t="s">
+    <row r="30">
+      <c r="A30" s="11" t="s">
         <v>98</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1801,18 +1886,8 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
     </row>
-    <row r="31">
-      <c r="A31" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="6" t="s">
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="4" t="s">
         <v>102</v>
       </c>
       <c r="F31" s="3"/>
@@ -1837,17 +1912,17 @@
       <c r="Y31" s="3"/>
     </row>
     <row r="32">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>105</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="5" t="s">
         <v>106</v>
       </c>
       <c r="F32" s="3"/>
@@ -1872,17 +1947,17 @@
       <c r="Y32" s="3"/>
     </row>
     <row r="33">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>109</v>
       </c>
       <c r="D33" s="3"/>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="5" t="s">
         <v>110</v>
       </c>
       <c r="F33" s="3"/>
@@ -1906,12 +1981,20 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="3"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
+    <row r="34">
+      <c r="A34" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="D34" s="3"/>
-      <c r="E34" s="5"/>
+      <c r="E34" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -1934,11 +2017,9 @@
       <c r="Y34" s="3"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="3"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="5"/>
+      <c r="A35" s="14" t="s">
+        <v>115</v>
+      </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -1960,12 +2041,20 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="3"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
+    <row r="36" ht="99.75" customHeight="1">
+      <c r="A36" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>118</v>
+      </c>
       <c r="D36" s="3"/>
-      <c r="E36" s="5"/>
+      <c r="E36" s="13" t="s">
+        <v>119</v>
+      </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -1987,12 +2076,20 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="3"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
+    <row r="37" ht="49.5" customHeight="1">
+      <c r="A37" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="D37" s="3"/>
-      <c r="E37" s="5"/>
+      <c r="E37" s="15" t="s">
+        <v>123</v>
+      </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -2014,12 +2111,20 @@
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="3"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
+    <row r="38" ht="37.5" customHeight="1">
+      <c r="A38" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>126</v>
+      </c>
       <c r="D38" s="3"/>
-      <c r="E38" s="5"/>
+      <c r="E38" s="15" t="s">
+        <v>127</v>
+      </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -7091,2444 +7196,2337 @@
       <c r="Y225" s="3"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="3"/>
-      <c r="B226" s="5"/>
-      <c r="C226" s="5"/>
-      <c r="D226" s="3"/>
-      <c r="E226" s="5"/>
-      <c r="F226" s="3"/>
-      <c r="G226" s="3"/>
-      <c r="H226" s="3"/>
-      <c r="I226" s="3"/>
-      <c r="J226" s="3"/>
-      <c r="K226" s="3"/>
-      <c r="L226" s="3"/>
-      <c r="M226" s="3"/>
-      <c r="N226" s="3"/>
-      <c r="O226" s="3"/>
-      <c r="P226" s="3"/>
-      <c r="Q226" s="3"/>
-      <c r="R226" s="3"/>
-      <c r="S226" s="3"/>
-      <c r="T226" s="3"/>
-      <c r="U226" s="3"/>
-      <c r="V226" s="3"/>
-      <c r="W226" s="3"/>
-      <c r="X226" s="3"/>
-      <c r="Y226" s="3"/>
+      <c r="B226" s="16"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="3"/>
-      <c r="B227" s="5"/>
-      <c r="C227" s="5"/>
-      <c r="D227" s="3"/>
-      <c r="E227" s="5"/>
-      <c r="F227" s="3"/>
-      <c r="G227" s="3"/>
-      <c r="H227" s="3"/>
-      <c r="I227" s="3"/>
-      <c r="J227" s="3"/>
-      <c r="K227" s="3"/>
-      <c r="L227" s="3"/>
-      <c r="M227" s="3"/>
-      <c r="N227" s="3"/>
-      <c r="O227" s="3"/>
-      <c r="P227" s="3"/>
-      <c r="Q227" s="3"/>
-      <c r="R227" s="3"/>
-      <c r="S227" s="3"/>
-      <c r="T227" s="3"/>
-      <c r="U227" s="3"/>
-      <c r="V227" s="3"/>
-      <c r="W227" s="3"/>
-      <c r="X227" s="3"/>
-      <c r="Y227" s="3"/>
+      <c r="B227" s="16"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="3"/>
-      <c r="B228" s="5"/>
-      <c r="C228" s="5"/>
-      <c r="D228" s="3"/>
-      <c r="E228" s="5"/>
-      <c r="F228" s="3"/>
-      <c r="G228" s="3"/>
-      <c r="H228" s="3"/>
-      <c r="I228" s="3"/>
-      <c r="J228" s="3"/>
-      <c r="K228" s="3"/>
-      <c r="L228" s="3"/>
-      <c r="M228" s="3"/>
-      <c r="N228" s="3"/>
-      <c r="O228" s="3"/>
-      <c r="P228" s="3"/>
-      <c r="Q228" s="3"/>
-      <c r="R228" s="3"/>
-      <c r="S228" s="3"/>
-      <c r="T228" s="3"/>
-      <c r="U228" s="3"/>
-      <c r="V228" s="3"/>
-      <c r="W228" s="3"/>
-      <c r="X228" s="3"/>
-      <c r="Y228" s="3"/>
+      <c r="B228" s="16"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="3"/>
-      <c r="B229" s="5"/>
-      <c r="C229" s="5"/>
-      <c r="D229" s="3"/>
-      <c r="E229" s="5"/>
-      <c r="F229" s="3"/>
-      <c r="G229" s="3"/>
-      <c r="H229" s="3"/>
-      <c r="I229" s="3"/>
-      <c r="J229" s="3"/>
-      <c r="K229" s="3"/>
-      <c r="L229" s="3"/>
-      <c r="M229" s="3"/>
-      <c r="N229" s="3"/>
-      <c r="O229" s="3"/>
-      <c r="P229" s="3"/>
-      <c r="Q229" s="3"/>
-      <c r="R229" s="3"/>
-      <c r="S229" s="3"/>
-      <c r="T229" s="3"/>
-      <c r="U229" s="3"/>
-      <c r="V229" s="3"/>
-      <c r="W229" s="3"/>
-      <c r="X229" s="3"/>
-      <c r="Y229" s="3"/>
+      <c r="B229" s="16"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="B230" s="13"/>
+      <c r="B230" s="16"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="B231" s="13"/>
+      <c r="B231" s="16"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="B232" s="13"/>
+      <c r="B232" s="16"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="B233" s="13"/>
+      <c r="B233" s="16"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="B234" s="13"/>
+      <c r="B234" s="16"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="B235" s="13"/>
+      <c r="B235" s="16"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="B236" s="13"/>
+      <c r="B236" s="16"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="B237" s="13"/>
+      <c r="B237" s="16"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="B238" s="13"/>
+      <c r="B238" s="16"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="B239" s="13"/>
+      <c r="B239" s="16"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="B240" s="13"/>
+      <c r="B240" s="16"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="B241" s="13"/>
+      <c r="B241" s="16"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="B242" s="13"/>
+      <c r="B242" s="16"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="B243" s="13"/>
+      <c r="B243" s="16"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="B244" s="13"/>
+      <c r="B244" s="16"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="B245" s="13"/>
+      <c r="B245" s="16"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="B246" s="13"/>
+      <c r="B246" s="16"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="B247" s="13"/>
+      <c r="B247" s="16"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="B248" s="13"/>
+      <c r="B248" s="16"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="B249" s="13"/>
+      <c r="B249" s="16"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="B250" s="13"/>
+      <c r="B250" s="16"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="B251" s="13"/>
+      <c r="B251" s="16"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="B252" s="13"/>
+      <c r="B252" s="16"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="B253" s="13"/>
+      <c r="B253" s="16"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="B254" s="13"/>
+      <c r="B254" s="16"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="B255" s="13"/>
+      <c r="B255" s="16"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="B256" s="13"/>
+      <c r="B256" s="16"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="B257" s="13"/>
+      <c r="B257" s="16"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="B258" s="13"/>
+      <c r="B258" s="16"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="B259" s="13"/>
+      <c r="B259" s="16"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="B260" s="13"/>
+      <c r="B260" s="16"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="B261" s="13"/>
+      <c r="B261" s="16"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="B262" s="13"/>
+      <c r="B262" s="16"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="B263" s="13"/>
+      <c r="B263" s="16"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="B264" s="13"/>
+      <c r="B264" s="16"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="B265" s="13"/>
+      <c r="B265" s="16"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="B266" s="13"/>
+      <c r="B266" s="16"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="B267" s="13"/>
+      <c r="B267" s="16"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="B268" s="13"/>
+      <c r="B268" s="16"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="B269" s="13"/>
+      <c r="B269" s="16"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="B270" s="13"/>
+      <c r="B270" s="16"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="B271" s="13"/>
+      <c r="B271" s="16"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="B272" s="13"/>
+      <c r="B272" s="16"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="B273" s="13"/>
+      <c r="B273" s="16"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="B274" s="13"/>
+      <c r="B274" s="16"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="B275" s="13"/>
+      <c r="B275" s="16"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="B276" s="13"/>
+      <c r="B276" s="16"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="B277" s="13"/>
+      <c r="B277" s="16"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="B278" s="13"/>
+      <c r="B278" s="16"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="B279" s="13"/>
+      <c r="B279" s="16"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="B280" s="13"/>
+      <c r="B280" s="16"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="B281" s="13"/>
+      <c r="B281" s="16"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="B282" s="13"/>
+      <c r="B282" s="16"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="B283" s="13"/>
+      <c r="B283" s="16"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="B284" s="13"/>
+      <c r="B284" s="16"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="B285" s="13"/>
+      <c r="B285" s="16"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="B286" s="13"/>
+      <c r="B286" s="16"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="B287" s="13"/>
+      <c r="B287" s="16"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="B288" s="13"/>
+      <c r="B288" s="16"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="B289" s="13"/>
+      <c r="B289" s="16"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="B290" s="13"/>
+      <c r="B290" s="16"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="B291" s="13"/>
+      <c r="B291" s="16"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="B292" s="13"/>
+      <c r="B292" s="16"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="B293" s="13"/>
+      <c r="B293" s="16"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="B294" s="13"/>
+      <c r="B294" s="16"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="B295" s="13"/>
+      <c r="B295" s="16"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="B296" s="13"/>
+      <c r="B296" s="16"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="B297" s="13"/>
+      <c r="B297" s="16"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="B298" s="13"/>
+      <c r="B298" s="16"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="B299" s="13"/>
+      <c r="B299" s="16"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="B300" s="13"/>
+      <c r="B300" s="16"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="B301" s="13"/>
+      <c r="B301" s="16"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="B302" s="13"/>
+      <c r="B302" s="16"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="B303" s="13"/>
+      <c r="B303" s="16"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="B304" s="13"/>
+      <c r="B304" s="16"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="B305" s="13"/>
+      <c r="B305" s="16"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="B306" s="13"/>
+      <c r="B306" s="16"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="B307" s="13"/>
+      <c r="B307" s="16"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="B308" s="13"/>
+      <c r="B308" s="16"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="B309" s="13"/>
+      <c r="B309" s="16"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="B310" s="13"/>
+      <c r="B310" s="16"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="B311" s="13"/>
+      <c r="B311" s="16"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="B312" s="13"/>
+      <c r="B312" s="16"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="B313" s="13"/>
+      <c r="B313" s="16"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="B314" s="13"/>
+      <c r="B314" s="16"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="B315" s="13"/>
+      <c r="B315" s="16"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="B316" s="13"/>
+      <c r="B316" s="16"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="B317" s="13"/>
+      <c r="B317" s="16"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="B318" s="13"/>
+      <c r="B318" s="16"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="B319" s="13"/>
+      <c r="B319" s="16"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="B320" s="13"/>
+      <c r="B320" s="16"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="B321" s="13"/>
+      <c r="B321" s="16"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="B322" s="13"/>
+      <c r="B322" s="16"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="B323" s="13"/>
+      <c r="B323" s="16"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="B324" s="13"/>
+      <c r="B324" s="16"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="B325" s="13"/>
+      <c r="B325" s="16"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="B326" s="13"/>
+      <c r="B326" s="16"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="B327" s="13"/>
+      <c r="B327" s="16"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="B328" s="13"/>
+      <c r="B328" s="16"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="B329" s="13"/>
+      <c r="B329" s="16"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="B330" s="13"/>
+      <c r="B330" s="16"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="B331" s="13"/>
+      <c r="B331" s="16"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="B332" s="13"/>
+      <c r="B332" s="16"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="B333" s="13"/>
+      <c r="B333" s="16"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="B334" s="13"/>
+      <c r="B334" s="16"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="B335" s="13"/>
+      <c r="B335" s="16"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="B336" s="13"/>
+      <c r="B336" s="16"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="B337" s="13"/>
+      <c r="B337" s="16"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="B338" s="13"/>
+      <c r="B338" s="16"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="B339" s="13"/>
+      <c r="B339" s="16"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="B340" s="13"/>
+      <c r="B340" s="16"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="B341" s="13"/>
+      <c r="B341" s="16"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="B342" s="13"/>
+      <c r="B342" s="16"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="B343" s="13"/>
+      <c r="B343" s="16"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="B344" s="13"/>
+      <c r="B344" s="16"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="B345" s="13"/>
+      <c r="B345" s="16"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="B346" s="13"/>
+      <c r="B346" s="16"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="B347" s="13"/>
+      <c r="B347" s="16"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="B348" s="13"/>
+      <c r="B348" s="16"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="B349" s="13"/>
+      <c r="B349" s="16"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="B350" s="13"/>
+      <c r="B350" s="16"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="B351" s="13"/>
+      <c r="B351" s="16"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="B352" s="13"/>
+      <c r="B352" s="16"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="B353" s="13"/>
+      <c r="B353" s="16"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="B354" s="13"/>
+      <c r="B354" s="16"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="B355" s="13"/>
+      <c r="B355" s="16"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="B356" s="13"/>
+      <c r="B356" s="16"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="B357" s="13"/>
+      <c r="B357" s="16"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="B358" s="13"/>
+      <c r="B358" s="16"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="B359" s="13"/>
+      <c r="B359" s="16"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="B360" s="13"/>
+      <c r="B360" s="16"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="B361" s="13"/>
+      <c r="B361" s="16"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="B362" s="13"/>
+      <c r="B362" s="16"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="B363" s="13"/>
+      <c r="B363" s="16"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="B364" s="13"/>
+      <c r="B364" s="16"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="B365" s="13"/>
+      <c r="B365" s="16"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="B366" s="13"/>
+      <c r="B366" s="16"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="B367" s="13"/>
+      <c r="B367" s="16"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="B368" s="13"/>
+      <c r="B368" s="16"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="B369" s="13"/>
+      <c r="B369" s="16"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="B370" s="13"/>
+      <c r="B370" s="16"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="B371" s="13"/>
+      <c r="B371" s="16"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="B372" s="13"/>
+      <c r="B372" s="16"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="B373" s="13"/>
+      <c r="B373" s="16"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="B374" s="13"/>
+      <c r="B374" s="16"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="B375" s="13"/>
+      <c r="B375" s="16"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="B376" s="13"/>
+      <c r="B376" s="16"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="B377" s="13"/>
+      <c r="B377" s="16"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="B378" s="13"/>
+      <c r="B378" s="16"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="B379" s="13"/>
+      <c r="B379" s="16"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="B380" s="13"/>
+      <c r="B380" s="16"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="B381" s="13"/>
+      <c r="B381" s="16"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="B382" s="13"/>
+      <c r="B382" s="16"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="B383" s="13"/>
+      <c r="B383" s="16"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="B384" s="13"/>
+      <c r="B384" s="16"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="B385" s="13"/>
+      <c r="B385" s="16"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="B386" s="13"/>
+      <c r="B386" s="16"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="B387" s="13"/>
+      <c r="B387" s="16"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="B388" s="13"/>
+      <c r="B388" s="16"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="B389" s="13"/>
+      <c r="B389" s="16"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="B390" s="13"/>
+      <c r="B390" s="16"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="B391" s="13"/>
+      <c r="B391" s="16"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="B392" s="13"/>
+      <c r="B392" s="16"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="B393" s="13"/>
+      <c r="B393" s="16"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="B394" s="13"/>
+      <c r="B394" s="16"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="B395" s="13"/>
+      <c r="B395" s="16"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="B396" s="13"/>
+      <c r="B396" s="16"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="B397" s="13"/>
+      <c r="B397" s="16"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="B398" s="13"/>
+      <c r="B398" s="16"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="B399" s="13"/>
+      <c r="B399" s="16"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="B400" s="13"/>
+      <c r="B400" s="16"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="B401" s="13"/>
+      <c r="B401" s="16"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="B402" s="13"/>
+      <c r="B402" s="16"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="B403" s="13"/>
+      <c r="B403" s="16"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="B404" s="13"/>
+      <c r="B404" s="16"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="B405" s="13"/>
+      <c r="B405" s="16"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="B406" s="13"/>
+      <c r="B406" s="16"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="B407" s="13"/>
+      <c r="B407" s="16"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="B408" s="13"/>
+      <c r="B408" s="16"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="B409" s="13"/>
+      <c r="B409" s="16"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="B410" s="13"/>
+      <c r="B410" s="16"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="B411" s="13"/>
+      <c r="B411" s="16"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="B412" s="13"/>
+      <c r="B412" s="16"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="B413" s="13"/>
+      <c r="B413" s="16"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="B414" s="13"/>
+      <c r="B414" s="16"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="B415" s="13"/>
+      <c r="B415" s="16"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="B416" s="13"/>
+      <c r="B416" s="16"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="B417" s="13"/>
+      <c r="B417" s="16"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="B418" s="13"/>
+      <c r="B418" s="16"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="B419" s="13"/>
+      <c r="B419" s="16"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="B420" s="13"/>
+      <c r="B420" s="16"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="B421" s="13"/>
+      <c r="B421" s="16"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="B422" s="13"/>
+      <c r="B422" s="16"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="B423" s="13"/>
+      <c r="B423" s="16"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="B424" s="13"/>
+      <c r="B424" s="16"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="B425" s="13"/>
+      <c r="B425" s="16"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="B426" s="13"/>
+      <c r="B426" s="16"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="B427" s="13"/>
+      <c r="B427" s="16"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="B428" s="13"/>
+      <c r="B428" s="16"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="B429" s="13"/>
+      <c r="B429" s="16"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="B430" s="13"/>
+      <c r="B430" s="16"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="B431" s="13"/>
+      <c r="B431" s="16"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="B432" s="13"/>
+      <c r="B432" s="16"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="B433" s="13"/>
+      <c r="B433" s="16"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="B434" s="13"/>
+      <c r="B434" s="16"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="B435" s="13"/>
+      <c r="B435" s="16"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="B436" s="13"/>
+      <c r="B436" s="16"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="B437" s="13"/>
+      <c r="B437" s="16"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="B438" s="13"/>
+      <c r="B438" s="16"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="B439" s="13"/>
+      <c r="B439" s="16"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="B440" s="13"/>
+      <c r="B440" s="16"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="B441" s="13"/>
+      <c r="B441" s="16"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="B442" s="13"/>
+      <c r="B442" s="16"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="B443" s="13"/>
+      <c r="B443" s="16"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="B444" s="13"/>
+      <c r="B444" s="16"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="B445" s="13"/>
+      <c r="B445" s="16"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="B446" s="13"/>
+      <c r="B446" s="16"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="B447" s="13"/>
+      <c r="B447" s="16"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="B448" s="13"/>
+      <c r="B448" s="16"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="B449" s="13"/>
+      <c r="B449" s="16"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="B450" s="13"/>
+      <c r="B450" s="16"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="B451" s="13"/>
+      <c r="B451" s="16"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="B452" s="13"/>
+      <c r="B452" s="16"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="B453" s="13"/>
+      <c r="B453" s="16"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="B454" s="13"/>
+      <c r="B454" s="16"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="B455" s="13"/>
+      <c r="B455" s="16"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="B456" s="13"/>
+      <c r="B456" s="16"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="B457" s="13"/>
+      <c r="B457" s="16"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="B458" s="13"/>
+      <c r="B458" s="16"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="B459" s="13"/>
+      <c r="B459" s="16"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="B460" s="13"/>
+      <c r="B460" s="16"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="B461" s="13"/>
+      <c r="B461" s="16"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="B462" s="13"/>
+      <c r="B462" s="16"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="B463" s="13"/>
+      <c r="B463" s="16"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="B464" s="13"/>
+      <c r="B464" s="16"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="B465" s="13"/>
+      <c r="B465" s="16"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="B466" s="13"/>
+      <c r="B466" s="16"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="B467" s="13"/>
+      <c r="B467" s="16"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="B468" s="13"/>
+      <c r="B468" s="16"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="B469" s="13"/>
+      <c r="B469" s="16"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="B470" s="13"/>
+      <c r="B470" s="16"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="B471" s="13"/>
+      <c r="B471" s="16"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="B472" s="13"/>
+      <c r="B472" s="16"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="B473" s="13"/>
+      <c r="B473" s="16"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="B474" s="13"/>
+      <c r="B474" s="16"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="B475" s="13"/>
+      <c r="B475" s="16"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="B476" s="13"/>
+      <c r="B476" s="16"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="B477" s="13"/>
+      <c r="B477" s="16"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="B478" s="13"/>
+      <c r="B478" s="16"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="B479" s="13"/>
+      <c r="B479" s="16"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="B480" s="13"/>
+      <c r="B480" s="16"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="B481" s="13"/>
+      <c r="B481" s="16"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="B482" s="13"/>
+      <c r="B482" s="16"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="B483" s="13"/>
+      <c r="B483" s="16"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="B484" s="13"/>
+      <c r="B484" s="16"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="B485" s="13"/>
+      <c r="B485" s="16"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="B486" s="13"/>
+      <c r="B486" s="16"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="B487" s="13"/>
+      <c r="B487" s="16"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="B488" s="13"/>
+      <c r="B488" s="16"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="B489" s="13"/>
+      <c r="B489" s="16"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="B490" s="13"/>
+      <c r="B490" s="16"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="B491" s="13"/>
+      <c r="B491" s="16"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="B492" s="13"/>
+      <c r="B492" s="16"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="B493" s="13"/>
+      <c r="B493" s="16"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="B494" s="13"/>
+      <c r="B494" s="16"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="B495" s="13"/>
+      <c r="B495" s="16"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="B496" s="13"/>
+      <c r="B496" s="16"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="B497" s="13"/>
+      <c r="B497" s="16"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="B498" s="13"/>
+      <c r="B498" s="16"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="B499" s="13"/>
+      <c r="B499" s="16"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="B500" s="13"/>
+      <c r="B500" s="16"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="B501" s="13"/>
+      <c r="B501" s="16"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="B502" s="13"/>
+      <c r="B502" s="16"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="B503" s="13"/>
+      <c r="B503" s="16"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="B504" s="13"/>
+      <c r="B504" s="16"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="B505" s="13"/>
+      <c r="B505" s="16"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="B506" s="13"/>
+      <c r="B506" s="16"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="B507" s="13"/>
+      <c r="B507" s="16"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="B508" s="13"/>
+      <c r="B508" s="16"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="B509" s="13"/>
+      <c r="B509" s="16"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="B510" s="13"/>
+      <c r="B510" s="16"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="B511" s="13"/>
+      <c r="B511" s="16"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="B512" s="13"/>
+      <c r="B512" s="16"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="B513" s="13"/>
+      <c r="B513" s="16"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="B514" s="13"/>
+      <c r="B514" s="16"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="B515" s="13"/>
+      <c r="B515" s="16"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="B516" s="13"/>
+      <c r="B516" s="16"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="B517" s="13"/>
+      <c r="B517" s="16"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="B518" s="13"/>
+      <c r="B518" s="16"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="B519" s="13"/>
+      <c r="B519" s="16"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="B520" s="13"/>
+      <c r="B520" s="16"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="B521" s="13"/>
+      <c r="B521" s="16"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="B522" s="13"/>
+      <c r="B522" s="16"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="B523" s="13"/>
+      <c r="B523" s="16"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="B524" s="13"/>
+      <c r="B524" s="16"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="B525" s="13"/>
+      <c r="B525" s="16"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="B526" s="13"/>
+      <c r="B526" s="16"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="B527" s="13"/>
+      <c r="B527" s="16"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="B528" s="13"/>
+      <c r="B528" s="16"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="B529" s="13"/>
+      <c r="B529" s="16"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="B530" s="13"/>
+      <c r="B530" s="16"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="B531" s="13"/>
+      <c r="B531" s="16"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="B532" s="13"/>
+      <c r="B532" s="16"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="B533" s="13"/>
+      <c r="B533" s="16"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="B534" s="13"/>
+      <c r="B534" s="16"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="B535" s="13"/>
+      <c r="B535" s="16"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="B536" s="13"/>
+      <c r="B536" s="16"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="B537" s="13"/>
+      <c r="B537" s="16"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="B538" s="13"/>
+      <c r="B538" s="16"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="B539" s="13"/>
+      <c r="B539" s="16"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="B540" s="13"/>
+      <c r="B540" s="16"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="B541" s="13"/>
+      <c r="B541" s="16"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="B542" s="13"/>
+      <c r="B542" s="16"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="B543" s="13"/>
+      <c r="B543" s="16"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="B544" s="13"/>
+      <c r="B544" s="16"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="B545" s="13"/>
+      <c r="B545" s="16"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="B546" s="13"/>
+      <c r="B546" s="16"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="B547" s="13"/>
+      <c r="B547" s="16"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="B548" s="13"/>
+      <c r="B548" s="16"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="B549" s="13"/>
+      <c r="B549" s="16"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="B550" s="13"/>
+      <c r="B550" s="16"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="B551" s="13"/>
+      <c r="B551" s="16"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="B552" s="13"/>
+      <c r="B552" s="16"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="B553" s="13"/>
+      <c r="B553" s="16"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="B554" s="13"/>
+      <c r="B554" s="16"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="B555" s="13"/>
+      <c r="B555" s="16"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="B556" s="13"/>
+      <c r="B556" s="16"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="B557" s="13"/>
+      <c r="B557" s="16"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="B558" s="13"/>
+      <c r="B558" s="16"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="B559" s="13"/>
+      <c r="B559" s="16"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="B560" s="13"/>
+      <c r="B560" s="16"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="B561" s="13"/>
+      <c r="B561" s="16"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="B562" s="13"/>
+      <c r="B562" s="16"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="B563" s="13"/>
+      <c r="B563" s="16"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="B564" s="13"/>
+      <c r="B564" s="16"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="B565" s="13"/>
+      <c r="B565" s="16"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="B566" s="13"/>
+      <c r="B566" s="16"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="B567" s="13"/>
+      <c r="B567" s="16"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="B568" s="13"/>
+      <c r="B568" s="16"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="B569" s="13"/>
+      <c r="B569" s="16"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="B570" s="13"/>
+      <c r="B570" s="16"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="B571" s="13"/>
+      <c r="B571" s="16"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="B572" s="13"/>
+      <c r="B572" s="16"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="B573" s="13"/>
+      <c r="B573" s="16"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="B574" s="13"/>
+      <c r="B574" s="16"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="B575" s="13"/>
+      <c r="B575" s="16"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="B576" s="13"/>
+      <c r="B576" s="16"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="B577" s="13"/>
+      <c r="B577" s="16"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="B578" s="13"/>
+      <c r="B578" s="16"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="B579" s="13"/>
+      <c r="B579" s="16"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="B580" s="13"/>
+      <c r="B580" s="16"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="B581" s="13"/>
+      <c r="B581" s="16"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="B582" s="13"/>
+      <c r="B582" s="16"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="B583" s="13"/>
+      <c r="B583" s="16"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="B584" s="13"/>
+      <c r="B584" s="16"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="B585" s="13"/>
+      <c r="B585" s="16"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="B586" s="13"/>
+      <c r="B586" s="16"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="B587" s="13"/>
+      <c r="B587" s="16"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="B588" s="13"/>
+      <c r="B588" s="16"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="B589" s="13"/>
+      <c r="B589" s="16"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="B590" s="13"/>
+      <c r="B590" s="16"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="B591" s="13"/>
+      <c r="B591" s="16"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="B592" s="13"/>
+      <c r="B592" s="16"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="B593" s="13"/>
+      <c r="B593" s="16"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="B594" s="13"/>
+      <c r="B594" s="16"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="B595" s="13"/>
+      <c r="B595" s="16"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="B596" s="13"/>
+      <c r="B596" s="16"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="B597" s="13"/>
+      <c r="B597" s="16"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="B598" s="13"/>
+      <c r="B598" s="16"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="B599" s="13"/>
+      <c r="B599" s="16"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="B600" s="13"/>
+      <c r="B600" s="16"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="B601" s="13"/>
+      <c r="B601" s="16"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="B602" s="13"/>
+      <c r="B602" s="16"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="B603" s="13"/>
+      <c r="B603" s="16"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="B604" s="13"/>
+      <c r="B604" s="16"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="B605" s="13"/>
+      <c r="B605" s="16"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="B606" s="13"/>
+      <c r="B606" s="16"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="B607" s="13"/>
+      <c r="B607" s="16"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="B608" s="13"/>
+      <c r="B608" s="16"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="B609" s="13"/>
+      <c r="B609" s="16"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="B610" s="13"/>
+      <c r="B610" s="16"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="B611" s="13"/>
+      <c r="B611" s="16"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="B612" s="13"/>
+      <c r="B612" s="16"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="B613" s="13"/>
+      <c r="B613" s="16"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="B614" s="13"/>
+      <c r="B614" s="16"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="B615" s="13"/>
+      <c r="B615" s="16"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="B616" s="13"/>
+      <c r="B616" s="16"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="B617" s="13"/>
+      <c r="B617" s="16"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="B618" s="13"/>
+      <c r="B618" s="16"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="B619" s="13"/>
+      <c r="B619" s="16"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="B620" s="13"/>
+      <c r="B620" s="16"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="B621" s="13"/>
+      <c r="B621" s="16"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="B622" s="13"/>
+      <c r="B622" s="16"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="B623" s="13"/>
+      <c r="B623" s="16"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="B624" s="13"/>
+      <c r="B624" s="16"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="B625" s="13"/>
+      <c r="B625" s="16"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="B626" s="13"/>
+      <c r="B626" s="16"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="B627" s="13"/>
+      <c r="B627" s="16"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="B628" s="13"/>
+      <c r="B628" s="16"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="B629" s="13"/>
+      <c r="B629" s="16"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="B630" s="13"/>
+      <c r="B630" s="16"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="B631" s="13"/>
+      <c r="B631" s="16"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="B632" s="13"/>
+      <c r="B632" s="16"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="B633" s="13"/>
+      <c r="B633" s="16"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="B634" s="13"/>
+      <c r="B634" s="16"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="B635" s="13"/>
+      <c r="B635" s="16"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="B636" s="13"/>
+      <c r="B636" s="16"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="B637" s="13"/>
+      <c r="B637" s="16"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="B638" s="13"/>
+      <c r="B638" s="16"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="B639" s="13"/>
+      <c r="B639" s="16"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="B640" s="13"/>
+      <c r="B640" s="16"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="B641" s="13"/>
+      <c r="B641" s="16"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="B642" s="13"/>
+      <c r="B642" s="16"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="B643" s="13"/>
+      <c r="B643" s="16"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="B644" s="13"/>
+      <c r="B644" s="16"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="B645" s="13"/>
+      <c r="B645" s="16"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="B646" s="13"/>
+      <c r="B646" s="16"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="B647" s="13"/>
+      <c r="B647" s="16"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="B648" s="13"/>
+      <c r="B648" s="16"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="B649" s="13"/>
+      <c r="B649" s="16"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="B650" s="13"/>
+      <c r="B650" s="16"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="B651" s="13"/>
+      <c r="B651" s="16"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="B652" s="13"/>
+      <c r="B652" s="16"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="B653" s="13"/>
+      <c r="B653" s="16"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="B654" s="13"/>
+      <c r="B654" s="16"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="B655" s="13"/>
+      <c r="B655" s="16"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="B656" s="13"/>
+      <c r="B656" s="16"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="B657" s="13"/>
+      <c r="B657" s="16"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="B658" s="13"/>
+      <c r="B658" s="16"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="B659" s="13"/>
+      <c r="B659" s="16"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="B660" s="13"/>
+      <c r="B660" s="16"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="B661" s="13"/>
+      <c r="B661" s="16"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="B662" s="13"/>
+      <c r="B662" s="16"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="B663" s="13"/>
+      <c r="B663" s="16"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="B664" s="13"/>
+      <c r="B664" s="16"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="B665" s="13"/>
+      <c r="B665" s="16"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="B666" s="13"/>
+      <c r="B666" s="16"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="B667" s="13"/>
+      <c r="B667" s="16"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="B668" s="13"/>
+      <c r="B668" s="16"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="B669" s="13"/>
+      <c r="B669" s="16"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="B670" s="13"/>
+      <c r="B670" s="16"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="B671" s="13"/>
+      <c r="B671" s="16"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="B672" s="13"/>
+      <c r="B672" s="16"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="B673" s="13"/>
+      <c r="B673" s="16"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="B674" s="13"/>
+      <c r="B674" s="16"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="B675" s="13"/>
+      <c r="B675" s="16"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="B676" s="13"/>
+      <c r="B676" s="16"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="B677" s="13"/>
+      <c r="B677" s="16"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="B678" s="13"/>
+      <c r="B678" s="16"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="B679" s="13"/>
+      <c r="B679" s="16"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="B680" s="13"/>
+      <c r="B680" s="16"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="B681" s="13"/>
+      <c r="B681" s="16"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="B682" s="13"/>
+      <c r="B682" s="16"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="B683" s="13"/>
+      <c r="B683" s="16"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="B684" s="13"/>
+      <c r="B684" s="16"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="B685" s="13"/>
+      <c r="B685" s="16"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="B686" s="13"/>
+      <c r="B686" s="16"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="B687" s="13"/>
+      <c r="B687" s="16"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="B688" s="13"/>
+      <c r="B688" s="16"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="B689" s="13"/>
+      <c r="B689" s="16"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="B690" s="13"/>
+      <c r="B690" s="16"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="B691" s="13"/>
+      <c r="B691" s="16"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="B692" s="13"/>
+      <c r="B692" s="16"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="B693" s="13"/>
+      <c r="B693" s="16"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="B694" s="13"/>
+      <c r="B694" s="16"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="B695" s="13"/>
+      <c r="B695" s="16"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="B696" s="13"/>
+      <c r="B696" s="16"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="B697" s="13"/>
+      <c r="B697" s="16"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="B698" s="13"/>
+      <c r="B698" s="16"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="B699" s="13"/>
+      <c r="B699" s="16"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="B700" s="13"/>
+      <c r="B700" s="16"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="B701" s="13"/>
+      <c r="B701" s="16"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="B702" s="13"/>
+      <c r="B702" s="16"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="B703" s="13"/>
+      <c r="B703" s="16"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="B704" s="13"/>
+      <c r="B704" s="16"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="B705" s="13"/>
+      <c r="B705" s="16"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="B706" s="13"/>
+      <c r="B706" s="16"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="B707" s="13"/>
+      <c r="B707" s="16"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="B708" s="13"/>
+      <c r="B708" s="16"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="B709" s="13"/>
+      <c r="B709" s="16"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="B710" s="13"/>
+      <c r="B710" s="16"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="B711" s="13"/>
+      <c r="B711" s="16"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="B712" s="13"/>
+      <c r="B712" s="16"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="B713" s="13"/>
+      <c r="B713" s="16"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="B714" s="13"/>
+      <c r="B714" s="16"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="B715" s="13"/>
+      <c r="B715" s="16"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="B716" s="13"/>
+      <c r="B716" s="16"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="B717" s="13"/>
+      <c r="B717" s="16"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="B718" s="13"/>
+      <c r="B718" s="16"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="B719" s="13"/>
+      <c r="B719" s="16"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="B720" s="13"/>
+      <c r="B720" s="16"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="B721" s="13"/>
+      <c r="B721" s="16"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="B722" s="13"/>
+      <c r="B722" s="16"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="B723" s="13"/>
+      <c r="B723" s="16"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="B724" s="13"/>
+      <c r="B724" s="16"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="B725" s="13"/>
+      <c r="B725" s="16"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="B726" s="13"/>
+      <c r="B726" s="16"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="B727" s="13"/>
+      <c r="B727" s="16"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="B728" s="13"/>
+      <c r="B728" s="16"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="B729" s="13"/>
+      <c r="B729" s="16"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="B730" s="13"/>
+      <c r="B730" s="16"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="B731" s="13"/>
+      <c r="B731" s="16"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="B732" s="13"/>
+      <c r="B732" s="16"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="B733" s="13"/>
+      <c r="B733" s="16"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="B734" s="13"/>
+      <c r="B734" s="16"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="B735" s="13"/>
+      <c r="B735" s="16"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="B736" s="13"/>
+      <c r="B736" s="16"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="B737" s="13"/>
+      <c r="B737" s="16"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="B738" s="13"/>
+      <c r="B738" s="16"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="B739" s="13"/>
+      <c r="B739" s="16"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="B740" s="13"/>
+      <c r="B740" s="16"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="B741" s="13"/>
+      <c r="B741" s="16"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="B742" s="13"/>
+      <c r="B742" s="16"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="B743" s="13"/>
+      <c r="B743" s="16"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="B744" s="13"/>
+      <c r="B744" s="16"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="B745" s="13"/>
+      <c r="B745" s="16"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="B746" s="13"/>
+      <c r="B746" s="16"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="B747" s="13"/>
+      <c r="B747" s="16"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="B748" s="13"/>
+      <c r="B748" s="16"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="B749" s="13"/>
+      <c r="B749" s="16"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="B750" s="13"/>
+      <c r="B750" s="16"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="B751" s="13"/>
+      <c r="B751" s="16"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="B752" s="13"/>
+      <c r="B752" s="16"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="B753" s="13"/>
+      <c r="B753" s="16"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="B754" s="13"/>
+      <c r="B754" s="16"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="B755" s="13"/>
+      <c r="B755" s="16"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="B756" s="13"/>
+      <c r="B756" s="16"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="B757" s="13"/>
+      <c r="B757" s="16"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="B758" s="13"/>
+      <c r="B758" s="16"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="B759" s="13"/>
+      <c r="B759" s="16"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="B760" s="13"/>
+      <c r="B760" s="16"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="B761" s="13"/>
+      <c r="B761" s="16"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="B762" s="13"/>
+      <c r="B762" s="16"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="B763" s="13"/>
+      <c r="B763" s="16"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="B764" s="13"/>
+      <c r="B764" s="16"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="B765" s="13"/>
+      <c r="B765" s="16"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="B766" s="13"/>
+      <c r="B766" s="16"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="B767" s="13"/>
+      <c r="B767" s="16"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="B768" s="13"/>
+      <c r="B768" s="16"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="B769" s="13"/>
+      <c r="B769" s="16"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="B770" s="13"/>
+      <c r="B770" s="16"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="B771" s="13"/>
+      <c r="B771" s="16"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="B772" s="13"/>
+      <c r="B772" s="16"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="B773" s="13"/>
+      <c r="B773" s="16"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="B774" s="13"/>
+      <c r="B774" s="16"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="B775" s="13"/>
+      <c r="B775" s="16"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="B776" s="13"/>
+      <c r="B776" s="16"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="B777" s="13"/>
+      <c r="B777" s="16"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="B778" s="13"/>
+      <c r="B778" s="16"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="B779" s="13"/>
+      <c r="B779" s="16"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="B780" s="13"/>
+      <c r="B780" s="16"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="B781" s="13"/>
+      <c r="B781" s="16"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="B782" s="13"/>
+      <c r="B782" s="16"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="B783" s="13"/>
+      <c r="B783" s="16"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="B784" s="13"/>
+      <c r="B784" s="16"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="B785" s="13"/>
+      <c r="B785" s="16"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="B786" s="13"/>
+      <c r="B786" s="16"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="B787" s="13"/>
+      <c r="B787" s="16"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="B788" s="13"/>
+      <c r="B788" s="16"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="B789" s="13"/>
+      <c r="B789" s="16"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="B790" s="13"/>
+      <c r="B790" s="16"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="B791" s="13"/>
+      <c r="B791" s="16"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="B792" s="13"/>
+      <c r="B792" s="16"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="B793" s="13"/>
+      <c r="B793" s="16"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="B794" s="13"/>
+      <c r="B794" s="16"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="B795" s="13"/>
+      <c r="B795" s="16"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="B796" s="13"/>
+      <c r="B796" s="16"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="B797" s="13"/>
+      <c r="B797" s="16"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="B798" s="13"/>
+      <c r="B798" s="16"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="B799" s="13"/>
+      <c r="B799" s="16"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="B800" s="13"/>
+      <c r="B800" s="16"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="B801" s="13"/>
+      <c r="B801" s="16"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="B802" s="13"/>
+      <c r="B802" s="16"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="B803" s="13"/>
+      <c r="B803" s="16"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="B804" s="13"/>
+      <c r="B804" s="16"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="B805" s="13"/>
+      <c r="B805" s="16"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="B806" s="13"/>
+      <c r="B806" s="16"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="B807" s="13"/>
+      <c r="B807" s="16"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="B808" s="13"/>
+      <c r="B808" s="16"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="B809" s="13"/>
+      <c r="B809" s="16"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="B810" s="13"/>
+      <c r="B810" s="16"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="B811" s="13"/>
+      <c r="B811" s="16"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="B812" s="13"/>
+      <c r="B812" s="16"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="B813" s="13"/>
+      <c r="B813" s="16"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="B814" s="13"/>
+      <c r="B814" s="16"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="B815" s="13"/>
+      <c r="B815" s="16"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="B816" s="13"/>
+      <c r="B816" s="16"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="B817" s="13"/>
+      <c r="B817" s="16"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="B818" s="13"/>
+      <c r="B818" s="16"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="B819" s="13"/>
+      <c r="B819" s="16"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="B820" s="13"/>
+      <c r="B820" s="16"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="B821" s="13"/>
+      <c r="B821" s="16"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="B822" s="13"/>
+      <c r="B822" s="16"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="B823" s="13"/>
+      <c r="B823" s="16"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="B824" s="13"/>
+      <c r="B824" s="16"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="B825" s="13"/>
+      <c r="B825" s="16"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="B826" s="13"/>
+      <c r="B826" s="16"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="B827" s="13"/>
+      <c r="B827" s="16"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="B828" s="13"/>
+      <c r="B828" s="16"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="B829" s="13"/>
+      <c r="B829" s="16"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="B830" s="13"/>
+      <c r="B830" s="16"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="B831" s="13"/>
+      <c r="B831" s="16"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="B832" s="13"/>
+      <c r="B832" s="16"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="B833" s="13"/>
+      <c r="B833" s="16"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="B834" s="13"/>
+      <c r="B834" s="16"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="B835" s="13"/>
+      <c r="B835" s="16"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="B836" s="13"/>
+      <c r="B836" s="16"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="B837" s="13"/>
+      <c r="B837" s="16"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="B838" s="13"/>
+      <c r="B838" s="16"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="B839" s="13"/>
+      <c r="B839" s="16"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="B840" s="13"/>
+      <c r="B840" s="16"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="B841" s="13"/>
+      <c r="B841" s="16"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="B842" s="13"/>
+      <c r="B842" s="16"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="B843" s="13"/>
+      <c r="B843" s="16"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="B844" s="13"/>
+      <c r="B844" s="16"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="B845" s="13"/>
+      <c r="B845" s="16"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="B846" s="13"/>
+      <c r="B846" s="16"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="B847" s="13"/>
+      <c r="B847" s="16"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="B848" s="13"/>
+      <c r="B848" s="16"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="B849" s="13"/>
+      <c r="B849" s="16"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="B850" s="13"/>
+      <c r="B850" s="16"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="B851" s="13"/>
+      <c r="B851" s="16"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="B852" s="13"/>
+      <c r="B852" s="16"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="B853" s="13"/>
+      <c r="B853" s="16"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="B854" s="13"/>
+      <c r="B854" s="16"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="B855" s="13"/>
+      <c r="B855" s="16"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="B856" s="13"/>
+      <c r="B856" s="16"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="B857" s="13"/>
+      <c r="B857" s="16"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="B858" s="13"/>
+      <c r="B858" s="16"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="B859" s="13"/>
+      <c r="B859" s="16"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="B860" s="13"/>
+      <c r="B860" s="16"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="B861" s="13"/>
+      <c r="B861" s="16"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="B862" s="13"/>
+      <c r="B862" s="16"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="B863" s="13"/>
+      <c r="B863" s="16"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="B864" s="13"/>
+      <c r="B864" s="16"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="B865" s="13"/>
+      <c r="B865" s="16"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="B866" s="13"/>
+      <c r="B866" s="16"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="B867" s="13"/>
+      <c r="B867" s="16"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="B868" s="13"/>
+      <c r="B868" s="16"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="B869" s="13"/>
+      <c r="B869" s="16"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="B870" s="13"/>
+      <c r="B870" s="16"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="B871" s="13"/>
+      <c r="B871" s="16"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="B872" s="13"/>
+      <c r="B872" s="16"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="B873" s="13"/>
+      <c r="B873" s="16"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="B874" s="13"/>
+      <c r="B874" s="16"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="B875" s="13"/>
+      <c r="B875" s="16"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="B876" s="13"/>
+      <c r="B876" s="16"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="B877" s="13"/>
+      <c r="B877" s="16"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="B878" s="13"/>
+      <c r="B878" s="16"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="B879" s="13"/>
+      <c r="B879" s="16"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="B880" s="13"/>
+      <c r="B880" s="16"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="B881" s="13"/>
+      <c r="B881" s="16"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="B882" s="13"/>
+      <c r="B882" s="16"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="B883" s="13"/>
+      <c r="B883" s="16"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="B884" s="13"/>
+      <c r="B884" s="16"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="B885" s="13"/>
+      <c r="B885" s="16"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="B886" s="13"/>
+      <c r="B886" s="16"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="B887" s="13"/>
+      <c r="B887" s="16"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="B888" s="13"/>
+      <c r="B888" s="16"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="B889" s="13"/>
+      <c r="B889" s="16"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="B890" s="13"/>
+      <c r="B890" s="16"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="B891" s="13"/>
+      <c r="B891" s="16"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="B892" s="13"/>
+      <c r="B892" s="16"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="B893" s="13"/>
+      <c r="B893" s="16"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="B894" s="13"/>
+      <c r="B894" s="16"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="B895" s="13"/>
+      <c r="B895" s="16"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="B896" s="13"/>
+      <c r="B896" s="16"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="B897" s="13"/>
+      <c r="B897" s="16"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="B898" s="13"/>
+      <c r="B898" s="16"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="B899" s="13"/>
+      <c r="B899" s="16"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="B900" s="13"/>
+      <c r="B900" s="16"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="B901" s="13"/>
+      <c r="B901" s="16"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="B902" s="13"/>
+      <c r="B902" s="16"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="B903" s="13"/>
+      <c r="B903" s="16"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="B904" s="13"/>
+      <c r="B904" s="16"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="B905" s="13"/>
+      <c r="B905" s="16"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="B906" s="13"/>
+      <c r="B906" s="16"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="B907" s="13"/>
+      <c r="B907" s="16"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="B908" s="13"/>
+      <c r="B908" s="16"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="B909" s="13"/>
+      <c r="B909" s="16"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="B910" s="13"/>
+      <c r="B910" s="16"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="B911" s="13"/>
+      <c r="B911" s="16"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="B912" s="13"/>
+      <c r="B912" s="16"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="B913" s="13"/>
+      <c r="B913" s="16"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="B914" s="13"/>
+      <c r="B914" s="16"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="B915" s="13"/>
+      <c r="B915" s="16"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="B916" s="13"/>
+      <c r="B916" s="16"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="B917" s="13"/>
+      <c r="B917" s="16"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="B918" s="13"/>
+      <c r="B918" s="16"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="B919" s="13"/>
+      <c r="B919" s="16"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="B920" s="13"/>
+      <c r="B920" s="16"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="B921" s="13"/>
+      <c r="B921" s="16"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="B922" s="13"/>
+      <c r="B922" s="16"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="B923" s="13"/>
+      <c r="B923" s="16"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="B924" s="13"/>
+      <c r="B924" s="16"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="B925" s="13"/>
+      <c r="B925" s="16"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="B926" s="13"/>
+      <c r="B926" s="16"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="B927" s="13"/>
+      <c r="B927" s="16"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="B928" s="13"/>
+      <c r="B928" s="16"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="B929" s="13"/>
+      <c r="B929" s="16"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="B930" s="13"/>
+      <c r="B930" s="16"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="B931" s="13"/>
+      <c r="B931" s="16"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="B932" s="13"/>
+      <c r="B932" s="16"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="B933" s="13"/>
+      <c r="B933" s="16"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="B934" s="13"/>
+      <c r="B934" s="16"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="B935" s="13"/>
+      <c r="B935" s="16"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="B936" s="13"/>
+      <c r="B936" s="16"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="B937" s="13"/>
+      <c r="B937" s="16"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="B938" s="13"/>
+      <c r="B938" s="16"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="B939" s="13"/>
+      <c r="B939" s="16"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="B940" s="13"/>
+      <c r="B940" s="16"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="B941" s="13"/>
+      <c r="B941" s="16"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="B942" s="13"/>
+      <c r="B942" s="16"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="B943" s="13"/>
+      <c r="B943" s="16"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="B944" s="13"/>
+      <c r="B944" s="16"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="B945" s="13"/>
+      <c r="B945" s="16"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="B946" s="13"/>
+      <c r="B946" s="16"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="B947" s="13"/>
+      <c r="B947" s="16"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="B948" s="13"/>
+      <c r="B948" s="16"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="B949" s="13"/>
+      <c r="B949" s="16"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="B950" s="13"/>
+      <c r="B950" s="16"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="B951" s="13"/>
+      <c r="B951" s="16"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="B952" s="13"/>
+      <c r="B952" s="16"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="B953" s="13"/>
+      <c r="B953" s="16"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="B954" s="13"/>
+      <c r="B954" s="16"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="B955" s="13"/>
+      <c r="B955" s="16"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="B956" s="13"/>
+      <c r="B956" s="16"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="B957" s="13"/>
+      <c r="B957" s="16"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="B958" s="13"/>
+      <c r="B958" s="16"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="B959" s="13"/>
+      <c r="B959" s="16"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="B960" s="13"/>
+      <c r="B960" s="16"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="B961" s="13"/>
+      <c r="B961" s="16"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="B962" s="13"/>
+      <c r="B962" s="16"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="B963" s="13"/>
+      <c r="B963" s="16"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="B964" s="13"/>
+      <c r="B964" s="16"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="B965" s="13"/>
+      <c r="B965" s="16"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="B966" s="13"/>
+      <c r="B966" s="16"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="B967" s="13"/>
+      <c r="B967" s="16"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="B968" s="13"/>
+      <c r="B968" s="16"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="B969" s="13"/>
+      <c r="B969" s="16"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="B970" s="13"/>
+      <c r="B970" s="16"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="B971" s="13"/>
+      <c r="B971" s="16"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="B972" s="13"/>
+      <c r="B972" s="16"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="B973" s="13"/>
+      <c r="B973" s="16"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="B974" s="13"/>
+      <c r="B974" s="16"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="B975" s="13"/>
+      <c r="B975" s="16"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="B976" s="13"/>
+      <c r="B976" s="16"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="B977" s="13"/>
+      <c r="B977" s="16"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="B978" s="13"/>
+      <c r="B978" s="16"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="B979" s="13"/>
+      <c r="B979" s="16"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="B980" s="13"/>
+      <c r="B980" s="16"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="B981" s="13"/>
+      <c r="B981" s="16"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="B982" s="13"/>
+      <c r="B982" s="16"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="B983" s="13"/>
+      <c r="B983" s="16"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="B984" s="13"/>
+      <c r="B984" s="16"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="B985" s="13"/>
+      <c r="B985" s="16"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="B986" s="13"/>
+      <c r="B986" s="16"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="B987" s="13"/>
+      <c r="B987" s="16"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="B988" s="13"/>
+      <c r="B988" s="16"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="B989" s="13"/>
+      <c r="B989" s="16"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="B990" s="13"/>
+      <c r="B990" s="16"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
-      <c r="B991" s="13"/>
+      <c r="B991" s="16"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
-      <c r="B992" s="13"/>
+      <c r="B992" s="16"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
-      <c r="B993" s="13"/>
+      <c r="B993" s="16"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
-      <c r="B994" s="13"/>
+      <c r="B994" s="16"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
-      <c r="B995" s="13"/>
+      <c r="B995" s="16"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
-      <c r="B996" s="13"/>
+      <c r="B996" s="16"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
-      <c r="B997" s="13"/>
+      <c r="B997" s="16"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
-      <c r="B998" s="13"/>
+      <c r="B998" s="16"/>
     </row>
     <row r="999" ht="15.75" customHeight="1">
-      <c r="B999" s="13"/>
-    </row>
-    <row r="1000" ht="15.75" customHeight="1">
-      <c r="B1000" s="13"/>
-    </row>
-    <row r="1001" ht="15.75" customHeight="1">
-      <c r="B1001" s="13"/>
-    </row>
-    <row r="1002" ht="15.75" customHeight="1">
-      <c r="B1002" s="13"/>
-    </row>
-    <row r="1003" ht="15.75" customHeight="1">
-      <c r="B1003" s="13"/>
+      <c r="B999" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A35:E35"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/TestCases_of_Idx-Auto-Tester.xlsx
+++ b/TestCases_of_Idx-Auto-Tester.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HARSH KULKARNI\Desktop\Hacktoberfest 2021\idx-auto-tester\idx-auto-tester\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0396CC5D-7BDF-4732-9806-9281A75CA67B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="TC_BasicFeatures" sheetId="1" r:id="rId4"/>
+    <sheet name="TC_BasicFeatures" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mi56KB2OgTyHqhRR8VC/H+sOOcirA=="/>
@@ -16,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="132">
   <si>
     <t>Test case ID</t>
   </si>
@@ -558,32 +567,51 @@
   <si>
     <t>User should get error message for empty phone number</t>
   </si>
+  <si>
+    <t>TC_30</t>
+  </si>
+  <si>
+    <t>Verify that the user is not able to perform forgot password journey when the length of phone number entered is not less than or greater than ten digits.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to Site URL
+2. Navigate to Forgot Password Page
+3. Enter Phone number with length not equal to ten.
+4. Click on Send button 
+</t>
+  </si>
+  <si>
+    <t>User should get error message for invalid phone number.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF032F62"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -593,7 +621,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -615,75 +643,85 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -873,25 +911,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="65.14"/>
-    <col customWidth="1" min="3" max="3" width="61.29"/>
-    <col customWidth="1" min="5" max="5" width="45.29"/>
+    <col min="2" max="2" width="65.109375" customWidth="1"/>
+    <col min="3" max="3" width="61.33203125" customWidth="1"/>
+    <col min="5" max="5" width="45.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -928,10 +971,14 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -953,18 +1000,18 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="3"/>
@@ -988,18 +1035,18 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="3"/>
@@ -1023,18 +1070,18 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="3"/>
@@ -1058,18 +1105,18 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:25" ht="132" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="3"/>
@@ -1093,18 +1140,18 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:25" ht="66" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="3"/>
@@ -1128,18 +1175,18 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:25" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="3"/>
@@ -1163,18 +1210,18 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:25" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F9" s="3"/>
@@ -1198,18 +1245,18 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:25" ht="66" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="3"/>
@@ -1233,10 +1280,14 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>38</v>
       </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1258,18 +1309,18 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:25" ht="66" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F12" s="3"/>
@@ -1293,18 +1344,18 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:25" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F13" s="3"/>
@@ -1328,18 +1379,18 @@
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:25" ht="66" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F14" s="3"/>
@@ -1363,18 +1414,18 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:25" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>53</v>
       </c>
       <c r="F15" s="3"/>
@@ -1398,18 +1449,18 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:25" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>57</v>
       </c>
       <c r="F16" s="3"/>
@@ -1433,10 +1484,14 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>58</v>
       </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -1458,18 +1513,18 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F18" s="3"/>
@@ -1493,18 +1548,18 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>66</v>
       </c>
       <c r="F19" s="3"/>
@@ -1528,10 +1583,14 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
         <v>67</v>
       </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1553,18 +1612,18 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:26" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>71</v>
       </c>
       <c r="F21" s="3"/>
@@ -1588,18 +1647,18 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:26" ht="132" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>75</v>
       </c>
       <c r="F22" s="3"/>
@@ -1623,118 +1682,122 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:26" ht="132" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="5" t="s">
+      <c r="D23" s="7"/>
+      <c r="E23" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="10"/>
-    </row>
-    <row r="24">
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="9"/>
+    </row>
+    <row r="24" spans="1:26" ht="132" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="5" t="s">
+      <c r="D24" s="7"/>
+      <c r="E24" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="10"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="11" t="s">
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="9"/>
+    </row>
+    <row r="25" spans="1:26" ht="132" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="13" t="s">
+      <c r="D25" s="7"/>
+      <c r="E25" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="10"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="4" t="s">
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="9"/>
+    </row>
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
         <v>88</v>
       </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -1756,18 +1819,18 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:26" ht="132" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>91</v>
       </c>
       <c r="D27" s="3"/>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>92</v>
       </c>
       <c r="F27" s="3"/>
@@ -1791,18 +1854,18 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
     </row>
-    <row r="28">
-      <c r="A28" s="11" t="s">
+    <row r="28" spans="1:26" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>95</v>
       </c>
       <c r="D28" s="3"/>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>96</v>
       </c>
       <c r="F28" s="3"/>
@@ -1826,10 +1889,14 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
         <v>97</v>
       </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -1851,18 +1918,18 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
     </row>
-    <row r="30">
-      <c r="A30" s="11" t="s">
+    <row r="30" spans="1:26" ht="184.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>100</v>
       </c>
       <c r="D30" s="3"/>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>101</v>
       </c>
       <c r="F30" s="3"/>
@@ -1886,10 +1953,14 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
         <v>102</v>
       </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -1911,18 +1982,18 @@
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
     </row>
-    <row r="32">
-      <c r="A32" s="11" t="s">
+    <row r="32" spans="1:26" ht="184.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="4" t="s">
         <v>106</v>
       </c>
       <c r="F32" s="3"/>
@@ -1946,18 +2017,18 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
     </row>
-    <row r="33">
-      <c r="A33" s="11" t="s">
+    <row r="33" spans="1:25" ht="158.4" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D33" s="3"/>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="4" t="s">
         <v>110</v>
       </c>
       <c r="F33" s="3"/>
@@ -1981,18 +2052,18 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
     </row>
-    <row r="34">
-      <c r="A34" s="11" t="s">
+    <row r="34" spans="1:25" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D34" s="3"/>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="4" t="s">
         <v>114</v>
       </c>
       <c r="F34" s="3"/>
@@ -2016,10 +2087,14 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="14" t="s">
+    <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
         <v>115</v>
       </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -2041,18 +2116,18 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
     </row>
-    <row r="36" ht="99.75" customHeight="1">
-      <c r="A36" s="11" t="s">
+    <row r="36" spans="1:25" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="12" t="s">
         <v>118</v>
       </c>
       <c r="D36" s="3"/>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="12" t="s">
         <v>119</v>
       </c>
       <c r="F36" s="3"/>
@@ -2076,18 +2151,18 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
     </row>
-    <row r="37" ht="49.5" customHeight="1">
-      <c r="A37" s="11" t="s">
+    <row r="37" spans="1:25" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="12" t="s">
         <v>122</v>
       </c>
       <c r="D37" s="3"/>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="13" t="s">
         <v>123</v>
       </c>
       <c r="F37" s="3"/>
@@ -2111,18 +2186,18 @@
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
     </row>
-    <row r="38" ht="37.5" customHeight="1">
-      <c r="A38" s="11" t="s">
+    <row r="38" spans="1:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="12" t="s">
         <v>126</v>
       </c>
       <c r="D38" s="3"/>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="13" t="s">
         <v>127</v>
       </c>
       <c r="F38" s="3"/>
@@ -2146,39 +2221,47 @@
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="3"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="39" spans="1:25" s="17" customFormat="1" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+    </row>
+    <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="5"/>
+      <c r="E40" s="4"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -2200,12 +2283,12 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
       <c r="D41" s="3"/>
-      <c r="E41" s="5"/>
+      <c r="E41" s="4"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -2227,12 +2310,12 @@
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="5"/>
+      <c r="E42" s="4"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -2254,12 +2337,12 @@
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="5"/>
+      <c r="E43" s="4"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -2281,12 +2364,12 @@
       <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
       <c r="D44" s="3"/>
-      <c r="E44" s="5"/>
+      <c r="E44" s="4"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -2308,12 +2391,12 @@
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
       <c r="D45" s="3"/>
-      <c r="E45" s="5"/>
+      <c r="E45" s="4"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -2335,12 +2418,12 @@
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="5"/>
+      <c r="E46" s="4"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -2362,12 +2445,12 @@
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
       <c r="D47" s="3"/>
-      <c r="E47" s="5"/>
+      <c r="E47" s="4"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -2389,12 +2472,12 @@
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
       <c r="D48" s="3"/>
-      <c r="E48" s="5"/>
+      <c r="E48" s="4"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -2416,12 +2499,12 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="5"/>
+      <c r="E49" s="4"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -2443,12 +2526,12 @@
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="5"/>
+      <c r="E50" s="4"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -2470,12 +2553,12 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="5"/>
+      <c r="E51" s="4"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -2497,12 +2580,12 @@
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="5"/>
+      <c r="E52" s="4"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -2524,12 +2607,12 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="5"/>
+      <c r="E53" s="4"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -2551,12 +2634,12 @@
       <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="5"/>
+      <c r="E54" s="4"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -2578,12 +2661,12 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="5"/>
+      <c r="E55" s="4"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
@@ -2605,12 +2688,12 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="5"/>
+      <c r="E56" s="4"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -2632,12 +2715,12 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="5"/>
+      <c r="E57" s="4"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -2659,12 +2742,12 @@
       <c r="X57" s="3"/>
       <c r="Y57" s="3"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
       <c r="D58" s="3"/>
-      <c r="E58" s="5"/>
+      <c r="E58" s="4"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -2686,12 +2769,12 @@
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
       <c r="D59" s="3"/>
-      <c r="E59" s="5"/>
+      <c r="E59" s="4"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -2713,12 +2796,12 @@
       <c r="X59" s="3"/>
       <c r="Y59" s="3"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
       <c r="D60" s="3"/>
-      <c r="E60" s="5"/>
+      <c r="E60" s="4"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -2740,12 +2823,12 @@
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
       <c r="D61" s="3"/>
-      <c r="E61" s="5"/>
+      <c r="E61" s="4"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -2767,12 +2850,12 @@
       <c r="X61" s="3"/>
       <c r="Y61" s="3"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
       <c r="D62" s="3"/>
-      <c r="E62" s="5"/>
+      <c r="E62" s="4"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -2794,12 +2877,12 @@
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
       <c r="D63" s="3"/>
-      <c r="E63" s="5"/>
+      <c r="E63" s="4"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -2821,12 +2904,12 @@
       <c r="X63" s="3"/>
       <c r="Y63" s="3"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
       <c r="D64" s="3"/>
-      <c r="E64" s="5"/>
+      <c r="E64" s="4"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -2848,12 +2931,12 @@
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
       <c r="D65" s="3"/>
-      <c r="E65" s="5"/>
+      <c r="E65" s="4"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
@@ -2875,12 +2958,12 @@
       <c r="X65" s="3"/>
       <c r="Y65" s="3"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
       <c r="D66" s="3"/>
-      <c r="E66" s="5"/>
+      <c r="E66" s="4"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -2902,12 +2985,12 @@
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
       <c r="D67" s="3"/>
-      <c r="E67" s="5"/>
+      <c r="E67" s="4"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
@@ -2929,12 +3012,12 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
       <c r="D68" s="3"/>
-      <c r="E68" s="5"/>
+      <c r="E68" s="4"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
@@ -2956,12 +3039,12 @@
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
       <c r="D69" s="3"/>
-      <c r="E69" s="5"/>
+      <c r="E69" s="4"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
@@ -2983,12 +3066,12 @@
       <c r="X69" s="3"/>
       <c r="Y69" s="3"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
       <c r="D70" s="3"/>
-      <c r="E70" s="5"/>
+      <c r="E70" s="4"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
@@ -3010,12 +3093,12 @@
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
       <c r="D71" s="3"/>
-      <c r="E71" s="5"/>
+      <c r="E71" s="4"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
@@ -3037,12 +3120,12 @@
       <c r="X71" s="3"/>
       <c r="Y71" s="3"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
       <c r="D72" s="3"/>
-      <c r="E72" s="5"/>
+      <c r="E72" s="4"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
@@ -3064,12 +3147,12 @@
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
       <c r="D73" s="3"/>
-      <c r="E73" s="5"/>
+      <c r="E73" s="4"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -3091,12 +3174,12 @@
       <c r="X73" s="3"/>
       <c r="Y73" s="3"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
       <c r="D74" s="3"/>
-      <c r="E74" s="5"/>
+      <c r="E74" s="4"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
@@ -3118,12 +3201,12 @@
       <c r="X74" s="3"/>
       <c r="Y74" s="3"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
       <c r="D75" s="3"/>
-      <c r="E75" s="5"/>
+      <c r="E75" s="4"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
@@ -3145,12 +3228,12 @@
       <c r="X75" s="3"/>
       <c r="Y75" s="3"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
       <c r="D76" s="3"/>
-      <c r="E76" s="5"/>
+      <c r="E76" s="4"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
@@ -3172,12 +3255,12 @@
       <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
       <c r="D77" s="3"/>
-      <c r="E77" s="5"/>
+      <c r="E77" s="4"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
@@ -3199,12 +3282,12 @@
       <c r="X77" s="3"/>
       <c r="Y77" s="3"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
       <c r="D78" s="3"/>
-      <c r="E78" s="5"/>
+      <c r="E78" s="4"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -3226,12 +3309,12 @@
       <c r="X78" s="3"/>
       <c r="Y78" s="3"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
       <c r="D79" s="3"/>
-      <c r="E79" s="5"/>
+      <c r="E79" s="4"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
@@ -3253,12 +3336,12 @@
       <c r="X79" s="3"/>
       <c r="Y79" s="3"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
       <c r="D80" s="3"/>
-      <c r="E80" s="5"/>
+      <c r="E80" s="4"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
@@ -3280,12 +3363,12 @@
       <c r="X80" s="3"/>
       <c r="Y80" s="3"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
       <c r="D81" s="3"/>
-      <c r="E81" s="5"/>
+      <c r="E81" s="4"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
@@ -3307,12 +3390,12 @@
       <c r="X81" s="3"/>
       <c r="Y81" s="3"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
       <c r="D82" s="3"/>
-      <c r="E82" s="5"/>
+      <c r="E82" s="4"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
@@ -3334,12 +3417,12 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
       <c r="D83" s="3"/>
-      <c r="E83" s="5"/>
+      <c r="E83" s="4"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
@@ -3361,12 +3444,12 @@
       <c r="X83" s="3"/>
       <c r="Y83" s="3"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="5"/>
+      <c r="E84" s="4"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
@@ -3388,12 +3471,12 @@
       <c r="X84" s="3"/>
       <c r="Y84" s="3"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
       <c r="D85" s="3"/>
-      <c r="E85" s="5"/>
+      <c r="E85" s="4"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
@@ -3415,12 +3498,12 @@
       <c r="X85" s="3"/>
       <c r="Y85" s="3"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="5"/>
+      <c r="E86" s="4"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
@@ -3442,12 +3525,12 @@
       <c r="X86" s="3"/>
       <c r="Y86" s="3"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
       <c r="D87" s="3"/>
-      <c r="E87" s="5"/>
+      <c r="E87" s="4"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
@@ -3469,12 +3552,12 @@
       <c r="X87" s="3"/>
       <c r="Y87" s="3"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
       <c r="D88" s="3"/>
-      <c r="E88" s="5"/>
+      <c r="E88" s="4"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
@@ -3496,12 +3579,12 @@
       <c r="X88" s="3"/>
       <c r="Y88" s="3"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
       <c r="D89" s="3"/>
-      <c r="E89" s="5"/>
+      <c r="E89" s="4"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
@@ -3523,12 +3606,12 @@
       <c r="X89" s="3"/>
       <c r="Y89" s="3"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
       <c r="D90" s="3"/>
-      <c r="E90" s="5"/>
+      <c r="E90" s="4"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
@@ -3550,12 +3633,12 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
       <c r="D91" s="3"/>
-      <c r="E91" s="5"/>
+      <c r="E91" s="4"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
@@ -3577,12 +3660,12 @@
       <c r="X91" s="3"/>
       <c r="Y91" s="3"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
       <c r="D92" s="3"/>
-      <c r="E92" s="5"/>
+      <c r="E92" s="4"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
@@ -3604,12 +3687,12 @@
       <c r="X92" s="3"/>
       <c r="Y92" s="3"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
       <c r="D93" s="3"/>
-      <c r="E93" s="5"/>
+      <c r="E93" s="4"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
@@ -3631,12 +3714,12 @@
       <c r="X93" s="3"/>
       <c r="Y93" s="3"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
       <c r="D94" s="3"/>
-      <c r="E94" s="5"/>
+      <c r="E94" s="4"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -3658,12 +3741,12 @@
       <c r="X94" s="3"/>
       <c r="Y94" s="3"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
       <c r="D95" s="3"/>
-      <c r="E95" s="5"/>
+      <c r="E95" s="4"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
@@ -3685,12 +3768,12 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
       <c r="D96" s="3"/>
-      <c r="E96" s="5"/>
+      <c r="E96" s="4"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
@@ -3712,12 +3795,12 @@
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
       <c r="D97" s="3"/>
-      <c r="E97" s="5"/>
+      <c r="E97" s="4"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
@@ -3739,12 +3822,12 @@
       <c r="X97" s="3"/>
       <c r="Y97" s="3"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
       <c r="D98" s="3"/>
-      <c r="E98" s="5"/>
+      <c r="E98" s="4"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
@@ -3766,12 +3849,12 @@
       <c r="X98" s="3"/>
       <c r="Y98" s="3"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
       <c r="D99" s="3"/>
-      <c r="E99" s="5"/>
+      <c r="E99" s="4"/>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
@@ -3793,12 +3876,12 @@
       <c r="X99" s="3"/>
       <c r="Y99" s="3"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
       <c r="D100" s="3"/>
-      <c r="E100" s="5"/>
+      <c r="E100" s="4"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
@@ -3820,12 +3903,12 @@
       <c r="X100" s="3"/>
       <c r="Y100" s="3"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
       <c r="D101" s="3"/>
-      <c r="E101" s="5"/>
+      <c r="E101" s="4"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
@@ -3847,12 +3930,12 @@
       <c r="X101" s="3"/>
       <c r="Y101" s="3"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
       <c r="D102" s="3"/>
-      <c r="E102" s="5"/>
+      <c r="E102" s="4"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
@@ -3874,12 +3957,12 @@
       <c r="X102" s="3"/>
       <c r="Y102" s="3"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
       <c r="D103" s="3"/>
-      <c r="E103" s="5"/>
+      <c r="E103" s="4"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -3901,12 +3984,12 @@
       <c r="X103" s="3"/>
       <c r="Y103" s="3"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
       <c r="D104" s="3"/>
-      <c r="E104" s="5"/>
+      <c r="E104" s="4"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -3928,12 +4011,12 @@
       <c r="X104" s="3"/>
       <c r="Y104" s="3"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
       <c r="D105" s="3"/>
-      <c r="E105" s="5"/>
+      <c r="E105" s="4"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -3955,12 +4038,12 @@
       <c r="X105" s="3"/>
       <c r="Y105" s="3"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
       <c r="D106" s="3"/>
-      <c r="E106" s="5"/>
+      <c r="E106" s="4"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -3982,12 +4065,12 @@
       <c r="X106" s="3"/>
       <c r="Y106" s="3"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
       <c r="D107" s="3"/>
-      <c r="E107" s="5"/>
+      <c r="E107" s="4"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -4009,12 +4092,12 @@
       <c r="X107" s="3"/>
       <c r="Y107" s="3"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
       <c r="D108" s="3"/>
-      <c r="E108" s="5"/>
+      <c r="E108" s="4"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
@@ -4036,12 +4119,12 @@
       <c r="X108" s="3"/>
       <c r="Y108" s="3"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
       <c r="D109" s="3"/>
-      <c r="E109" s="5"/>
+      <c r="E109" s="4"/>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
@@ -4063,12 +4146,12 @@
       <c r="X109" s="3"/>
       <c r="Y109" s="3"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
       <c r="D110" s="3"/>
-      <c r="E110" s="5"/>
+      <c r="E110" s="4"/>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
@@ -4090,12 +4173,12 @@
       <c r="X110" s="3"/>
       <c r="Y110" s="3"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
       <c r="D111" s="3"/>
-      <c r="E111" s="5"/>
+      <c r="E111" s="4"/>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
@@ -4117,12 +4200,12 @@
       <c r="X111" s="3"/>
       <c r="Y111" s="3"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
       <c r="D112" s="3"/>
-      <c r="E112" s="5"/>
+      <c r="E112" s="4"/>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
@@ -4144,12 +4227,12 @@
       <c r="X112" s="3"/>
       <c r="Y112" s="3"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
       <c r="D113" s="3"/>
-      <c r="E113" s="5"/>
+      <c r="E113" s="4"/>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
@@ -4171,12 +4254,12 @@
       <c r="X113" s="3"/>
       <c r="Y113" s="3"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
-      <c r="B114" s="5"/>
-      <c r="C114" s="5"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
       <c r="D114" s="3"/>
-      <c r="E114" s="5"/>
+      <c r="E114" s="4"/>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
@@ -4198,12 +4281,12 @@
       <c r="X114" s="3"/>
       <c r="Y114" s="3"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
-      <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
       <c r="D115" s="3"/>
-      <c r="E115" s="5"/>
+      <c r="E115" s="4"/>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
@@ -4225,12 +4308,12 @@
       <c r="X115" s="3"/>
       <c r="Y115" s="3"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
       <c r="D116" s="3"/>
-      <c r="E116" s="5"/>
+      <c r="E116" s="4"/>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
@@ -4252,12 +4335,12 @@
       <c r="X116" s="3"/>
       <c r="Y116" s="3"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
       <c r="D117" s="3"/>
-      <c r="E117" s="5"/>
+      <c r="E117" s="4"/>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
@@ -4279,12 +4362,12 @@
       <c r="X117" s="3"/>
       <c r="Y117" s="3"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
       <c r="D118" s="3"/>
-      <c r="E118" s="5"/>
+      <c r="E118" s="4"/>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
@@ -4306,12 +4389,12 @@
       <c r="X118" s="3"/>
       <c r="Y118" s="3"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
-      <c r="B119" s="5"/>
-      <c r="C119" s="5"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
       <c r="D119" s="3"/>
-      <c r="E119" s="5"/>
+      <c r="E119" s="4"/>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
@@ -4333,12 +4416,12 @@
       <c r="X119" s="3"/>
       <c r="Y119" s="3"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
       <c r="D120" s="3"/>
-      <c r="E120" s="5"/>
+      <c r="E120" s="4"/>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
@@ -4360,12 +4443,12 @@
       <c r="X120" s="3"/>
       <c r="Y120" s="3"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
       <c r="D121" s="3"/>
-      <c r="E121" s="5"/>
+      <c r="E121" s="4"/>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
@@ -4387,12 +4470,12 @@
       <c r="X121" s="3"/>
       <c r="Y121" s="3"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
       <c r="D122" s="3"/>
-      <c r="E122" s="5"/>
+      <c r="E122" s="4"/>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
@@ -4414,12 +4497,12 @@
       <c r="X122" s="3"/>
       <c r="Y122" s="3"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
-      <c r="B123" s="5"/>
-      <c r="C123" s="5"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
       <c r="D123" s="3"/>
-      <c r="E123" s="5"/>
+      <c r="E123" s="4"/>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
@@ -4441,12 +4524,12 @@
       <c r="X123" s="3"/>
       <c r="Y123" s="3"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
-      <c r="B124" s="5"/>
-      <c r="C124" s="5"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
       <c r="D124" s="3"/>
-      <c r="E124" s="5"/>
+      <c r="E124" s="4"/>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
@@ -4468,12 +4551,12 @@
       <c r="X124" s="3"/>
       <c r="Y124" s="3"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
       <c r="D125" s="3"/>
-      <c r="E125" s="5"/>
+      <c r="E125" s="4"/>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
@@ -4495,12 +4578,12 @@
       <c r="X125" s="3"/>
       <c r="Y125" s="3"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
       <c r="D126" s="3"/>
-      <c r="E126" s="5"/>
+      <c r="E126" s="4"/>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
@@ -4522,12 +4605,12 @@
       <c r="X126" s="3"/>
       <c r="Y126" s="3"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="5"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
       <c r="D127" s="3"/>
-      <c r="E127" s="5"/>
+      <c r="E127" s="4"/>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
@@ -4549,12 +4632,12 @@
       <c r="X127" s="3"/>
       <c r="Y127" s="3"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
-      <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
       <c r="D128" s="3"/>
-      <c r="E128" s="5"/>
+      <c r="E128" s="4"/>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
@@ -4576,12 +4659,12 @@
       <c r="X128" s="3"/>
       <c r="Y128" s="3"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
-      <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
       <c r="D129" s="3"/>
-      <c r="E129" s="5"/>
+      <c r="E129" s="4"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
@@ -4603,12 +4686,12 @@
       <c r="X129" s="3"/>
       <c r="Y129" s="3"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
       <c r="D130" s="3"/>
-      <c r="E130" s="5"/>
+      <c r="E130" s="4"/>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
@@ -4630,12 +4713,12 @@
       <c r="X130" s="3"/>
       <c r="Y130" s="3"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="5"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
       <c r="D131" s="3"/>
-      <c r="E131" s="5"/>
+      <c r="E131" s="4"/>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
@@ -4657,12 +4740,12 @@
       <c r="X131" s="3"/>
       <c r="Y131" s="3"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
-      <c r="B132" s="5"/>
-      <c r="C132" s="5"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
       <c r="D132" s="3"/>
-      <c r="E132" s="5"/>
+      <c r="E132" s="4"/>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
@@ -4684,12 +4767,12 @@
       <c r="X132" s="3"/>
       <c r="Y132" s="3"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
-      <c r="B133" s="5"/>
-      <c r="C133" s="5"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
       <c r="D133" s="3"/>
-      <c r="E133" s="5"/>
+      <c r="E133" s="4"/>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
@@ -4711,12 +4794,12 @@
       <c r="X133" s="3"/>
       <c r="Y133" s="3"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
-      <c r="B134" s="5"/>
-      <c r="C134" s="5"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
       <c r="D134" s="3"/>
-      <c r="E134" s="5"/>
+      <c r="E134" s="4"/>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
@@ -4738,12 +4821,12 @@
       <c r="X134" s="3"/>
       <c r="Y134" s="3"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
-      <c r="B135" s="5"/>
-      <c r="C135" s="5"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
       <c r="D135" s="3"/>
-      <c r="E135" s="5"/>
+      <c r="E135" s="4"/>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
@@ -4765,12 +4848,12 @@
       <c r="X135" s="3"/>
       <c r="Y135" s="3"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="5"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
       <c r="D136" s="3"/>
-      <c r="E136" s="5"/>
+      <c r="E136" s="4"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
@@ -4792,12 +4875,12 @@
       <c r="X136" s="3"/>
       <c r="Y136" s="3"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
-      <c r="B137" s="5"/>
-      <c r="C137" s="5"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
       <c r="D137" s="3"/>
-      <c r="E137" s="5"/>
+      <c r="E137" s="4"/>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
@@ -4819,12 +4902,12 @@
       <c r="X137" s="3"/>
       <c r="Y137" s="3"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
-      <c r="B138" s="5"/>
-      <c r="C138" s="5"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
       <c r="D138" s="3"/>
-      <c r="E138" s="5"/>
+      <c r="E138" s="4"/>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
@@ -4846,12 +4929,12 @@
       <c r="X138" s="3"/>
       <c r="Y138" s="3"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
-      <c r="B139" s="5"/>
-      <c r="C139" s="5"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
       <c r="D139" s="3"/>
-      <c r="E139" s="5"/>
+      <c r="E139" s="4"/>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
@@ -4873,12 +4956,12 @@
       <c r="X139" s="3"/>
       <c r="Y139" s="3"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
-      <c r="B140" s="5"/>
-      <c r="C140" s="5"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="4"/>
       <c r="D140" s="3"/>
-      <c r="E140" s="5"/>
+      <c r="E140" s="4"/>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
@@ -4900,12 +4983,12 @@
       <c r="X140" s="3"/>
       <c r="Y140" s="3"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
-      <c r="B141" s="5"/>
-      <c r="C141" s="5"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
       <c r="D141" s="3"/>
-      <c r="E141" s="5"/>
+      <c r="E141" s="4"/>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
@@ -4927,12 +5010,12 @@
       <c r="X141" s="3"/>
       <c r="Y141" s="3"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
-      <c r="B142" s="5"/>
-      <c r="C142" s="5"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
       <c r="D142" s="3"/>
-      <c r="E142" s="5"/>
+      <c r="E142" s="4"/>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
@@ -4954,12 +5037,12 @@
       <c r="X142" s="3"/>
       <c r="Y142" s="3"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
-      <c r="B143" s="5"/>
-      <c r="C143" s="5"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
       <c r="D143" s="3"/>
-      <c r="E143" s="5"/>
+      <c r="E143" s="4"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
@@ -4981,12 +5064,12 @@
       <c r="X143" s="3"/>
       <c r="Y143" s="3"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
-      <c r="B144" s="5"/>
-      <c r="C144" s="5"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
       <c r="D144" s="3"/>
-      <c r="E144" s="5"/>
+      <c r="E144" s="4"/>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
@@ -5008,12 +5091,12 @@
       <c r="X144" s="3"/>
       <c r="Y144" s="3"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
-      <c r="B145" s="5"/>
-      <c r="C145" s="5"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
       <c r="D145" s="3"/>
-      <c r="E145" s="5"/>
+      <c r="E145" s="4"/>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
@@ -5035,12 +5118,12 @@
       <c r="X145" s="3"/>
       <c r="Y145" s="3"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
-      <c r="B146" s="5"/>
-      <c r="C146" s="5"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
       <c r="D146" s="3"/>
-      <c r="E146" s="5"/>
+      <c r="E146" s="4"/>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
@@ -5062,12 +5145,12 @@
       <c r="X146" s="3"/>
       <c r="Y146" s="3"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
-      <c r="B147" s="5"/>
-      <c r="C147" s="5"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
       <c r="D147" s="3"/>
-      <c r="E147" s="5"/>
+      <c r="E147" s="4"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
@@ -5089,12 +5172,12 @@
       <c r="X147" s="3"/>
       <c r="Y147" s="3"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
-      <c r="B148" s="5"/>
-      <c r="C148" s="5"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
       <c r="D148" s="3"/>
-      <c r="E148" s="5"/>
+      <c r="E148" s="4"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
@@ -5116,12 +5199,12 @@
       <c r="X148" s="3"/>
       <c r="Y148" s="3"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
-      <c r="B149" s="5"/>
-      <c r="C149" s="5"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
       <c r="D149" s="3"/>
-      <c r="E149" s="5"/>
+      <c r="E149" s="4"/>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
@@ -5143,12 +5226,12 @@
       <c r="X149" s="3"/>
       <c r="Y149" s="3"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
-      <c r="B150" s="5"/>
-      <c r="C150" s="5"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
       <c r="D150" s="3"/>
-      <c r="E150" s="5"/>
+      <c r="E150" s="4"/>
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
@@ -5170,12 +5253,12 @@
       <c r="X150" s="3"/>
       <c r="Y150" s="3"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
-      <c r="B151" s="5"/>
-      <c r="C151" s="5"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
       <c r="D151" s="3"/>
-      <c r="E151" s="5"/>
+      <c r="E151" s="4"/>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
@@ -5197,12 +5280,12 @@
       <c r="X151" s="3"/>
       <c r="Y151" s="3"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
-      <c r="B152" s="5"/>
-      <c r="C152" s="5"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="4"/>
       <c r="D152" s="3"/>
-      <c r="E152" s="5"/>
+      <c r="E152" s="4"/>
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
@@ -5224,12 +5307,12 @@
       <c r="X152" s="3"/>
       <c r="Y152" s="3"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
-      <c r="B153" s="5"/>
-      <c r="C153" s="5"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="4"/>
       <c r="D153" s="3"/>
-      <c r="E153" s="5"/>
+      <c r="E153" s="4"/>
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
@@ -5251,12 +5334,12 @@
       <c r="X153" s="3"/>
       <c r="Y153" s="3"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
-      <c r="B154" s="5"/>
-      <c r="C154" s="5"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="4"/>
       <c r="D154" s="3"/>
-      <c r="E154" s="5"/>
+      <c r="E154" s="4"/>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
@@ -5278,12 +5361,12 @@
       <c r="X154" s="3"/>
       <c r="Y154" s="3"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
-      <c r="B155" s="5"/>
-      <c r="C155" s="5"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="4"/>
       <c r="D155" s="3"/>
-      <c r="E155" s="5"/>
+      <c r="E155" s="4"/>
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
@@ -5305,12 +5388,12 @@
       <c r="X155" s="3"/>
       <c r="Y155" s="3"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
-      <c r="B156" s="5"/>
-      <c r="C156" s="5"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="4"/>
       <c r="D156" s="3"/>
-      <c r="E156" s="5"/>
+      <c r="E156" s="4"/>
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
@@ -5332,12 +5415,12 @@
       <c r="X156" s="3"/>
       <c r="Y156" s="3"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
-      <c r="B157" s="5"/>
-      <c r="C157" s="5"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
       <c r="D157" s="3"/>
-      <c r="E157" s="5"/>
+      <c r="E157" s="4"/>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
@@ -5359,12 +5442,12 @@
       <c r="X157" s="3"/>
       <c r="Y157" s="3"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
-      <c r="B158" s="5"/>
-      <c r="C158" s="5"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="4"/>
       <c r="D158" s="3"/>
-      <c r="E158" s="5"/>
+      <c r="E158" s="4"/>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
@@ -5386,12 +5469,12 @@
       <c r="X158" s="3"/>
       <c r="Y158" s="3"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
-      <c r="B159" s="5"/>
-      <c r="C159" s="5"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="4"/>
       <c r="D159" s="3"/>
-      <c r="E159" s="5"/>
+      <c r="E159" s="4"/>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
@@ -5413,12 +5496,12 @@
       <c r="X159" s="3"/>
       <c r="Y159" s="3"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
-      <c r="B160" s="5"/>
-      <c r="C160" s="5"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="4"/>
       <c r="D160" s="3"/>
-      <c r="E160" s="5"/>
+      <c r="E160" s="4"/>
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
@@ -5440,12 +5523,12 @@
       <c r="X160" s="3"/>
       <c r="Y160" s="3"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
-      <c r="B161" s="5"/>
-      <c r="C161" s="5"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="4"/>
       <c r="D161" s="3"/>
-      <c r="E161" s="5"/>
+      <c r="E161" s="4"/>
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
@@ -5467,12 +5550,12 @@
       <c r="X161" s="3"/>
       <c r="Y161" s="3"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
-      <c r="B162" s="5"/>
-      <c r="C162" s="5"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="4"/>
       <c r="D162" s="3"/>
-      <c r="E162" s="5"/>
+      <c r="E162" s="4"/>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
@@ -5494,12 +5577,12 @@
       <c r="X162" s="3"/>
       <c r="Y162" s="3"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
-      <c r="B163" s="5"/>
-      <c r="C163" s="5"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="4"/>
       <c r="D163" s="3"/>
-      <c r="E163" s="5"/>
+      <c r="E163" s="4"/>
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
@@ -5521,12 +5604,12 @@
       <c r="X163" s="3"/>
       <c r="Y163" s="3"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
-      <c r="B164" s="5"/>
-      <c r="C164" s="5"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="4"/>
       <c r="D164" s="3"/>
-      <c r="E164" s="5"/>
+      <c r="E164" s="4"/>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
@@ -5548,12 +5631,12 @@
       <c r="X164" s="3"/>
       <c r="Y164" s="3"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
-      <c r="B165" s="5"/>
-      <c r="C165" s="5"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
       <c r="D165" s="3"/>
-      <c r="E165" s="5"/>
+      <c r="E165" s="4"/>
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
@@ -5575,12 +5658,12 @@
       <c r="X165" s="3"/>
       <c r="Y165" s="3"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
-      <c r="B166" s="5"/>
-      <c r="C166" s="5"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="4"/>
       <c r="D166" s="3"/>
-      <c r="E166" s="5"/>
+      <c r="E166" s="4"/>
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
@@ -5602,12 +5685,12 @@
       <c r="X166" s="3"/>
       <c r="Y166" s="3"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
-      <c r="B167" s="5"/>
-      <c r="C167" s="5"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="4"/>
       <c r="D167" s="3"/>
-      <c r="E167" s="5"/>
+      <c r="E167" s="4"/>
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
@@ -5629,12 +5712,12 @@
       <c r="X167" s="3"/>
       <c r="Y167" s="3"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
-      <c r="B168" s="5"/>
-      <c r="C168" s="5"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="4"/>
       <c r="D168" s="3"/>
-      <c r="E168" s="5"/>
+      <c r="E168" s="4"/>
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
@@ -5656,12 +5739,12 @@
       <c r="X168" s="3"/>
       <c r="Y168" s="3"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
-      <c r="B169" s="5"/>
-      <c r="C169" s="5"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="4"/>
       <c r="D169" s="3"/>
-      <c r="E169" s="5"/>
+      <c r="E169" s="4"/>
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
@@ -5683,12 +5766,12 @@
       <c r="X169" s="3"/>
       <c r="Y169" s="3"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
-      <c r="B170" s="5"/>
-      <c r="C170" s="5"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="4"/>
       <c r="D170" s="3"/>
-      <c r="E170" s="5"/>
+      <c r="E170" s="4"/>
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
@@ -5710,12 +5793,12 @@
       <c r="X170" s="3"/>
       <c r="Y170" s="3"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
-      <c r="B171" s="5"/>
-      <c r="C171" s="5"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="4"/>
       <c r="D171" s="3"/>
-      <c r="E171" s="5"/>
+      <c r="E171" s="4"/>
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
@@ -5737,12 +5820,12 @@
       <c r="X171" s="3"/>
       <c r="Y171" s="3"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
-      <c r="B172" s="5"/>
-      <c r="C172" s="5"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="4"/>
       <c r="D172" s="3"/>
-      <c r="E172" s="5"/>
+      <c r="E172" s="4"/>
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
@@ -5764,12 +5847,12 @@
       <c r="X172" s="3"/>
       <c r="Y172" s="3"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
-      <c r="B173" s="5"/>
-      <c r="C173" s="5"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="4"/>
       <c r="D173" s="3"/>
-      <c r="E173" s="5"/>
+      <c r="E173" s="4"/>
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
@@ -5791,12 +5874,12 @@
       <c r="X173" s="3"/>
       <c r="Y173" s="3"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
-      <c r="B174" s="5"/>
-      <c r="C174" s="5"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="4"/>
       <c r="D174" s="3"/>
-      <c r="E174" s="5"/>
+      <c r="E174" s="4"/>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
@@ -5818,12 +5901,12 @@
       <c r="X174" s="3"/>
       <c r="Y174" s="3"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
-      <c r="B175" s="5"/>
-      <c r="C175" s="5"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
       <c r="D175" s="3"/>
-      <c r="E175" s="5"/>
+      <c r="E175" s="4"/>
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
@@ -5845,12 +5928,12 @@
       <c r="X175" s="3"/>
       <c r="Y175" s="3"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
-      <c r="B176" s="5"/>
-      <c r="C176" s="5"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="4"/>
       <c r="D176" s="3"/>
-      <c r="E176" s="5"/>
+      <c r="E176" s="4"/>
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
@@ -5872,12 +5955,12 @@
       <c r="X176" s="3"/>
       <c r="Y176" s="3"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
-      <c r="B177" s="5"/>
-      <c r="C177" s="5"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
       <c r="D177" s="3"/>
-      <c r="E177" s="5"/>
+      <c r="E177" s="4"/>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
@@ -5899,12 +5982,12 @@
       <c r="X177" s="3"/>
       <c r="Y177" s="3"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
-      <c r="B178" s="5"/>
-      <c r="C178" s="5"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="4"/>
       <c r="D178" s="3"/>
-      <c r="E178" s="5"/>
+      <c r="E178" s="4"/>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
@@ -5926,12 +6009,12 @@
       <c r="X178" s="3"/>
       <c r="Y178" s="3"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
-      <c r="B179" s="5"/>
-      <c r="C179" s="5"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="4"/>
       <c r="D179" s="3"/>
-      <c r="E179" s="5"/>
+      <c r="E179" s="4"/>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
@@ -5953,12 +6036,12 @@
       <c r="X179" s="3"/>
       <c r="Y179" s="3"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
-      <c r="B180" s="5"/>
-      <c r="C180" s="5"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="4"/>
       <c r="D180" s="3"/>
-      <c r="E180" s="5"/>
+      <c r="E180" s="4"/>
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
@@ -5980,12 +6063,12 @@
       <c r="X180" s="3"/>
       <c r="Y180" s="3"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
-      <c r="B181" s="5"/>
-      <c r="C181" s="5"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="4"/>
       <c r="D181" s="3"/>
-      <c r="E181" s="5"/>
+      <c r="E181" s="4"/>
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
@@ -6007,12 +6090,12 @@
       <c r="X181" s="3"/>
       <c r="Y181" s="3"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
-      <c r="B182" s="5"/>
-      <c r="C182" s="5"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="4"/>
       <c r="D182" s="3"/>
-      <c r="E182" s="5"/>
+      <c r="E182" s="4"/>
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
@@ -6034,12 +6117,12 @@
       <c r="X182" s="3"/>
       <c r="Y182" s="3"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
-      <c r="B183" s="5"/>
-      <c r="C183" s="5"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="4"/>
       <c r="D183" s="3"/>
-      <c r="E183" s="5"/>
+      <c r="E183" s="4"/>
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
@@ -6061,12 +6144,12 @@
       <c r="X183" s="3"/>
       <c r="Y183" s="3"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
-      <c r="B184" s="5"/>
-      <c r="C184" s="5"/>
+      <c r="B184" s="4"/>
+      <c r="C184" s="4"/>
       <c r="D184" s="3"/>
-      <c r="E184" s="5"/>
+      <c r="E184" s="4"/>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
@@ -6088,12 +6171,12 @@
       <c r="X184" s="3"/>
       <c r="Y184" s="3"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
-      <c r="B185" s="5"/>
-      <c r="C185" s="5"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="4"/>
       <c r="D185" s="3"/>
-      <c r="E185" s="5"/>
+      <c r="E185" s="4"/>
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
@@ -6115,12 +6198,12 @@
       <c r="X185" s="3"/>
       <c r="Y185" s="3"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
-      <c r="B186" s="5"/>
-      <c r="C186" s="5"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="4"/>
       <c r="D186" s="3"/>
-      <c r="E186" s="5"/>
+      <c r="E186" s="4"/>
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
@@ -6142,12 +6225,12 @@
       <c r="X186" s="3"/>
       <c r="Y186" s="3"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
-      <c r="B187" s="5"/>
-      <c r="C187" s="5"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="4"/>
       <c r="D187" s="3"/>
-      <c r="E187" s="5"/>
+      <c r="E187" s="4"/>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
@@ -6169,12 +6252,12 @@
       <c r="X187" s="3"/>
       <c r="Y187" s="3"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
-      <c r="B188" s="5"/>
-      <c r="C188" s="5"/>
+      <c r="B188" s="4"/>
+      <c r="C188" s="4"/>
       <c r="D188" s="3"/>
-      <c r="E188" s="5"/>
+      <c r="E188" s="4"/>
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
@@ -6196,12 +6279,12 @@
       <c r="X188" s="3"/>
       <c r="Y188" s="3"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
-      <c r="B189" s="5"/>
-      <c r="C189" s="5"/>
+      <c r="B189" s="4"/>
+      <c r="C189" s="4"/>
       <c r="D189" s="3"/>
-      <c r="E189" s="5"/>
+      <c r="E189" s="4"/>
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
@@ -6223,12 +6306,12 @@
       <c r="X189" s="3"/>
       <c r="Y189" s="3"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
-      <c r="B190" s="5"/>
-      <c r="C190" s="5"/>
+      <c r="B190" s="4"/>
+      <c r="C190" s="4"/>
       <c r="D190" s="3"/>
-      <c r="E190" s="5"/>
+      <c r="E190" s="4"/>
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
@@ -6250,12 +6333,12 @@
       <c r="X190" s="3"/>
       <c r="Y190" s="3"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
-      <c r="B191" s="5"/>
-      <c r="C191" s="5"/>
+      <c r="B191" s="4"/>
+      <c r="C191" s="4"/>
       <c r="D191" s="3"/>
-      <c r="E191" s="5"/>
+      <c r="E191" s="4"/>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
@@ -6277,12 +6360,12 @@
       <c r="X191" s="3"/>
       <c r="Y191" s="3"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
-      <c r="B192" s="5"/>
-      <c r="C192" s="5"/>
+      <c r="B192" s="4"/>
+      <c r="C192" s="4"/>
       <c r="D192" s="3"/>
-      <c r="E192" s="5"/>
+      <c r="E192" s="4"/>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
@@ -6304,12 +6387,12 @@
       <c r="X192" s="3"/>
       <c r="Y192" s="3"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
-      <c r="B193" s="5"/>
-      <c r="C193" s="5"/>
+      <c r="B193" s="4"/>
+      <c r="C193" s="4"/>
       <c r="D193" s="3"/>
-      <c r="E193" s="5"/>
+      <c r="E193" s="4"/>
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
@@ -6331,12 +6414,12 @@
       <c r="X193" s="3"/>
       <c r="Y193" s="3"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
-      <c r="B194" s="5"/>
-      <c r="C194" s="5"/>
+      <c r="B194" s="4"/>
+      <c r="C194" s="4"/>
       <c r="D194" s="3"/>
-      <c r="E194" s="5"/>
+      <c r="E194" s="4"/>
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
       <c r="H194" s="3"/>
@@ -6358,12 +6441,12 @@
       <c r="X194" s="3"/>
       <c r="Y194" s="3"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
-      <c r="B195" s="5"/>
-      <c r="C195" s="5"/>
+      <c r="B195" s="4"/>
+      <c r="C195" s="4"/>
       <c r="D195" s="3"/>
-      <c r="E195" s="5"/>
+      <c r="E195" s="4"/>
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
@@ -6385,12 +6468,12 @@
       <c r="X195" s="3"/>
       <c r="Y195" s="3"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
-      <c r="B196" s="5"/>
-      <c r="C196" s="5"/>
+      <c r="B196" s="4"/>
+      <c r="C196" s="4"/>
       <c r="D196" s="3"/>
-      <c r="E196" s="5"/>
+      <c r="E196" s="4"/>
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
@@ -6412,12 +6495,12 @@
       <c r="X196" s="3"/>
       <c r="Y196" s="3"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
-      <c r="B197" s="5"/>
-      <c r="C197" s="5"/>
+      <c r="B197" s="4"/>
+      <c r="C197" s="4"/>
       <c r="D197" s="3"/>
-      <c r="E197" s="5"/>
+      <c r="E197" s="4"/>
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
@@ -6439,12 +6522,12 @@
       <c r="X197" s="3"/>
       <c r="Y197" s="3"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
-      <c r="B198" s="5"/>
-      <c r="C198" s="5"/>
+      <c r="B198" s="4"/>
+      <c r="C198" s="4"/>
       <c r="D198" s="3"/>
-      <c r="E198" s="5"/>
+      <c r="E198" s="4"/>
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
       <c r="H198" s="3"/>
@@ -6466,12 +6549,12 @@
       <c r="X198" s="3"/>
       <c r="Y198" s="3"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
-      <c r="B199" s="5"/>
-      <c r="C199" s="5"/>
+      <c r="B199" s="4"/>
+      <c r="C199" s="4"/>
       <c r="D199" s="3"/>
-      <c r="E199" s="5"/>
+      <c r="E199" s="4"/>
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
@@ -6493,12 +6576,12 @@
       <c r="X199" s="3"/>
       <c r="Y199" s="3"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
-      <c r="B200" s="5"/>
-      <c r="C200" s="5"/>
+      <c r="B200" s="4"/>
+      <c r="C200" s="4"/>
       <c r="D200" s="3"/>
-      <c r="E200" s="5"/>
+      <c r="E200" s="4"/>
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
       <c r="H200" s="3"/>
@@ -6520,12 +6603,12 @@
       <c r="X200" s="3"/>
       <c r="Y200" s="3"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
-      <c r="B201" s="5"/>
-      <c r="C201" s="5"/>
+      <c r="B201" s="4"/>
+      <c r="C201" s="4"/>
       <c r="D201" s="3"/>
-      <c r="E201" s="5"/>
+      <c r="E201" s="4"/>
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
       <c r="H201" s="3"/>
@@ -6547,12 +6630,12 @@
       <c r="X201" s="3"/>
       <c r="Y201" s="3"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
-      <c r="B202" s="5"/>
-      <c r="C202" s="5"/>
+      <c r="B202" s="4"/>
+      <c r="C202" s="4"/>
       <c r="D202" s="3"/>
-      <c r="E202" s="5"/>
+      <c r="E202" s="4"/>
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
       <c r="H202" s="3"/>
@@ -6574,12 +6657,12 @@
       <c r="X202" s="3"/>
       <c r="Y202" s="3"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
-      <c r="B203" s="5"/>
-      <c r="C203" s="5"/>
+      <c r="B203" s="4"/>
+      <c r="C203" s="4"/>
       <c r="D203" s="3"/>
-      <c r="E203" s="5"/>
+      <c r="E203" s="4"/>
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
       <c r="H203" s="3"/>
@@ -6601,12 +6684,12 @@
       <c r="X203" s="3"/>
       <c r="Y203" s="3"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
-      <c r="B204" s="5"/>
-      <c r="C204" s="5"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="4"/>
       <c r="D204" s="3"/>
-      <c r="E204" s="5"/>
+      <c r="E204" s="4"/>
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
       <c r="H204" s="3"/>
@@ -6628,12 +6711,12 @@
       <c r="X204" s="3"/>
       <c r="Y204" s="3"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
-      <c r="B205" s="5"/>
-      <c r="C205" s="5"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="4"/>
       <c r="D205" s="3"/>
-      <c r="E205" s="5"/>
+      <c r="E205" s="4"/>
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
       <c r="H205" s="3"/>
@@ -6655,12 +6738,12 @@
       <c r="X205" s="3"/>
       <c r="Y205" s="3"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
-      <c r="B206" s="5"/>
-      <c r="C206" s="5"/>
+      <c r="B206" s="4"/>
+      <c r="C206" s="4"/>
       <c r="D206" s="3"/>
-      <c r="E206" s="5"/>
+      <c r="E206" s="4"/>
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
       <c r="H206" s="3"/>
@@ -6682,12 +6765,12 @@
       <c r="X206" s="3"/>
       <c r="Y206" s="3"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
-      <c r="B207" s="5"/>
-      <c r="C207" s="5"/>
+      <c r="B207" s="4"/>
+      <c r="C207" s="4"/>
       <c r="D207" s="3"/>
-      <c r="E207" s="5"/>
+      <c r="E207" s="4"/>
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
       <c r="H207" s="3"/>
@@ -6709,12 +6792,12 @@
       <c r="X207" s="3"/>
       <c r="Y207" s="3"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
-      <c r="B208" s="5"/>
-      <c r="C208" s="5"/>
+      <c r="B208" s="4"/>
+      <c r="C208" s="4"/>
       <c r="D208" s="3"/>
-      <c r="E208" s="5"/>
+      <c r="E208" s="4"/>
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
       <c r="H208" s="3"/>
@@ -6736,12 +6819,12 @@
       <c r="X208" s="3"/>
       <c r="Y208" s="3"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
-      <c r="B209" s="5"/>
-      <c r="C209" s="5"/>
+      <c r="B209" s="4"/>
+      <c r="C209" s="4"/>
       <c r="D209" s="3"/>
-      <c r="E209" s="5"/>
+      <c r="E209" s="4"/>
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
       <c r="H209" s="3"/>
@@ -6763,12 +6846,12 @@
       <c r="X209" s="3"/>
       <c r="Y209" s="3"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
-      <c r="B210" s="5"/>
-      <c r="C210" s="5"/>
+      <c r="B210" s="4"/>
+      <c r="C210" s="4"/>
       <c r="D210" s="3"/>
-      <c r="E210" s="5"/>
+      <c r="E210" s="4"/>
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
       <c r="H210" s="3"/>
@@ -6790,12 +6873,12 @@
       <c r="X210" s="3"/>
       <c r="Y210" s="3"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
-      <c r="B211" s="5"/>
-      <c r="C211" s="5"/>
+      <c r="B211" s="4"/>
+      <c r="C211" s="4"/>
       <c r="D211" s="3"/>
-      <c r="E211" s="5"/>
+      <c r="E211" s="4"/>
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
       <c r="H211" s="3"/>
@@ -6817,12 +6900,12 @@
       <c r="X211" s="3"/>
       <c r="Y211" s="3"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
-      <c r="B212" s="5"/>
-      <c r="C212" s="5"/>
+      <c r="B212" s="4"/>
+      <c r="C212" s="4"/>
       <c r="D212" s="3"/>
-      <c r="E212" s="5"/>
+      <c r="E212" s="4"/>
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
       <c r="H212" s="3"/>
@@ -6844,12 +6927,12 @@
       <c r="X212" s="3"/>
       <c r="Y212" s="3"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
-      <c r="B213" s="5"/>
-      <c r="C213" s="5"/>
+      <c r="B213" s="4"/>
+      <c r="C213" s="4"/>
       <c r="D213" s="3"/>
-      <c r="E213" s="5"/>
+      <c r="E213" s="4"/>
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
       <c r="H213" s="3"/>
@@ -6871,12 +6954,12 @@
       <c r="X213" s="3"/>
       <c r="Y213" s="3"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
-      <c r="B214" s="5"/>
-      <c r="C214" s="5"/>
+      <c r="B214" s="4"/>
+      <c r="C214" s="4"/>
       <c r="D214" s="3"/>
-      <c r="E214" s="5"/>
+      <c r="E214" s="4"/>
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
       <c r="H214" s="3"/>
@@ -6898,12 +6981,12 @@
       <c r="X214" s="3"/>
       <c r="Y214" s="3"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
-      <c r="B215" s="5"/>
-      <c r="C215" s="5"/>
+      <c r="B215" s="4"/>
+      <c r="C215" s="4"/>
       <c r="D215" s="3"/>
-      <c r="E215" s="5"/>
+      <c r="E215" s="4"/>
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
       <c r="H215" s="3"/>
@@ -6925,12 +7008,12 @@
       <c r="X215" s="3"/>
       <c r="Y215" s="3"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
-      <c r="B216" s="5"/>
-      <c r="C216" s="5"/>
+      <c r="B216" s="4"/>
+      <c r="C216" s="4"/>
       <c r="D216" s="3"/>
-      <c r="E216" s="5"/>
+      <c r="E216" s="4"/>
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
       <c r="H216" s="3"/>
@@ -6952,12 +7035,12 @@
       <c r="X216" s="3"/>
       <c r="Y216" s="3"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
-      <c r="B217" s="5"/>
-      <c r="C217" s="5"/>
+      <c r="B217" s="4"/>
+      <c r="C217" s="4"/>
       <c r="D217" s="3"/>
-      <c r="E217" s="5"/>
+      <c r="E217" s="4"/>
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
       <c r="H217" s="3"/>
@@ -6979,12 +7062,12 @@
       <c r="X217" s="3"/>
       <c r="Y217" s="3"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
-      <c r="B218" s="5"/>
-      <c r="C218" s="5"/>
+      <c r="B218" s="4"/>
+      <c r="C218" s="4"/>
       <c r="D218" s="3"/>
-      <c r="E218" s="5"/>
+      <c r="E218" s="4"/>
       <c r="F218" s="3"/>
       <c r="G218" s="3"/>
       <c r="H218" s="3"/>
@@ -7006,12 +7089,12 @@
       <c r="X218" s="3"/>
       <c r="Y218" s="3"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
-      <c r="B219" s="5"/>
-      <c r="C219" s="5"/>
+      <c r="B219" s="4"/>
+      <c r="C219" s="4"/>
       <c r="D219" s="3"/>
-      <c r="E219" s="5"/>
+      <c r="E219" s="4"/>
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
       <c r="H219" s="3"/>
@@ -7033,12 +7116,12 @@
       <c r="X219" s="3"/>
       <c r="Y219" s="3"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
-      <c r="B220" s="5"/>
-      <c r="C220" s="5"/>
+      <c r="B220" s="4"/>
+      <c r="C220" s="4"/>
       <c r="D220" s="3"/>
-      <c r="E220" s="5"/>
+      <c r="E220" s="4"/>
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
       <c r="H220" s="3"/>
@@ -7060,12 +7143,12 @@
       <c r="X220" s="3"/>
       <c r="Y220" s="3"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
-      <c r="B221" s="5"/>
-      <c r="C221" s="5"/>
+      <c r="B221" s="4"/>
+      <c r="C221" s="4"/>
       <c r="D221" s="3"/>
-      <c r="E221" s="5"/>
+      <c r="E221" s="4"/>
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
       <c r="H221" s="3"/>
@@ -7087,12 +7170,12 @@
       <c r="X221" s="3"/>
       <c r="Y221" s="3"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
-      <c r="B222" s="5"/>
-      <c r="C222" s="5"/>
+      <c r="B222" s="4"/>
+      <c r="C222" s="4"/>
       <c r="D222" s="3"/>
-      <c r="E222" s="5"/>
+      <c r="E222" s="4"/>
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
       <c r="H222" s="3"/>
@@ -7114,12 +7197,12 @@
       <c r="X222" s="3"/>
       <c r="Y222" s="3"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
-      <c r="B223" s="5"/>
-      <c r="C223" s="5"/>
+      <c r="B223" s="4"/>
+      <c r="C223" s="4"/>
       <c r="D223" s="3"/>
-      <c r="E223" s="5"/>
+      <c r="E223" s="4"/>
       <c r="F223" s="3"/>
       <c r="G223" s="3"/>
       <c r="H223" s="3"/>
@@ -7141,12 +7224,12 @@
       <c r="X223" s="3"/>
       <c r="Y223" s="3"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
-      <c r="B224" s="5"/>
-      <c r="C224" s="5"/>
+      <c r="B224" s="4"/>
+      <c r="C224" s="4"/>
       <c r="D224" s="3"/>
-      <c r="E224" s="5"/>
+      <c r="E224" s="4"/>
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
       <c r="H224" s="3"/>
@@ -7168,12 +7251,12 @@
       <c r="X224" s="3"/>
       <c r="Y224" s="3"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
-      <c r="B225" s="5"/>
-      <c r="C225" s="5"/>
+      <c r="B225" s="4"/>
+      <c r="C225" s="4"/>
       <c r="D225" s="3"/>
-      <c r="E225" s="5"/>
+      <c r="E225" s="4"/>
       <c r="F225" s="3"/>
       <c r="G225" s="3"/>
       <c r="H225" s="3"/>
@@ -7195,2339 +7278,2339 @@
       <c r="X225" s="3"/>
       <c r="Y225" s="3"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
-      <c r="B226" s="16"/>
-    </row>
-    <row r="227" ht="15.75" customHeight="1">
-      <c r="B227" s="16"/>
-    </row>
-    <row r="228" ht="15.75" customHeight="1">
-      <c r="B228" s="16"/>
-    </row>
-    <row r="229" ht="15.75" customHeight="1">
-      <c r="B229" s="16"/>
-    </row>
-    <row r="230" ht="15.75" customHeight="1">
-      <c r="B230" s="16"/>
-    </row>
-    <row r="231" ht="15.75" customHeight="1">
-      <c r="B231" s="16"/>
-    </row>
-    <row r="232" ht="15.75" customHeight="1">
-      <c r="B232" s="16"/>
-    </row>
-    <row r="233" ht="15.75" customHeight="1">
-      <c r="B233" s="16"/>
-    </row>
-    <row r="234" ht="15.75" customHeight="1">
-      <c r="B234" s="16"/>
-    </row>
-    <row r="235" ht="15.75" customHeight="1">
-      <c r="B235" s="16"/>
-    </row>
-    <row r="236" ht="15.75" customHeight="1">
-      <c r="B236" s="16"/>
-    </row>
-    <row r="237" ht="15.75" customHeight="1">
-      <c r="B237" s="16"/>
-    </row>
-    <row r="238" ht="15.75" customHeight="1">
-      <c r="B238" s="16"/>
-    </row>
-    <row r="239" ht="15.75" customHeight="1">
-      <c r="B239" s="16"/>
-    </row>
-    <row r="240" ht="15.75" customHeight="1">
-      <c r="B240" s="16"/>
-    </row>
-    <row r="241" ht="15.75" customHeight="1">
-      <c r="B241" s="16"/>
-    </row>
-    <row r="242" ht="15.75" customHeight="1">
-      <c r="B242" s="16"/>
-    </row>
-    <row r="243" ht="15.75" customHeight="1">
-      <c r="B243" s="16"/>
-    </row>
-    <row r="244" ht="15.75" customHeight="1">
-      <c r="B244" s="16"/>
-    </row>
-    <row r="245" ht="15.75" customHeight="1">
-      <c r="B245" s="16"/>
-    </row>
-    <row r="246" ht="15.75" customHeight="1">
-      <c r="B246" s="16"/>
-    </row>
-    <row r="247" ht="15.75" customHeight="1">
-      <c r="B247" s="16"/>
-    </row>
-    <row r="248" ht="15.75" customHeight="1">
-      <c r="B248" s="16"/>
-    </row>
-    <row r="249" ht="15.75" customHeight="1">
-      <c r="B249" s="16"/>
-    </row>
-    <row r="250" ht="15.75" customHeight="1">
-      <c r="B250" s="16"/>
-    </row>
-    <row r="251" ht="15.75" customHeight="1">
-      <c r="B251" s="16"/>
-    </row>
-    <row r="252" ht="15.75" customHeight="1">
-      <c r="B252" s="16"/>
-    </row>
-    <row r="253" ht="15.75" customHeight="1">
-      <c r="B253" s="16"/>
-    </row>
-    <row r="254" ht="15.75" customHeight="1">
-      <c r="B254" s="16"/>
-    </row>
-    <row r="255" ht="15.75" customHeight="1">
-      <c r="B255" s="16"/>
-    </row>
-    <row r="256" ht="15.75" customHeight="1">
-      <c r="B256" s="16"/>
-    </row>
-    <row r="257" ht="15.75" customHeight="1">
-      <c r="B257" s="16"/>
-    </row>
-    <row r="258" ht="15.75" customHeight="1">
-      <c r="B258" s="16"/>
-    </row>
-    <row r="259" ht="15.75" customHeight="1">
-      <c r="B259" s="16"/>
-    </row>
-    <row r="260" ht="15.75" customHeight="1">
-      <c r="B260" s="16"/>
-    </row>
-    <row r="261" ht="15.75" customHeight="1">
-      <c r="B261" s="16"/>
-    </row>
-    <row r="262" ht="15.75" customHeight="1">
-      <c r="B262" s="16"/>
-    </row>
-    <row r="263" ht="15.75" customHeight="1">
-      <c r="B263" s="16"/>
-    </row>
-    <row r="264" ht="15.75" customHeight="1">
-      <c r="B264" s="16"/>
-    </row>
-    <row r="265" ht="15.75" customHeight="1">
-      <c r="B265" s="16"/>
-    </row>
-    <row r="266" ht="15.75" customHeight="1">
-      <c r="B266" s="16"/>
-    </row>
-    <row r="267" ht="15.75" customHeight="1">
-      <c r="B267" s="16"/>
-    </row>
-    <row r="268" ht="15.75" customHeight="1">
-      <c r="B268" s="16"/>
-    </row>
-    <row r="269" ht="15.75" customHeight="1">
-      <c r="B269" s="16"/>
-    </row>
-    <row r="270" ht="15.75" customHeight="1">
-      <c r="B270" s="16"/>
-    </row>
-    <row r="271" ht="15.75" customHeight="1">
-      <c r="B271" s="16"/>
-    </row>
-    <row r="272" ht="15.75" customHeight="1">
-      <c r="B272" s="16"/>
-    </row>
-    <row r="273" ht="15.75" customHeight="1">
-      <c r="B273" s="16"/>
-    </row>
-    <row r="274" ht="15.75" customHeight="1">
-      <c r="B274" s="16"/>
-    </row>
-    <row r="275" ht="15.75" customHeight="1">
-      <c r="B275" s="16"/>
-    </row>
-    <row r="276" ht="15.75" customHeight="1">
-      <c r="B276" s="16"/>
-    </row>
-    <row r="277" ht="15.75" customHeight="1">
-      <c r="B277" s="16"/>
-    </row>
-    <row r="278" ht="15.75" customHeight="1">
-      <c r="B278" s="16"/>
-    </row>
-    <row r="279" ht="15.75" customHeight="1">
-      <c r="B279" s="16"/>
-    </row>
-    <row r="280" ht="15.75" customHeight="1">
-      <c r="B280" s="16"/>
-    </row>
-    <row r="281" ht="15.75" customHeight="1">
-      <c r="B281" s="16"/>
-    </row>
-    <row r="282" ht="15.75" customHeight="1">
-      <c r="B282" s="16"/>
-    </row>
-    <row r="283" ht="15.75" customHeight="1">
-      <c r="B283" s="16"/>
-    </row>
-    <row r="284" ht="15.75" customHeight="1">
-      <c r="B284" s="16"/>
-    </row>
-    <row r="285" ht="15.75" customHeight="1">
-      <c r="B285" s="16"/>
-    </row>
-    <row r="286" ht="15.75" customHeight="1">
-      <c r="B286" s="16"/>
-    </row>
-    <row r="287" ht="15.75" customHeight="1">
-      <c r="B287" s="16"/>
-    </row>
-    <row r="288" ht="15.75" customHeight="1">
-      <c r="B288" s="16"/>
-    </row>
-    <row r="289" ht="15.75" customHeight="1">
-      <c r="B289" s="16"/>
-    </row>
-    <row r="290" ht="15.75" customHeight="1">
-      <c r="B290" s="16"/>
-    </row>
-    <row r="291" ht="15.75" customHeight="1">
-      <c r="B291" s="16"/>
-    </row>
-    <row r="292" ht="15.75" customHeight="1">
-      <c r="B292" s="16"/>
-    </row>
-    <row r="293" ht="15.75" customHeight="1">
-      <c r="B293" s="16"/>
-    </row>
-    <row r="294" ht="15.75" customHeight="1">
-      <c r="B294" s="16"/>
-    </row>
-    <row r="295" ht="15.75" customHeight="1">
-      <c r="B295" s="16"/>
-    </row>
-    <row r="296" ht="15.75" customHeight="1">
-      <c r="B296" s="16"/>
-    </row>
-    <row r="297" ht="15.75" customHeight="1">
-      <c r="B297" s="16"/>
-    </row>
-    <row r="298" ht="15.75" customHeight="1">
-      <c r="B298" s="16"/>
-    </row>
-    <row r="299" ht="15.75" customHeight="1">
-      <c r="B299" s="16"/>
-    </row>
-    <row r="300" ht="15.75" customHeight="1">
-      <c r="B300" s="16"/>
-    </row>
-    <row r="301" ht="15.75" customHeight="1">
-      <c r="B301" s="16"/>
-    </row>
-    <row r="302" ht="15.75" customHeight="1">
-      <c r="B302" s="16"/>
-    </row>
-    <row r="303" ht="15.75" customHeight="1">
-      <c r="B303" s="16"/>
-    </row>
-    <row r="304" ht="15.75" customHeight="1">
-      <c r="B304" s="16"/>
-    </row>
-    <row r="305" ht="15.75" customHeight="1">
-      <c r="B305" s="16"/>
-    </row>
-    <row r="306" ht="15.75" customHeight="1">
-      <c r="B306" s="16"/>
-    </row>
-    <row r="307" ht="15.75" customHeight="1">
-      <c r="B307" s="16"/>
-    </row>
-    <row r="308" ht="15.75" customHeight="1">
-      <c r="B308" s="16"/>
-    </row>
-    <row r="309" ht="15.75" customHeight="1">
-      <c r="B309" s="16"/>
-    </row>
-    <row r="310" ht="15.75" customHeight="1">
-      <c r="B310" s="16"/>
-    </row>
-    <row r="311" ht="15.75" customHeight="1">
-      <c r="B311" s="16"/>
-    </row>
-    <row r="312" ht="15.75" customHeight="1">
-      <c r="B312" s="16"/>
-    </row>
-    <row r="313" ht="15.75" customHeight="1">
-      <c r="B313" s="16"/>
-    </row>
-    <row r="314" ht="15.75" customHeight="1">
-      <c r="B314" s="16"/>
-    </row>
-    <row r="315" ht="15.75" customHeight="1">
-      <c r="B315" s="16"/>
-    </row>
-    <row r="316" ht="15.75" customHeight="1">
-      <c r="B316" s="16"/>
-    </row>
-    <row r="317" ht="15.75" customHeight="1">
-      <c r="B317" s="16"/>
-    </row>
-    <row r="318" ht="15.75" customHeight="1">
-      <c r="B318" s="16"/>
-    </row>
-    <row r="319" ht="15.75" customHeight="1">
-      <c r="B319" s="16"/>
-    </row>
-    <row r="320" ht="15.75" customHeight="1">
-      <c r="B320" s="16"/>
-    </row>
-    <row r="321" ht="15.75" customHeight="1">
-      <c r="B321" s="16"/>
-    </row>
-    <row r="322" ht="15.75" customHeight="1">
-      <c r="B322" s="16"/>
-    </row>
-    <row r="323" ht="15.75" customHeight="1">
-      <c r="B323" s="16"/>
-    </row>
-    <row r="324" ht="15.75" customHeight="1">
-      <c r="B324" s="16"/>
-    </row>
-    <row r="325" ht="15.75" customHeight="1">
-      <c r="B325" s="16"/>
-    </row>
-    <row r="326" ht="15.75" customHeight="1">
-      <c r="B326" s="16"/>
-    </row>
-    <row r="327" ht="15.75" customHeight="1">
-      <c r="B327" s="16"/>
-    </row>
-    <row r="328" ht="15.75" customHeight="1">
-      <c r="B328" s="16"/>
-    </row>
-    <row r="329" ht="15.75" customHeight="1">
-      <c r="B329" s="16"/>
-    </row>
-    <row r="330" ht="15.75" customHeight="1">
-      <c r="B330" s="16"/>
-    </row>
-    <row r="331" ht="15.75" customHeight="1">
-      <c r="B331" s="16"/>
-    </row>
-    <row r="332" ht="15.75" customHeight="1">
-      <c r="B332" s="16"/>
-    </row>
-    <row r="333" ht="15.75" customHeight="1">
-      <c r="B333" s="16"/>
-    </row>
-    <row r="334" ht="15.75" customHeight="1">
-      <c r="B334" s="16"/>
-    </row>
-    <row r="335" ht="15.75" customHeight="1">
-      <c r="B335" s="16"/>
-    </row>
-    <row r="336" ht="15.75" customHeight="1">
-      <c r="B336" s="16"/>
-    </row>
-    <row r="337" ht="15.75" customHeight="1">
-      <c r="B337" s="16"/>
-    </row>
-    <row r="338" ht="15.75" customHeight="1">
-      <c r="B338" s="16"/>
-    </row>
-    <row r="339" ht="15.75" customHeight="1">
-      <c r="B339" s="16"/>
-    </row>
-    <row r="340" ht="15.75" customHeight="1">
-      <c r="B340" s="16"/>
-    </row>
-    <row r="341" ht="15.75" customHeight="1">
-      <c r="B341" s="16"/>
-    </row>
-    <row r="342" ht="15.75" customHeight="1">
-      <c r="B342" s="16"/>
-    </row>
-    <row r="343" ht="15.75" customHeight="1">
-      <c r="B343" s="16"/>
-    </row>
-    <row r="344" ht="15.75" customHeight="1">
-      <c r="B344" s="16"/>
-    </row>
-    <row r="345" ht="15.75" customHeight="1">
-      <c r="B345" s="16"/>
-    </row>
-    <row r="346" ht="15.75" customHeight="1">
-      <c r="B346" s="16"/>
-    </row>
-    <row r="347" ht="15.75" customHeight="1">
-      <c r="B347" s="16"/>
-    </row>
-    <row r="348" ht="15.75" customHeight="1">
-      <c r="B348" s="16"/>
-    </row>
-    <row r="349" ht="15.75" customHeight="1">
-      <c r="B349" s="16"/>
-    </row>
-    <row r="350" ht="15.75" customHeight="1">
-      <c r="B350" s="16"/>
-    </row>
-    <row r="351" ht="15.75" customHeight="1">
-      <c r="B351" s="16"/>
-    </row>
-    <row r="352" ht="15.75" customHeight="1">
-      <c r="B352" s="16"/>
-    </row>
-    <row r="353" ht="15.75" customHeight="1">
-      <c r="B353" s="16"/>
-    </row>
-    <row r="354" ht="15.75" customHeight="1">
-      <c r="B354" s="16"/>
-    </row>
-    <row r="355" ht="15.75" customHeight="1">
-      <c r="B355" s="16"/>
-    </row>
-    <row r="356" ht="15.75" customHeight="1">
-      <c r="B356" s="16"/>
-    </row>
-    <row r="357" ht="15.75" customHeight="1">
-      <c r="B357" s="16"/>
-    </row>
-    <row r="358" ht="15.75" customHeight="1">
-      <c r="B358" s="16"/>
-    </row>
-    <row r="359" ht="15.75" customHeight="1">
-      <c r="B359" s="16"/>
-    </row>
-    <row r="360" ht="15.75" customHeight="1">
-      <c r="B360" s="16"/>
-    </row>
-    <row r="361" ht="15.75" customHeight="1">
-      <c r="B361" s="16"/>
-    </row>
-    <row r="362" ht="15.75" customHeight="1">
-      <c r="B362" s="16"/>
-    </row>
-    <row r="363" ht="15.75" customHeight="1">
-      <c r="B363" s="16"/>
-    </row>
-    <row r="364" ht="15.75" customHeight="1">
-      <c r="B364" s="16"/>
-    </row>
-    <row r="365" ht="15.75" customHeight="1">
-      <c r="B365" s="16"/>
-    </row>
-    <row r="366" ht="15.75" customHeight="1">
-      <c r="B366" s="16"/>
-    </row>
-    <row r="367" ht="15.75" customHeight="1">
-      <c r="B367" s="16"/>
-    </row>
-    <row r="368" ht="15.75" customHeight="1">
-      <c r="B368" s="16"/>
-    </row>
-    <row r="369" ht="15.75" customHeight="1">
-      <c r="B369" s="16"/>
-    </row>
-    <row r="370" ht="15.75" customHeight="1">
-      <c r="B370" s="16"/>
-    </row>
-    <row r="371" ht="15.75" customHeight="1">
-      <c r="B371" s="16"/>
-    </row>
-    <row r="372" ht="15.75" customHeight="1">
-      <c r="B372" s="16"/>
-    </row>
-    <row r="373" ht="15.75" customHeight="1">
-      <c r="B373" s="16"/>
-    </row>
-    <row r="374" ht="15.75" customHeight="1">
-      <c r="B374" s="16"/>
-    </row>
-    <row r="375" ht="15.75" customHeight="1">
-      <c r="B375" s="16"/>
-    </row>
-    <row r="376" ht="15.75" customHeight="1">
-      <c r="B376" s="16"/>
-    </row>
-    <row r="377" ht="15.75" customHeight="1">
-      <c r="B377" s="16"/>
-    </row>
-    <row r="378" ht="15.75" customHeight="1">
-      <c r="B378" s="16"/>
-    </row>
-    <row r="379" ht="15.75" customHeight="1">
-      <c r="B379" s="16"/>
-    </row>
-    <row r="380" ht="15.75" customHeight="1">
-      <c r="B380" s="16"/>
-    </row>
-    <row r="381" ht="15.75" customHeight="1">
-      <c r="B381" s="16"/>
-    </row>
-    <row r="382" ht="15.75" customHeight="1">
-      <c r="B382" s="16"/>
-    </row>
-    <row r="383" ht="15.75" customHeight="1">
-      <c r="B383" s="16"/>
-    </row>
-    <row r="384" ht="15.75" customHeight="1">
-      <c r="B384" s="16"/>
-    </row>
-    <row r="385" ht="15.75" customHeight="1">
-      <c r="B385" s="16"/>
-    </row>
-    <row r="386" ht="15.75" customHeight="1">
-      <c r="B386" s="16"/>
-    </row>
-    <row r="387" ht="15.75" customHeight="1">
-      <c r="B387" s="16"/>
-    </row>
-    <row r="388" ht="15.75" customHeight="1">
-      <c r="B388" s="16"/>
-    </row>
-    <row r="389" ht="15.75" customHeight="1">
-      <c r="B389" s="16"/>
-    </row>
-    <row r="390" ht="15.75" customHeight="1">
-      <c r="B390" s="16"/>
-    </row>
-    <row r="391" ht="15.75" customHeight="1">
-      <c r="B391" s="16"/>
-    </row>
-    <row r="392" ht="15.75" customHeight="1">
-      <c r="B392" s="16"/>
-    </row>
-    <row r="393" ht="15.75" customHeight="1">
-      <c r="B393" s="16"/>
-    </row>
-    <row r="394" ht="15.75" customHeight="1">
-      <c r="B394" s="16"/>
-    </row>
-    <row r="395" ht="15.75" customHeight="1">
-      <c r="B395" s="16"/>
-    </row>
-    <row r="396" ht="15.75" customHeight="1">
-      <c r="B396" s="16"/>
-    </row>
-    <row r="397" ht="15.75" customHeight="1">
-      <c r="B397" s="16"/>
-    </row>
-    <row r="398" ht="15.75" customHeight="1">
-      <c r="B398" s="16"/>
-    </row>
-    <row r="399" ht="15.75" customHeight="1">
-      <c r="B399" s="16"/>
-    </row>
-    <row r="400" ht="15.75" customHeight="1">
-      <c r="B400" s="16"/>
-    </row>
-    <row r="401" ht="15.75" customHeight="1">
-      <c r="B401" s="16"/>
-    </row>
-    <row r="402" ht="15.75" customHeight="1">
-      <c r="B402" s="16"/>
-    </row>
-    <row r="403" ht="15.75" customHeight="1">
-      <c r="B403" s="16"/>
-    </row>
-    <row r="404" ht="15.75" customHeight="1">
-      <c r="B404" s="16"/>
-    </row>
-    <row r="405" ht="15.75" customHeight="1">
-      <c r="B405" s="16"/>
-    </row>
-    <row r="406" ht="15.75" customHeight="1">
-      <c r="B406" s="16"/>
-    </row>
-    <row r="407" ht="15.75" customHeight="1">
-      <c r="B407" s="16"/>
-    </row>
-    <row r="408" ht="15.75" customHeight="1">
-      <c r="B408" s="16"/>
-    </row>
-    <row r="409" ht="15.75" customHeight="1">
-      <c r="B409" s="16"/>
-    </row>
-    <row r="410" ht="15.75" customHeight="1">
-      <c r="B410" s="16"/>
-    </row>
-    <row r="411" ht="15.75" customHeight="1">
-      <c r="B411" s="16"/>
-    </row>
-    <row r="412" ht="15.75" customHeight="1">
-      <c r="B412" s="16"/>
-    </row>
-    <row r="413" ht="15.75" customHeight="1">
-      <c r="B413" s="16"/>
-    </row>
-    <row r="414" ht="15.75" customHeight="1">
-      <c r="B414" s="16"/>
-    </row>
-    <row r="415" ht="15.75" customHeight="1">
-      <c r="B415" s="16"/>
-    </row>
-    <row r="416" ht="15.75" customHeight="1">
-      <c r="B416" s="16"/>
-    </row>
-    <row r="417" ht="15.75" customHeight="1">
-      <c r="B417" s="16"/>
-    </row>
-    <row r="418" ht="15.75" customHeight="1">
-      <c r="B418" s="16"/>
-    </row>
-    <row r="419" ht="15.75" customHeight="1">
-      <c r="B419" s="16"/>
-    </row>
-    <row r="420" ht="15.75" customHeight="1">
-      <c r="B420" s="16"/>
-    </row>
-    <row r="421" ht="15.75" customHeight="1">
-      <c r="B421" s="16"/>
-    </row>
-    <row r="422" ht="15.75" customHeight="1">
-      <c r="B422" s="16"/>
-    </row>
-    <row r="423" ht="15.75" customHeight="1">
-      <c r="B423" s="16"/>
-    </row>
-    <row r="424" ht="15.75" customHeight="1">
-      <c r="B424" s="16"/>
-    </row>
-    <row r="425" ht="15.75" customHeight="1">
-      <c r="B425" s="16"/>
-    </row>
-    <row r="426" ht="15.75" customHeight="1">
-      <c r="B426" s="16"/>
-    </row>
-    <row r="427" ht="15.75" customHeight="1">
-      <c r="B427" s="16"/>
-    </row>
-    <row r="428" ht="15.75" customHeight="1">
-      <c r="B428" s="16"/>
-    </row>
-    <row r="429" ht="15.75" customHeight="1">
-      <c r="B429" s="16"/>
-    </row>
-    <row r="430" ht="15.75" customHeight="1">
-      <c r="B430" s="16"/>
-    </row>
-    <row r="431" ht="15.75" customHeight="1">
-      <c r="B431" s="16"/>
-    </row>
-    <row r="432" ht="15.75" customHeight="1">
-      <c r="B432" s="16"/>
-    </row>
-    <row r="433" ht="15.75" customHeight="1">
-      <c r="B433" s="16"/>
-    </row>
-    <row r="434" ht="15.75" customHeight="1">
-      <c r="B434" s="16"/>
-    </row>
-    <row r="435" ht="15.75" customHeight="1">
-      <c r="B435" s="16"/>
-    </row>
-    <row r="436" ht="15.75" customHeight="1">
-      <c r="B436" s="16"/>
-    </row>
-    <row r="437" ht="15.75" customHeight="1">
-      <c r="B437" s="16"/>
-    </row>
-    <row r="438" ht="15.75" customHeight="1">
-      <c r="B438" s="16"/>
-    </row>
-    <row r="439" ht="15.75" customHeight="1">
-      <c r="B439" s="16"/>
-    </row>
-    <row r="440" ht="15.75" customHeight="1">
-      <c r="B440" s="16"/>
-    </row>
-    <row r="441" ht="15.75" customHeight="1">
-      <c r="B441" s="16"/>
-    </row>
-    <row r="442" ht="15.75" customHeight="1">
-      <c r="B442" s="16"/>
-    </row>
-    <row r="443" ht="15.75" customHeight="1">
-      <c r="B443" s="16"/>
-    </row>
-    <row r="444" ht="15.75" customHeight="1">
-      <c r="B444" s="16"/>
-    </row>
-    <row r="445" ht="15.75" customHeight="1">
-      <c r="B445" s="16"/>
-    </row>
-    <row r="446" ht="15.75" customHeight="1">
-      <c r="B446" s="16"/>
-    </row>
-    <row r="447" ht="15.75" customHeight="1">
-      <c r="B447" s="16"/>
-    </row>
-    <row r="448" ht="15.75" customHeight="1">
-      <c r="B448" s="16"/>
-    </row>
-    <row r="449" ht="15.75" customHeight="1">
-      <c r="B449" s="16"/>
-    </row>
-    <row r="450" ht="15.75" customHeight="1">
-      <c r="B450" s="16"/>
-    </row>
-    <row r="451" ht="15.75" customHeight="1">
-      <c r="B451" s="16"/>
-    </row>
-    <row r="452" ht="15.75" customHeight="1">
-      <c r="B452" s="16"/>
-    </row>
-    <row r="453" ht="15.75" customHeight="1">
-      <c r="B453" s="16"/>
-    </row>
-    <row r="454" ht="15.75" customHeight="1">
-      <c r="B454" s="16"/>
-    </row>
-    <row r="455" ht="15.75" customHeight="1">
-      <c r="B455" s="16"/>
-    </row>
-    <row r="456" ht="15.75" customHeight="1">
-      <c r="B456" s="16"/>
-    </row>
-    <row r="457" ht="15.75" customHeight="1">
-      <c r="B457" s="16"/>
-    </row>
-    <row r="458" ht="15.75" customHeight="1">
-      <c r="B458" s="16"/>
-    </row>
-    <row r="459" ht="15.75" customHeight="1">
-      <c r="B459" s="16"/>
-    </row>
-    <row r="460" ht="15.75" customHeight="1">
-      <c r="B460" s="16"/>
-    </row>
-    <row r="461" ht="15.75" customHeight="1">
-      <c r="B461" s="16"/>
-    </row>
-    <row r="462" ht="15.75" customHeight="1">
-      <c r="B462" s="16"/>
-    </row>
-    <row r="463" ht="15.75" customHeight="1">
-      <c r="B463" s="16"/>
-    </row>
-    <row r="464" ht="15.75" customHeight="1">
-      <c r="B464" s="16"/>
-    </row>
-    <row r="465" ht="15.75" customHeight="1">
-      <c r="B465" s="16"/>
-    </row>
-    <row r="466" ht="15.75" customHeight="1">
-      <c r="B466" s="16"/>
-    </row>
-    <row r="467" ht="15.75" customHeight="1">
-      <c r="B467" s="16"/>
-    </row>
-    <row r="468" ht="15.75" customHeight="1">
-      <c r="B468" s="16"/>
-    </row>
-    <row r="469" ht="15.75" customHeight="1">
-      <c r="B469" s="16"/>
-    </row>
-    <row r="470" ht="15.75" customHeight="1">
-      <c r="B470" s="16"/>
-    </row>
-    <row r="471" ht="15.75" customHeight="1">
-      <c r="B471" s="16"/>
-    </row>
-    <row r="472" ht="15.75" customHeight="1">
-      <c r="B472" s="16"/>
-    </row>
-    <row r="473" ht="15.75" customHeight="1">
-      <c r="B473" s="16"/>
-    </row>
-    <row r="474" ht="15.75" customHeight="1">
-      <c r="B474" s="16"/>
-    </row>
-    <row r="475" ht="15.75" customHeight="1">
-      <c r="B475" s="16"/>
-    </row>
-    <row r="476" ht="15.75" customHeight="1">
-      <c r="B476" s="16"/>
-    </row>
-    <row r="477" ht="15.75" customHeight="1">
-      <c r="B477" s="16"/>
-    </row>
-    <row r="478" ht="15.75" customHeight="1">
-      <c r="B478" s="16"/>
-    </row>
-    <row r="479" ht="15.75" customHeight="1">
-      <c r="B479" s="16"/>
-    </row>
-    <row r="480" ht="15.75" customHeight="1">
-      <c r="B480" s="16"/>
-    </row>
-    <row r="481" ht="15.75" customHeight="1">
-      <c r="B481" s="16"/>
-    </row>
-    <row r="482" ht="15.75" customHeight="1">
-      <c r="B482" s="16"/>
-    </row>
-    <row r="483" ht="15.75" customHeight="1">
-      <c r="B483" s="16"/>
-    </row>
-    <row r="484" ht="15.75" customHeight="1">
-      <c r="B484" s="16"/>
-    </row>
-    <row r="485" ht="15.75" customHeight="1">
-      <c r="B485" s="16"/>
-    </row>
-    <row r="486" ht="15.75" customHeight="1">
-      <c r="B486" s="16"/>
-    </row>
-    <row r="487" ht="15.75" customHeight="1">
-      <c r="B487" s="16"/>
-    </row>
-    <row r="488" ht="15.75" customHeight="1">
-      <c r="B488" s="16"/>
-    </row>
-    <row r="489" ht="15.75" customHeight="1">
-      <c r="B489" s="16"/>
-    </row>
-    <row r="490" ht="15.75" customHeight="1">
-      <c r="B490" s="16"/>
-    </row>
-    <row r="491" ht="15.75" customHeight="1">
-      <c r="B491" s="16"/>
-    </row>
-    <row r="492" ht="15.75" customHeight="1">
-      <c r="B492" s="16"/>
-    </row>
-    <row r="493" ht="15.75" customHeight="1">
-      <c r="B493" s="16"/>
-    </row>
-    <row r="494" ht="15.75" customHeight="1">
-      <c r="B494" s="16"/>
-    </row>
-    <row r="495" ht="15.75" customHeight="1">
-      <c r="B495" s="16"/>
-    </row>
-    <row r="496" ht="15.75" customHeight="1">
-      <c r="B496" s="16"/>
-    </row>
-    <row r="497" ht="15.75" customHeight="1">
-      <c r="B497" s="16"/>
-    </row>
-    <row r="498" ht="15.75" customHeight="1">
-      <c r="B498" s="16"/>
-    </row>
-    <row r="499" ht="15.75" customHeight="1">
-      <c r="B499" s="16"/>
-    </row>
-    <row r="500" ht="15.75" customHeight="1">
-      <c r="B500" s="16"/>
-    </row>
-    <row r="501" ht="15.75" customHeight="1">
-      <c r="B501" s="16"/>
-    </row>
-    <row r="502" ht="15.75" customHeight="1">
-      <c r="B502" s="16"/>
-    </row>
-    <row r="503" ht="15.75" customHeight="1">
-      <c r="B503" s="16"/>
-    </row>
-    <row r="504" ht="15.75" customHeight="1">
-      <c r="B504" s="16"/>
-    </row>
-    <row r="505" ht="15.75" customHeight="1">
-      <c r="B505" s="16"/>
-    </row>
-    <row r="506" ht="15.75" customHeight="1">
-      <c r="B506" s="16"/>
-    </row>
-    <row r="507" ht="15.75" customHeight="1">
-      <c r="B507" s="16"/>
-    </row>
-    <row r="508" ht="15.75" customHeight="1">
-      <c r="B508" s="16"/>
-    </row>
-    <row r="509" ht="15.75" customHeight="1">
-      <c r="B509" s="16"/>
-    </row>
-    <row r="510" ht="15.75" customHeight="1">
-      <c r="B510" s="16"/>
-    </row>
-    <row r="511" ht="15.75" customHeight="1">
-      <c r="B511" s="16"/>
-    </row>
-    <row r="512" ht="15.75" customHeight="1">
-      <c r="B512" s="16"/>
-    </row>
-    <row r="513" ht="15.75" customHeight="1">
-      <c r="B513" s="16"/>
-    </row>
-    <row r="514" ht="15.75" customHeight="1">
-      <c r="B514" s="16"/>
-    </row>
-    <row r="515" ht="15.75" customHeight="1">
-      <c r="B515" s="16"/>
-    </row>
-    <row r="516" ht="15.75" customHeight="1">
-      <c r="B516" s="16"/>
-    </row>
-    <row r="517" ht="15.75" customHeight="1">
-      <c r="B517" s="16"/>
-    </row>
-    <row r="518" ht="15.75" customHeight="1">
-      <c r="B518" s="16"/>
-    </row>
-    <row r="519" ht="15.75" customHeight="1">
-      <c r="B519" s="16"/>
-    </row>
-    <row r="520" ht="15.75" customHeight="1">
-      <c r="B520" s="16"/>
-    </row>
-    <row r="521" ht="15.75" customHeight="1">
-      <c r="B521" s="16"/>
-    </row>
-    <row r="522" ht="15.75" customHeight="1">
-      <c r="B522" s="16"/>
-    </row>
-    <row r="523" ht="15.75" customHeight="1">
-      <c r="B523" s="16"/>
-    </row>
-    <row r="524" ht="15.75" customHeight="1">
-      <c r="B524" s="16"/>
-    </row>
-    <row r="525" ht="15.75" customHeight="1">
-      <c r="B525" s="16"/>
-    </row>
-    <row r="526" ht="15.75" customHeight="1">
-      <c r="B526" s="16"/>
-    </row>
-    <row r="527" ht="15.75" customHeight="1">
-      <c r="B527" s="16"/>
-    </row>
-    <row r="528" ht="15.75" customHeight="1">
-      <c r="B528" s="16"/>
-    </row>
-    <row r="529" ht="15.75" customHeight="1">
-      <c r="B529" s="16"/>
-    </row>
-    <row r="530" ht="15.75" customHeight="1">
-      <c r="B530" s="16"/>
-    </row>
-    <row r="531" ht="15.75" customHeight="1">
-      <c r="B531" s="16"/>
-    </row>
-    <row r="532" ht="15.75" customHeight="1">
-      <c r="B532" s="16"/>
-    </row>
-    <row r="533" ht="15.75" customHeight="1">
-      <c r="B533" s="16"/>
-    </row>
-    <row r="534" ht="15.75" customHeight="1">
-      <c r="B534" s="16"/>
-    </row>
-    <row r="535" ht="15.75" customHeight="1">
-      <c r="B535" s="16"/>
-    </row>
-    <row r="536" ht="15.75" customHeight="1">
-      <c r="B536" s="16"/>
-    </row>
-    <row r="537" ht="15.75" customHeight="1">
-      <c r="B537" s="16"/>
-    </row>
-    <row r="538" ht="15.75" customHeight="1">
-      <c r="B538" s="16"/>
-    </row>
-    <row r="539" ht="15.75" customHeight="1">
-      <c r="B539" s="16"/>
-    </row>
-    <row r="540" ht="15.75" customHeight="1">
-      <c r="B540" s="16"/>
-    </row>
-    <row r="541" ht="15.75" customHeight="1">
-      <c r="B541" s="16"/>
-    </row>
-    <row r="542" ht="15.75" customHeight="1">
-      <c r="B542" s="16"/>
-    </row>
-    <row r="543" ht="15.75" customHeight="1">
-      <c r="B543" s="16"/>
-    </row>
-    <row r="544" ht="15.75" customHeight="1">
-      <c r="B544" s="16"/>
-    </row>
-    <row r="545" ht="15.75" customHeight="1">
-      <c r="B545" s="16"/>
-    </row>
-    <row r="546" ht="15.75" customHeight="1">
-      <c r="B546" s="16"/>
-    </row>
-    <row r="547" ht="15.75" customHeight="1">
-      <c r="B547" s="16"/>
-    </row>
-    <row r="548" ht="15.75" customHeight="1">
-      <c r="B548" s="16"/>
-    </row>
-    <row r="549" ht="15.75" customHeight="1">
-      <c r="B549" s="16"/>
-    </row>
-    <row r="550" ht="15.75" customHeight="1">
-      <c r="B550" s="16"/>
-    </row>
-    <row r="551" ht="15.75" customHeight="1">
-      <c r="B551" s="16"/>
-    </row>
-    <row r="552" ht="15.75" customHeight="1">
-      <c r="B552" s="16"/>
-    </row>
-    <row r="553" ht="15.75" customHeight="1">
-      <c r="B553" s="16"/>
-    </row>
-    <row r="554" ht="15.75" customHeight="1">
-      <c r="B554" s="16"/>
-    </row>
-    <row r="555" ht="15.75" customHeight="1">
-      <c r="B555" s="16"/>
-    </row>
-    <row r="556" ht="15.75" customHeight="1">
-      <c r="B556" s="16"/>
-    </row>
-    <row r="557" ht="15.75" customHeight="1">
-      <c r="B557" s="16"/>
-    </row>
-    <row r="558" ht="15.75" customHeight="1">
-      <c r="B558" s="16"/>
-    </row>
-    <row r="559" ht="15.75" customHeight="1">
-      <c r="B559" s="16"/>
-    </row>
-    <row r="560" ht="15.75" customHeight="1">
-      <c r="B560" s="16"/>
-    </row>
-    <row r="561" ht="15.75" customHeight="1">
-      <c r="B561" s="16"/>
-    </row>
-    <row r="562" ht="15.75" customHeight="1">
-      <c r="B562" s="16"/>
-    </row>
-    <row r="563" ht="15.75" customHeight="1">
-      <c r="B563" s="16"/>
-    </row>
-    <row r="564" ht="15.75" customHeight="1">
-      <c r="B564" s="16"/>
-    </row>
-    <row r="565" ht="15.75" customHeight="1">
-      <c r="B565" s="16"/>
-    </row>
-    <row r="566" ht="15.75" customHeight="1">
-      <c r="B566" s="16"/>
-    </row>
-    <row r="567" ht="15.75" customHeight="1">
-      <c r="B567" s="16"/>
-    </row>
-    <row r="568" ht="15.75" customHeight="1">
-      <c r="B568" s="16"/>
-    </row>
-    <row r="569" ht="15.75" customHeight="1">
-      <c r="B569" s="16"/>
-    </row>
-    <row r="570" ht="15.75" customHeight="1">
-      <c r="B570" s="16"/>
-    </row>
-    <row r="571" ht="15.75" customHeight="1">
-      <c r="B571" s="16"/>
-    </row>
-    <row r="572" ht="15.75" customHeight="1">
-      <c r="B572" s="16"/>
-    </row>
-    <row r="573" ht="15.75" customHeight="1">
-      <c r="B573" s="16"/>
-    </row>
-    <row r="574" ht="15.75" customHeight="1">
-      <c r="B574" s="16"/>
-    </row>
-    <row r="575" ht="15.75" customHeight="1">
-      <c r="B575" s="16"/>
-    </row>
-    <row r="576" ht="15.75" customHeight="1">
-      <c r="B576" s="16"/>
-    </row>
-    <row r="577" ht="15.75" customHeight="1">
-      <c r="B577" s="16"/>
-    </row>
-    <row r="578" ht="15.75" customHeight="1">
-      <c r="B578" s="16"/>
-    </row>
-    <row r="579" ht="15.75" customHeight="1">
-      <c r="B579" s="16"/>
-    </row>
-    <row r="580" ht="15.75" customHeight="1">
-      <c r="B580" s="16"/>
-    </row>
-    <row r="581" ht="15.75" customHeight="1">
-      <c r="B581" s="16"/>
-    </row>
-    <row r="582" ht="15.75" customHeight="1">
-      <c r="B582" s="16"/>
-    </row>
-    <row r="583" ht="15.75" customHeight="1">
-      <c r="B583" s="16"/>
-    </row>
-    <row r="584" ht="15.75" customHeight="1">
-      <c r="B584" s="16"/>
-    </row>
-    <row r="585" ht="15.75" customHeight="1">
-      <c r="B585" s="16"/>
-    </row>
-    <row r="586" ht="15.75" customHeight="1">
-      <c r="B586" s="16"/>
-    </row>
-    <row r="587" ht="15.75" customHeight="1">
-      <c r="B587" s="16"/>
-    </row>
-    <row r="588" ht="15.75" customHeight="1">
-      <c r="B588" s="16"/>
-    </row>
-    <row r="589" ht="15.75" customHeight="1">
-      <c r="B589" s="16"/>
-    </row>
-    <row r="590" ht="15.75" customHeight="1">
-      <c r="B590" s="16"/>
-    </row>
-    <row r="591" ht="15.75" customHeight="1">
-      <c r="B591" s="16"/>
-    </row>
-    <row r="592" ht="15.75" customHeight="1">
-      <c r="B592" s="16"/>
-    </row>
-    <row r="593" ht="15.75" customHeight="1">
-      <c r="B593" s="16"/>
-    </row>
-    <row r="594" ht="15.75" customHeight="1">
-      <c r="B594" s="16"/>
-    </row>
-    <row r="595" ht="15.75" customHeight="1">
-      <c r="B595" s="16"/>
-    </row>
-    <row r="596" ht="15.75" customHeight="1">
-      <c r="B596" s="16"/>
-    </row>
-    <row r="597" ht="15.75" customHeight="1">
-      <c r="B597" s="16"/>
-    </row>
-    <row r="598" ht="15.75" customHeight="1">
-      <c r="B598" s="16"/>
-    </row>
-    <row r="599" ht="15.75" customHeight="1">
-      <c r="B599" s="16"/>
-    </row>
-    <row r="600" ht="15.75" customHeight="1">
-      <c r="B600" s="16"/>
-    </row>
-    <row r="601" ht="15.75" customHeight="1">
-      <c r="B601" s="16"/>
-    </row>
-    <row r="602" ht="15.75" customHeight="1">
-      <c r="B602" s="16"/>
-    </row>
-    <row r="603" ht="15.75" customHeight="1">
-      <c r="B603" s="16"/>
-    </row>
-    <row r="604" ht="15.75" customHeight="1">
-      <c r="B604" s="16"/>
-    </row>
-    <row r="605" ht="15.75" customHeight="1">
-      <c r="B605" s="16"/>
-    </row>
-    <row r="606" ht="15.75" customHeight="1">
-      <c r="B606" s="16"/>
-    </row>
-    <row r="607" ht="15.75" customHeight="1">
-      <c r="B607" s="16"/>
-    </row>
-    <row r="608" ht="15.75" customHeight="1">
-      <c r="B608" s="16"/>
-    </row>
-    <row r="609" ht="15.75" customHeight="1">
-      <c r="B609" s="16"/>
-    </row>
-    <row r="610" ht="15.75" customHeight="1">
-      <c r="B610" s="16"/>
-    </row>
-    <row r="611" ht="15.75" customHeight="1">
-      <c r="B611" s="16"/>
-    </row>
-    <row r="612" ht="15.75" customHeight="1">
-      <c r="B612" s="16"/>
-    </row>
-    <row r="613" ht="15.75" customHeight="1">
-      <c r="B613" s="16"/>
-    </row>
-    <row r="614" ht="15.75" customHeight="1">
-      <c r="B614" s="16"/>
-    </row>
-    <row r="615" ht="15.75" customHeight="1">
-      <c r="B615" s="16"/>
-    </row>
-    <row r="616" ht="15.75" customHeight="1">
-      <c r="B616" s="16"/>
-    </row>
-    <row r="617" ht="15.75" customHeight="1">
-      <c r="B617" s="16"/>
-    </row>
-    <row r="618" ht="15.75" customHeight="1">
-      <c r="B618" s="16"/>
-    </row>
-    <row r="619" ht="15.75" customHeight="1">
-      <c r="B619" s="16"/>
-    </row>
-    <row r="620" ht="15.75" customHeight="1">
-      <c r="B620" s="16"/>
-    </row>
-    <row r="621" ht="15.75" customHeight="1">
-      <c r="B621" s="16"/>
-    </row>
-    <row r="622" ht="15.75" customHeight="1">
-      <c r="B622" s="16"/>
-    </row>
-    <row r="623" ht="15.75" customHeight="1">
-      <c r="B623" s="16"/>
-    </row>
-    <row r="624" ht="15.75" customHeight="1">
-      <c r="B624" s="16"/>
-    </row>
-    <row r="625" ht="15.75" customHeight="1">
-      <c r="B625" s="16"/>
-    </row>
-    <row r="626" ht="15.75" customHeight="1">
-      <c r="B626" s="16"/>
-    </row>
-    <row r="627" ht="15.75" customHeight="1">
-      <c r="B627" s="16"/>
-    </row>
-    <row r="628" ht="15.75" customHeight="1">
-      <c r="B628" s="16"/>
-    </row>
-    <row r="629" ht="15.75" customHeight="1">
-      <c r="B629" s="16"/>
-    </row>
-    <row r="630" ht="15.75" customHeight="1">
-      <c r="B630" s="16"/>
-    </row>
-    <row r="631" ht="15.75" customHeight="1">
-      <c r="B631" s="16"/>
-    </row>
-    <row r="632" ht="15.75" customHeight="1">
-      <c r="B632" s="16"/>
-    </row>
-    <row r="633" ht="15.75" customHeight="1">
-      <c r="B633" s="16"/>
-    </row>
-    <row r="634" ht="15.75" customHeight="1">
-      <c r="B634" s="16"/>
-    </row>
-    <row r="635" ht="15.75" customHeight="1">
-      <c r="B635" s="16"/>
-    </row>
-    <row r="636" ht="15.75" customHeight="1">
-      <c r="B636" s="16"/>
-    </row>
-    <row r="637" ht="15.75" customHeight="1">
-      <c r="B637" s="16"/>
-    </row>
-    <row r="638" ht="15.75" customHeight="1">
-      <c r="B638" s="16"/>
-    </row>
-    <row r="639" ht="15.75" customHeight="1">
-      <c r="B639" s="16"/>
-    </row>
-    <row r="640" ht="15.75" customHeight="1">
-      <c r="B640" s="16"/>
-    </row>
-    <row r="641" ht="15.75" customHeight="1">
-      <c r="B641" s="16"/>
-    </row>
-    <row r="642" ht="15.75" customHeight="1">
-      <c r="B642" s="16"/>
-    </row>
-    <row r="643" ht="15.75" customHeight="1">
-      <c r="B643" s="16"/>
-    </row>
-    <row r="644" ht="15.75" customHeight="1">
-      <c r="B644" s="16"/>
-    </row>
-    <row r="645" ht="15.75" customHeight="1">
-      <c r="B645" s="16"/>
-    </row>
-    <row r="646" ht="15.75" customHeight="1">
-      <c r="B646" s="16"/>
-    </row>
-    <row r="647" ht="15.75" customHeight="1">
-      <c r="B647" s="16"/>
-    </row>
-    <row r="648" ht="15.75" customHeight="1">
-      <c r="B648" s="16"/>
-    </row>
-    <row r="649" ht="15.75" customHeight="1">
-      <c r="B649" s="16"/>
-    </row>
-    <row r="650" ht="15.75" customHeight="1">
-      <c r="B650" s="16"/>
-    </row>
-    <row r="651" ht="15.75" customHeight="1">
-      <c r="B651" s="16"/>
-    </row>
-    <row r="652" ht="15.75" customHeight="1">
-      <c r="B652" s="16"/>
-    </row>
-    <row r="653" ht="15.75" customHeight="1">
-      <c r="B653" s="16"/>
-    </row>
-    <row r="654" ht="15.75" customHeight="1">
-      <c r="B654" s="16"/>
-    </row>
-    <row r="655" ht="15.75" customHeight="1">
-      <c r="B655" s="16"/>
-    </row>
-    <row r="656" ht="15.75" customHeight="1">
-      <c r="B656" s="16"/>
-    </row>
-    <row r="657" ht="15.75" customHeight="1">
-      <c r="B657" s="16"/>
-    </row>
-    <row r="658" ht="15.75" customHeight="1">
-      <c r="B658" s="16"/>
-    </row>
-    <row r="659" ht="15.75" customHeight="1">
-      <c r="B659" s="16"/>
-    </row>
-    <row r="660" ht="15.75" customHeight="1">
-      <c r="B660" s="16"/>
-    </row>
-    <row r="661" ht="15.75" customHeight="1">
-      <c r="B661" s="16"/>
-    </row>
-    <row r="662" ht="15.75" customHeight="1">
-      <c r="B662" s="16"/>
-    </row>
-    <row r="663" ht="15.75" customHeight="1">
-      <c r="B663" s="16"/>
-    </row>
-    <row r="664" ht="15.75" customHeight="1">
-      <c r="B664" s="16"/>
-    </row>
-    <row r="665" ht="15.75" customHeight="1">
-      <c r="B665" s="16"/>
-    </row>
-    <row r="666" ht="15.75" customHeight="1">
-      <c r="B666" s="16"/>
-    </row>
-    <row r="667" ht="15.75" customHeight="1">
-      <c r="B667" s="16"/>
-    </row>
-    <row r="668" ht="15.75" customHeight="1">
-      <c r="B668" s="16"/>
-    </row>
-    <row r="669" ht="15.75" customHeight="1">
-      <c r="B669" s="16"/>
-    </row>
-    <row r="670" ht="15.75" customHeight="1">
-      <c r="B670" s="16"/>
-    </row>
-    <row r="671" ht="15.75" customHeight="1">
-      <c r="B671" s="16"/>
-    </row>
-    <row r="672" ht="15.75" customHeight="1">
-      <c r="B672" s="16"/>
-    </row>
-    <row r="673" ht="15.75" customHeight="1">
-      <c r="B673" s="16"/>
-    </row>
-    <row r="674" ht="15.75" customHeight="1">
-      <c r="B674" s="16"/>
-    </row>
-    <row r="675" ht="15.75" customHeight="1">
-      <c r="B675" s="16"/>
-    </row>
-    <row r="676" ht="15.75" customHeight="1">
-      <c r="B676" s="16"/>
-    </row>
-    <row r="677" ht="15.75" customHeight="1">
-      <c r="B677" s="16"/>
-    </row>
-    <row r="678" ht="15.75" customHeight="1">
-      <c r="B678" s="16"/>
-    </row>
-    <row r="679" ht="15.75" customHeight="1">
-      <c r="B679" s="16"/>
-    </row>
-    <row r="680" ht="15.75" customHeight="1">
-      <c r="B680" s="16"/>
-    </row>
-    <row r="681" ht="15.75" customHeight="1">
-      <c r="B681" s="16"/>
-    </row>
-    <row r="682" ht="15.75" customHeight="1">
-      <c r="B682" s="16"/>
-    </row>
-    <row r="683" ht="15.75" customHeight="1">
-      <c r="B683" s="16"/>
-    </row>
-    <row r="684" ht="15.75" customHeight="1">
-      <c r="B684" s="16"/>
-    </row>
-    <row r="685" ht="15.75" customHeight="1">
-      <c r="B685" s="16"/>
-    </row>
-    <row r="686" ht="15.75" customHeight="1">
-      <c r="B686" s="16"/>
-    </row>
-    <row r="687" ht="15.75" customHeight="1">
-      <c r="B687" s="16"/>
-    </row>
-    <row r="688" ht="15.75" customHeight="1">
-      <c r="B688" s="16"/>
-    </row>
-    <row r="689" ht="15.75" customHeight="1">
-      <c r="B689" s="16"/>
-    </row>
-    <row r="690" ht="15.75" customHeight="1">
-      <c r="B690" s="16"/>
-    </row>
-    <row r="691" ht="15.75" customHeight="1">
-      <c r="B691" s="16"/>
-    </row>
-    <row r="692" ht="15.75" customHeight="1">
-      <c r="B692" s="16"/>
-    </row>
-    <row r="693" ht="15.75" customHeight="1">
-      <c r="B693" s="16"/>
-    </row>
-    <row r="694" ht="15.75" customHeight="1">
-      <c r="B694" s="16"/>
-    </row>
-    <row r="695" ht="15.75" customHeight="1">
-      <c r="B695" s="16"/>
-    </row>
-    <row r="696" ht="15.75" customHeight="1">
-      <c r="B696" s="16"/>
-    </row>
-    <row r="697" ht="15.75" customHeight="1">
-      <c r="B697" s="16"/>
-    </row>
-    <row r="698" ht="15.75" customHeight="1">
-      <c r="B698" s="16"/>
-    </row>
-    <row r="699" ht="15.75" customHeight="1">
-      <c r="B699" s="16"/>
-    </row>
-    <row r="700" ht="15.75" customHeight="1">
-      <c r="B700" s="16"/>
-    </row>
-    <row r="701" ht="15.75" customHeight="1">
-      <c r="B701" s="16"/>
-    </row>
-    <row r="702" ht="15.75" customHeight="1">
-      <c r="B702" s="16"/>
-    </row>
-    <row r="703" ht="15.75" customHeight="1">
-      <c r="B703" s="16"/>
-    </row>
-    <row r="704" ht="15.75" customHeight="1">
-      <c r="B704" s="16"/>
-    </row>
-    <row r="705" ht="15.75" customHeight="1">
-      <c r="B705" s="16"/>
-    </row>
-    <row r="706" ht="15.75" customHeight="1">
-      <c r="B706" s="16"/>
-    </row>
-    <row r="707" ht="15.75" customHeight="1">
-      <c r="B707" s="16"/>
-    </row>
-    <row r="708" ht="15.75" customHeight="1">
-      <c r="B708" s="16"/>
-    </row>
-    <row r="709" ht="15.75" customHeight="1">
-      <c r="B709" s="16"/>
-    </row>
-    <row r="710" ht="15.75" customHeight="1">
-      <c r="B710" s="16"/>
-    </row>
-    <row r="711" ht="15.75" customHeight="1">
-      <c r="B711" s="16"/>
-    </row>
-    <row r="712" ht="15.75" customHeight="1">
-      <c r="B712" s="16"/>
-    </row>
-    <row r="713" ht="15.75" customHeight="1">
-      <c r="B713" s="16"/>
-    </row>
-    <row r="714" ht="15.75" customHeight="1">
-      <c r="B714" s="16"/>
-    </row>
-    <row r="715" ht="15.75" customHeight="1">
-      <c r="B715" s="16"/>
-    </row>
-    <row r="716" ht="15.75" customHeight="1">
-      <c r="B716" s="16"/>
-    </row>
-    <row r="717" ht="15.75" customHeight="1">
-      <c r="B717" s="16"/>
-    </row>
-    <row r="718" ht="15.75" customHeight="1">
-      <c r="B718" s="16"/>
-    </row>
-    <row r="719" ht="15.75" customHeight="1">
-      <c r="B719" s="16"/>
-    </row>
-    <row r="720" ht="15.75" customHeight="1">
-      <c r="B720" s="16"/>
-    </row>
-    <row r="721" ht="15.75" customHeight="1">
-      <c r="B721" s="16"/>
-    </row>
-    <row r="722" ht="15.75" customHeight="1">
-      <c r="B722" s="16"/>
-    </row>
-    <row r="723" ht="15.75" customHeight="1">
-      <c r="B723" s="16"/>
-    </row>
-    <row r="724" ht="15.75" customHeight="1">
-      <c r="B724" s="16"/>
-    </row>
-    <row r="725" ht="15.75" customHeight="1">
-      <c r="B725" s="16"/>
-    </row>
-    <row r="726" ht="15.75" customHeight="1">
-      <c r="B726" s="16"/>
-    </row>
-    <row r="727" ht="15.75" customHeight="1">
-      <c r="B727" s="16"/>
-    </row>
-    <row r="728" ht="15.75" customHeight="1">
-      <c r="B728" s="16"/>
-    </row>
-    <row r="729" ht="15.75" customHeight="1">
-      <c r="B729" s="16"/>
-    </row>
-    <row r="730" ht="15.75" customHeight="1">
-      <c r="B730" s="16"/>
-    </row>
-    <row r="731" ht="15.75" customHeight="1">
-      <c r="B731" s="16"/>
-    </row>
-    <row r="732" ht="15.75" customHeight="1">
-      <c r="B732" s="16"/>
-    </row>
-    <row r="733" ht="15.75" customHeight="1">
-      <c r="B733" s="16"/>
-    </row>
-    <row r="734" ht="15.75" customHeight="1">
-      <c r="B734" s="16"/>
-    </row>
-    <row r="735" ht="15.75" customHeight="1">
-      <c r="B735" s="16"/>
-    </row>
-    <row r="736" ht="15.75" customHeight="1">
-      <c r="B736" s="16"/>
-    </row>
-    <row r="737" ht="15.75" customHeight="1">
-      <c r="B737" s="16"/>
-    </row>
-    <row r="738" ht="15.75" customHeight="1">
-      <c r="B738" s="16"/>
-    </row>
-    <row r="739" ht="15.75" customHeight="1">
-      <c r="B739" s="16"/>
-    </row>
-    <row r="740" ht="15.75" customHeight="1">
-      <c r="B740" s="16"/>
-    </row>
-    <row r="741" ht="15.75" customHeight="1">
-      <c r="B741" s="16"/>
-    </row>
-    <row r="742" ht="15.75" customHeight="1">
-      <c r="B742" s="16"/>
-    </row>
-    <row r="743" ht="15.75" customHeight="1">
-      <c r="B743" s="16"/>
-    </row>
-    <row r="744" ht="15.75" customHeight="1">
-      <c r="B744" s="16"/>
-    </row>
-    <row r="745" ht="15.75" customHeight="1">
-      <c r="B745" s="16"/>
-    </row>
-    <row r="746" ht="15.75" customHeight="1">
-      <c r="B746" s="16"/>
-    </row>
-    <row r="747" ht="15.75" customHeight="1">
-      <c r="B747" s="16"/>
-    </row>
-    <row r="748" ht="15.75" customHeight="1">
-      <c r="B748" s="16"/>
-    </row>
-    <row r="749" ht="15.75" customHeight="1">
-      <c r="B749" s="16"/>
-    </row>
-    <row r="750" ht="15.75" customHeight="1">
-      <c r="B750" s="16"/>
-    </row>
-    <row r="751" ht="15.75" customHeight="1">
-      <c r="B751" s="16"/>
-    </row>
-    <row r="752" ht="15.75" customHeight="1">
-      <c r="B752" s="16"/>
-    </row>
-    <row r="753" ht="15.75" customHeight="1">
-      <c r="B753" s="16"/>
-    </row>
-    <row r="754" ht="15.75" customHeight="1">
-      <c r="B754" s="16"/>
-    </row>
-    <row r="755" ht="15.75" customHeight="1">
-      <c r="B755" s="16"/>
-    </row>
-    <row r="756" ht="15.75" customHeight="1">
-      <c r="B756" s="16"/>
-    </row>
-    <row r="757" ht="15.75" customHeight="1">
-      <c r="B757" s="16"/>
-    </row>
-    <row r="758" ht="15.75" customHeight="1">
-      <c r="B758" s="16"/>
-    </row>
-    <row r="759" ht="15.75" customHeight="1">
-      <c r="B759" s="16"/>
-    </row>
-    <row r="760" ht="15.75" customHeight="1">
-      <c r="B760" s="16"/>
-    </row>
-    <row r="761" ht="15.75" customHeight="1">
-      <c r="B761" s="16"/>
-    </row>
-    <row r="762" ht="15.75" customHeight="1">
-      <c r="B762" s="16"/>
-    </row>
-    <row r="763" ht="15.75" customHeight="1">
-      <c r="B763" s="16"/>
-    </row>
-    <row r="764" ht="15.75" customHeight="1">
-      <c r="B764" s="16"/>
-    </row>
-    <row r="765" ht="15.75" customHeight="1">
-      <c r="B765" s="16"/>
-    </row>
-    <row r="766" ht="15.75" customHeight="1">
-      <c r="B766" s="16"/>
-    </row>
-    <row r="767" ht="15.75" customHeight="1">
-      <c r="B767" s="16"/>
-    </row>
-    <row r="768" ht="15.75" customHeight="1">
-      <c r="B768" s="16"/>
-    </row>
-    <row r="769" ht="15.75" customHeight="1">
-      <c r="B769" s="16"/>
-    </row>
-    <row r="770" ht="15.75" customHeight="1">
-      <c r="B770" s="16"/>
-    </row>
-    <row r="771" ht="15.75" customHeight="1">
-      <c r="B771" s="16"/>
-    </row>
-    <row r="772" ht="15.75" customHeight="1">
-      <c r="B772" s="16"/>
-    </row>
-    <row r="773" ht="15.75" customHeight="1">
-      <c r="B773" s="16"/>
-    </row>
-    <row r="774" ht="15.75" customHeight="1">
-      <c r="B774" s="16"/>
-    </row>
-    <row r="775" ht="15.75" customHeight="1">
-      <c r="B775" s="16"/>
-    </row>
-    <row r="776" ht="15.75" customHeight="1">
-      <c r="B776" s="16"/>
-    </row>
-    <row r="777" ht="15.75" customHeight="1">
-      <c r="B777" s="16"/>
-    </row>
-    <row r="778" ht="15.75" customHeight="1">
-      <c r="B778" s="16"/>
-    </row>
-    <row r="779" ht="15.75" customHeight="1">
-      <c r="B779" s="16"/>
-    </row>
-    <row r="780" ht="15.75" customHeight="1">
-      <c r="B780" s="16"/>
-    </row>
-    <row r="781" ht="15.75" customHeight="1">
-      <c r="B781" s="16"/>
-    </row>
-    <row r="782" ht="15.75" customHeight="1">
-      <c r="B782" s="16"/>
-    </row>
-    <row r="783" ht="15.75" customHeight="1">
-      <c r="B783" s="16"/>
-    </row>
-    <row r="784" ht="15.75" customHeight="1">
-      <c r="B784" s="16"/>
-    </row>
-    <row r="785" ht="15.75" customHeight="1">
-      <c r="B785" s="16"/>
-    </row>
-    <row r="786" ht="15.75" customHeight="1">
-      <c r="B786" s="16"/>
-    </row>
-    <row r="787" ht="15.75" customHeight="1">
-      <c r="B787" s="16"/>
-    </row>
-    <row r="788" ht="15.75" customHeight="1">
-      <c r="B788" s="16"/>
-    </row>
-    <row r="789" ht="15.75" customHeight="1">
-      <c r="B789" s="16"/>
-    </row>
-    <row r="790" ht="15.75" customHeight="1">
-      <c r="B790" s="16"/>
-    </row>
-    <row r="791" ht="15.75" customHeight="1">
-      <c r="B791" s="16"/>
-    </row>
-    <row r="792" ht="15.75" customHeight="1">
-      <c r="B792" s="16"/>
-    </row>
-    <row r="793" ht="15.75" customHeight="1">
-      <c r="B793" s="16"/>
-    </row>
-    <row r="794" ht="15.75" customHeight="1">
-      <c r="B794" s="16"/>
-    </row>
-    <row r="795" ht="15.75" customHeight="1">
-      <c r="B795" s="16"/>
-    </row>
-    <row r="796" ht="15.75" customHeight="1">
-      <c r="B796" s="16"/>
-    </row>
-    <row r="797" ht="15.75" customHeight="1">
-      <c r="B797" s="16"/>
-    </row>
-    <row r="798" ht="15.75" customHeight="1">
-      <c r="B798" s="16"/>
-    </row>
-    <row r="799" ht="15.75" customHeight="1">
-      <c r="B799" s="16"/>
-    </row>
-    <row r="800" ht="15.75" customHeight="1">
-      <c r="B800" s="16"/>
-    </row>
-    <row r="801" ht="15.75" customHeight="1">
-      <c r="B801" s="16"/>
-    </row>
-    <row r="802" ht="15.75" customHeight="1">
-      <c r="B802" s="16"/>
-    </row>
-    <row r="803" ht="15.75" customHeight="1">
-      <c r="B803" s="16"/>
-    </row>
-    <row r="804" ht="15.75" customHeight="1">
-      <c r="B804" s="16"/>
-    </row>
-    <row r="805" ht="15.75" customHeight="1">
-      <c r="B805" s="16"/>
-    </row>
-    <row r="806" ht="15.75" customHeight="1">
-      <c r="B806" s="16"/>
-    </row>
-    <row r="807" ht="15.75" customHeight="1">
-      <c r="B807" s="16"/>
-    </row>
-    <row r="808" ht="15.75" customHeight="1">
-      <c r="B808" s="16"/>
-    </row>
-    <row r="809" ht="15.75" customHeight="1">
-      <c r="B809" s="16"/>
-    </row>
-    <row r="810" ht="15.75" customHeight="1">
-      <c r="B810" s="16"/>
-    </row>
-    <row r="811" ht="15.75" customHeight="1">
-      <c r="B811" s="16"/>
-    </row>
-    <row r="812" ht="15.75" customHeight="1">
-      <c r="B812" s="16"/>
-    </row>
-    <row r="813" ht="15.75" customHeight="1">
-      <c r="B813" s="16"/>
-    </row>
-    <row r="814" ht="15.75" customHeight="1">
-      <c r="B814" s="16"/>
-    </row>
-    <row r="815" ht="15.75" customHeight="1">
-      <c r="B815" s="16"/>
-    </row>
-    <row r="816" ht="15.75" customHeight="1">
-      <c r="B816" s="16"/>
-    </row>
-    <row r="817" ht="15.75" customHeight="1">
-      <c r="B817" s="16"/>
-    </row>
-    <row r="818" ht="15.75" customHeight="1">
-      <c r="B818" s="16"/>
-    </row>
-    <row r="819" ht="15.75" customHeight="1">
-      <c r="B819" s="16"/>
-    </row>
-    <row r="820" ht="15.75" customHeight="1">
-      <c r="B820" s="16"/>
-    </row>
-    <row r="821" ht="15.75" customHeight="1">
-      <c r="B821" s="16"/>
-    </row>
-    <row r="822" ht="15.75" customHeight="1">
-      <c r="B822" s="16"/>
-    </row>
-    <row r="823" ht="15.75" customHeight="1">
-      <c r="B823" s="16"/>
-    </row>
-    <row r="824" ht="15.75" customHeight="1">
-      <c r="B824" s="16"/>
-    </row>
-    <row r="825" ht="15.75" customHeight="1">
-      <c r="B825" s="16"/>
-    </row>
-    <row r="826" ht="15.75" customHeight="1">
-      <c r="B826" s="16"/>
-    </row>
-    <row r="827" ht="15.75" customHeight="1">
-      <c r="B827" s="16"/>
-    </row>
-    <row r="828" ht="15.75" customHeight="1">
-      <c r="B828" s="16"/>
-    </row>
-    <row r="829" ht="15.75" customHeight="1">
-      <c r="B829" s="16"/>
-    </row>
-    <row r="830" ht="15.75" customHeight="1">
-      <c r="B830" s="16"/>
-    </row>
-    <row r="831" ht="15.75" customHeight="1">
-      <c r="B831" s="16"/>
-    </row>
-    <row r="832" ht="15.75" customHeight="1">
-      <c r="B832" s="16"/>
-    </row>
-    <row r="833" ht="15.75" customHeight="1">
-      <c r="B833" s="16"/>
-    </row>
-    <row r="834" ht="15.75" customHeight="1">
-      <c r="B834" s="16"/>
-    </row>
-    <row r="835" ht="15.75" customHeight="1">
-      <c r="B835" s="16"/>
-    </row>
-    <row r="836" ht="15.75" customHeight="1">
-      <c r="B836" s="16"/>
-    </row>
-    <row r="837" ht="15.75" customHeight="1">
-      <c r="B837" s="16"/>
-    </row>
-    <row r="838" ht="15.75" customHeight="1">
-      <c r="B838" s="16"/>
-    </row>
-    <row r="839" ht="15.75" customHeight="1">
-      <c r="B839" s="16"/>
-    </row>
-    <row r="840" ht="15.75" customHeight="1">
-      <c r="B840" s="16"/>
-    </row>
-    <row r="841" ht="15.75" customHeight="1">
-      <c r="B841" s="16"/>
-    </row>
-    <row r="842" ht="15.75" customHeight="1">
-      <c r="B842" s="16"/>
-    </row>
-    <row r="843" ht="15.75" customHeight="1">
-      <c r="B843" s="16"/>
-    </row>
-    <row r="844" ht="15.75" customHeight="1">
-      <c r="B844" s="16"/>
-    </row>
-    <row r="845" ht="15.75" customHeight="1">
-      <c r="B845" s="16"/>
-    </row>
-    <row r="846" ht="15.75" customHeight="1">
-      <c r="B846" s="16"/>
-    </row>
-    <row r="847" ht="15.75" customHeight="1">
-      <c r="B847" s="16"/>
-    </row>
-    <row r="848" ht="15.75" customHeight="1">
-      <c r="B848" s="16"/>
-    </row>
-    <row r="849" ht="15.75" customHeight="1">
-      <c r="B849" s="16"/>
-    </row>
-    <row r="850" ht="15.75" customHeight="1">
-      <c r="B850" s="16"/>
-    </row>
-    <row r="851" ht="15.75" customHeight="1">
-      <c r="B851" s="16"/>
-    </row>
-    <row r="852" ht="15.75" customHeight="1">
-      <c r="B852" s="16"/>
-    </row>
-    <row r="853" ht="15.75" customHeight="1">
-      <c r="B853" s="16"/>
-    </row>
-    <row r="854" ht="15.75" customHeight="1">
-      <c r="B854" s="16"/>
-    </row>
-    <row r="855" ht="15.75" customHeight="1">
-      <c r="B855" s="16"/>
-    </row>
-    <row r="856" ht="15.75" customHeight="1">
-      <c r="B856" s="16"/>
-    </row>
-    <row r="857" ht="15.75" customHeight="1">
-      <c r="B857" s="16"/>
-    </row>
-    <row r="858" ht="15.75" customHeight="1">
-      <c r="B858" s="16"/>
-    </row>
-    <row r="859" ht="15.75" customHeight="1">
-      <c r="B859" s="16"/>
-    </row>
-    <row r="860" ht="15.75" customHeight="1">
-      <c r="B860" s="16"/>
-    </row>
-    <row r="861" ht="15.75" customHeight="1">
-      <c r="B861" s="16"/>
-    </row>
-    <row r="862" ht="15.75" customHeight="1">
-      <c r="B862" s="16"/>
-    </row>
-    <row r="863" ht="15.75" customHeight="1">
-      <c r="B863" s="16"/>
-    </row>
-    <row r="864" ht="15.75" customHeight="1">
-      <c r="B864" s="16"/>
-    </row>
-    <row r="865" ht="15.75" customHeight="1">
-      <c r="B865" s="16"/>
-    </row>
-    <row r="866" ht="15.75" customHeight="1">
-      <c r="B866" s="16"/>
-    </row>
-    <row r="867" ht="15.75" customHeight="1">
-      <c r="B867" s="16"/>
-    </row>
-    <row r="868" ht="15.75" customHeight="1">
-      <c r="B868" s="16"/>
-    </row>
-    <row r="869" ht="15.75" customHeight="1">
-      <c r="B869" s="16"/>
-    </row>
-    <row r="870" ht="15.75" customHeight="1">
-      <c r="B870" s="16"/>
-    </row>
-    <row r="871" ht="15.75" customHeight="1">
-      <c r="B871" s="16"/>
-    </row>
-    <row r="872" ht="15.75" customHeight="1">
-      <c r="B872" s="16"/>
-    </row>
-    <row r="873" ht="15.75" customHeight="1">
-      <c r="B873" s="16"/>
-    </row>
-    <row r="874" ht="15.75" customHeight="1">
-      <c r="B874" s="16"/>
-    </row>
-    <row r="875" ht="15.75" customHeight="1">
-      <c r="B875" s="16"/>
-    </row>
-    <row r="876" ht="15.75" customHeight="1">
-      <c r="B876" s="16"/>
-    </row>
-    <row r="877" ht="15.75" customHeight="1">
-      <c r="B877" s="16"/>
-    </row>
-    <row r="878" ht="15.75" customHeight="1">
-      <c r="B878" s="16"/>
-    </row>
-    <row r="879" ht="15.75" customHeight="1">
-      <c r="B879" s="16"/>
-    </row>
-    <row r="880" ht="15.75" customHeight="1">
-      <c r="B880" s="16"/>
-    </row>
-    <row r="881" ht="15.75" customHeight="1">
-      <c r="B881" s="16"/>
-    </row>
-    <row r="882" ht="15.75" customHeight="1">
-      <c r="B882" s="16"/>
-    </row>
-    <row r="883" ht="15.75" customHeight="1">
-      <c r="B883" s="16"/>
-    </row>
-    <row r="884" ht="15.75" customHeight="1">
-      <c r="B884" s="16"/>
-    </row>
-    <row r="885" ht="15.75" customHeight="1">
-      <c r="B885" s="16"/>
-    </row>
-    <row r="886" ht="15.75" customHeight="1">
-      <c r="B886" s="16"/>
-    </row>
-    <row r="887" ht="15.75" customHeight="1">
-      <c r="B887" s="16"/>
-    </row>
-    <row r="888" ht="15.75" customHeight="1">
-      <c r="B888" s="16"/>
-    </row>
-    <row r="889" ht="15.75" customHeight="1">
-      <c r="B889" s="16"/>
-    </row>
-    <row r="890" ht="15.75" customHeight="1">
-      <c r="B890" s="16"/>
-    </row>
-    <row r="891" ht="15.75" customHeight="1">
-      <c r="B891" s="16"/>
-    </row>
-    <row r="892" ht="15.75" customHeight="1">
-      <c r="B892" s="16"/>
-    </row>
-    <row r="893" ht="15.75" customHeight="1">
-      <c r="B893" s="16"/>
-    </row>
-    <row r="894" ht="15.75" customHeight="1">
-      <c r="B894" s="16"/>
-    </row>
-    <row r="895" ht="15.75" customHeight="1">
-      <c r="B895" s="16"/>
-    </row>
-    <row r="896" ht="15.75" customHeight="1">
-      <c r="B896" s="16"/>
-    </row>
-    <row r="897" ht="15.75" customHeight="1">
-      <c r="B897" s="16"/>
-    </row>
-    <row r="898" ht="15.75" customHeight="1">
-      <c r="B898" s="16"/>
-    </row>
-    <row r="899" ht="15.75" customHeight="1">
-      <c r="B899" s="16"/>
-    </row>
-    <row r="900" ht="15.75" customHeight="1">
-      <c r="B900" s="16"/>
-    </row>
-    <row r="901" ht="15.75" customHeight="1">
-      <c r="B901" s="16"/>
-    </row>
-    <row r="902" ht="15.75" customHeight="1">
-      <c r="B902" s="16"/>
-    </row>
-    <row r="903" ht="15.75" customHeight="1">
-      <c r="B903" s="16"/>
-    </row>
-    <row r="904" ht="15.75" customHeight="1">
-      <c r="B904" s="16"/>
-    </row>
-    <row r="905" ht="15.75" customHeight="1">
-      <c r="B905" s="16"/>
-    </row>
-    <row r="906" ht="15.75" customHeight="1">
-      <c r="B906" s="16"/>
-    </row>
-    <row r="907" ht="15.75" customHeight="1">
-      <c r="B907" s="16"/>
-    </row>
-    <row r="908" ht="15.75" customHeight="1">
-      <c r="B908" s="16"/>
-    </row>
-    <row r="909" ht="15.75" customHeight="1">
-      <c r="B909" s="16"/>
-    </row>
-    <row r="910" ht="15.75" customHeight="1">
-      <c r="B910" s="16"/>
-    </row>
-    <row r="911" ht="15.75" customHeight="1">
-      <c r="B911" s="16"/>
-    </row>
-    <row r="912" ht="15.75" customHeight="1">
-      <c r="B912" s="16"/>
-    </row>
-    <row r="913" ht="15.75" customHeight="1">
-      <c r="B913" s="16"/>
-    </row>
-    <row r="914" ht="15.75" customHeight="1">
-      <c r="B914" s="16"/>
-    </row>
-    <row r="915" ht="15.75" customHeight="1">
-      <c r="B915" s="16"/>
-    </row>
-    <row r="916" ht="15.75" customHeight="1">
-      <c r="B916" s="16"/>
-    </row>
-    <row r="917" ht="15.75" customHeight="1">
-      <c r="B917" s="16"/>
-    </row>
-    <row r="918" ht="15.75" customHeight="1">
-      <c r="B918" s="16"/>
-    </row>
-    <row r="919" ht="15.75" customHeight="1">
-      <c r="B919" s="16"/>
-    </row>
-    <row r="920" ht="15.75" customHeight="1">
-      <c r="B920" s="16"/>
-    </row>
-    <row r="921" ht="15.75" customHeight="1">
-      <c r="B921" s="16"/>
-    </row>
-    <row r="922" ht="15.75" customHeight="1">
-      <c r="B922" s="16"/>
-    </row>
-    <row r="923" ht="15.75" customHeight="1">
-      <c r="B923" s="16"/>
-    </row>
-    <row r="924" ht="15.75" customHeight="1">
-      <c r="B924" s="16"/>
-    </row>
-    <row r="925" ht="15.75" customHeight="1">
-      <c r="B925" s="16"/>
-    </row>
-    <row r="926" ht="15.75" customHeight="1">
-      <c r="B926" s="16"/>
-    </row>
-    <row r="927" ht="15.75" customHeight="1">
-      <c r="B927" s="16"/>
-    </row>
-    <row r="928" ht="15.75" customHeight="1">
-      <c r="B928" s="16"/>
-    </row>
-    <row r="929" ht="15.75" customHeight="1">
-      <c r="B929" s="16"/>
-    </row>
-    <row r="930" ht="15.75" customHeight="1">
-      <c r="B930" s="16"/>
-    </row>
-    <row r="931" ht="15.75" customHeight="1">
-      <c r="B931" s="16"/>
-    </row>
-    <row r="932" ht="15.75" customHeight="1">
-      <c r="B932" s="16"/>
-    </row>
-    <row r="933" ht="15.75" customHeight="1">
-      <c r="B933" s="16"/>
-    </row>
-    <row r="934" ht="15.75" customHeight="1">
-      <c r="B934" s="16"/>
-    </row>
-    <row r="935" ht="15.75" customHeight="1">
-      <c r="B935" s="16"/>
-    </row>
-    <row r="936" ht="15.75" customHeight="1">
-      <c r="B936" s="16"/>
-    </row>
-    <row r="937" ht="15.75" customHeight="1">
-      <c r="B937" s="16"/>
-    </row>
-    <row r="938" ht="15.75" customHeight="1">
-      <c r="B938" s="16"/>
-    </row>
-    <row r="939" ht="15.75" customHeight="1">
-      <c r="B939" s="16"/>
-    </row>
-    <row r="940" ht="15.75" customHeight="1">
-      <c r="B940" s="16"/>
-    </row>
-    <row r="941" ht="15.75" customHeight="1">
-      <c r="B941" s="16"/>
-    </row>
-    <row r="942" ht="15.75" customHeight="1">
-      <c r="B942" s="16"/>
-    </row>
-    <row r="943" ht="15.75" customHeight="1">
-      <c r="B943" s="16"/>
-    </row>
-    <row r="944" ht="15.75" customHeight="1">
-      <c r="B944" s="16"/>
-    </row>
-    <row r="945" ht="15.75" customHeight="1">
-      <c r="B945" s="16"/>
-    </row>
-    <row r="946" ht="15.75" customHeight="1">
-      <c r="B946" s="16"/>
-    </row>
-    <row r="947" ht="15.75" customHeight="1">
-      <c r="B947" s="16"/>
-    </row>
-    <row r="948" ht="15.75" customHeight="1">
-      <c r="B948" s="16"/>
-    </row>
-    <row r="949" ht="15.75" customHeight="1">
-      <c r="B949" s="16"/>
-    </row>
-    <row r="950" ht="15.75" customHeight="1">
-      <c r="B950" s="16"/>
-    </row>
-    <row r="951" ht="15.75" customHeight="1">
-      <c r="B951" s="16"/>
-    </row>
-    <row r="952" ht="15.75" customHeight="1">
-      <c r="B952" s="16"/>
-    </row>
-    <row r="953" ht="15.75" customHeight="1">
-      <c r="B953" s="16"/>
-    </row>
-    <row r="954" ht="15.75" customHeight="1">
-      <c r="B954" s="16"/>
-    </row>
-    <row r="955" ht="15.75" customHeight="1">
-      <c r="B955" s="16"/>
-    </row>
-    <row r="956" ht="15.75" customHeight="1">
-      <c r="B956" s="16"/>
-    </row>
-    <row r="957" ht="15.75" customHeight="1">
-      <c r="B957" s="16"/>
-    </row>
-    <row r="958" ht="15.75" customHeight="1">
-      <c r="B958" s="16"/>
-    </row>
-    <row r="959" ht="15.75" customHeight="1">
-      <c r="B959" s="16"/>
-    </row>
-    <row r="960" ht="15.75" customHeight="1">
-      <c r="B960" s="16"/>
-    </row>
-    <row r="961" ht="15.75" customHeight="1">
-      <c r="B961" s="16"/>
-    </row>
-    <row r="962" ht="15.75" customHeight="1">
-      <c r="B962" s="16"/>
-    </row>
-    <row r="963" ht="15.75" customHeight="1">
-      <c r="B963" s="16"/>
-    </row>
-    <row r="964" ht="15.75" customHeight="1">
-      <c r="B964" s="16"/>
-    </row>
-    <row r="965" ht="15.75" customHeight="1">
-      <c r="B965" s="16"/>
-    </row>
-    <row r="966" ht="15.75" customHeight="1">
-      <c r="B966" s="16"/>
-    </row>
-    <row r="967" ht="15.75" customHeight="1">
-      <c r="B967" s="16"/>
-    </row>
-    <row r="968" ht="15.75" customHeight="1">
-      <c r="B968" s="16"/>
-    </row>
-    <row r="969" ht="15.75" customHeight="1">
-      <c r="B969" s="16"/>
-    </row>
-    <row r="970" ht="15.75" customHeight="1">
-      <c r="B970" s="16"/>
-    </row>
-    <row r="971" ht="15.75" customHeight="1">
-      <c r="B971" s="16"/>
-    </row>
-    <row r="972" ht="15.75" customHeight="1">
-      <c r="B972" s="16"/>
-    </row>
-    <row r="973" ht="15.75" customHeight="1">
-      <c r="B973" s="16"/>
-    </row>
-    <row r="974" ht="15.75" customHeight="1">
-      <c r="B974" s="16"/>
-    </row>
-    <row r="975" ht="15.75" customHeight="1">
-      <c r="B975" s="16"/>
-    </row>
-    <row r="976" ht="15.75" customHeight="1">
-      <c r="B976" s="16"/>
-    </row>
-    <row r="977" ht="15.75" customHeight="1">
-      <c r="B977" s="16"/>
-    </row>
-    <row r="978" ht="15.75" customHeight="1">
-      <c r="B978" s="16"/>
-    </row>
-    <row r="979" ht="15.75" customHeight="1">
-      <c r="B979" s="16"/>
-    </row>
-    <row r="980" ht="15.75" customHeight="1">
-      <c r="B980" s="16"/>
-    </row>
-    <row r="981" ht="15.75" customHeight="1">
-      <c r="B981" s="16"/>
-    </row>
-    <row r="982" ht="15.75" customHeight="1">
-      <c r="B982" s="16"/>
-    </row>
-    <row r="983" ht="15.75" customHeight="1">
-      <c r="B983" s="16"/>
-    </row>
-    <row r="984" ht="15.75" customHeight="1">
-      <c r="B984" s="16"/>
-    </row>
-    <row r="985" ht="15.75" customHeight="1">
-      <c r="B985" s="16"/>
-    </row>
-    <row r="986" ht="15.75" customHeight="1">
-      <c r="B986" s="16"/>
-    </row>
-    <row r="987" ht="15.75" customHeight="1">
-      <c r="B987" s="16"/>
-    </row>
-    <row r="988" ht="15.75" customHeight="1">
-      <c r="B988" s="16"/>
-    </row>
-    <row r="989" ht="15.75" customHeight="1">
-      <c r="B989" s="16"/>
-    </row>
-    <row r="990" ht="15.75" customHeight="1">
-      <c r="B990" s="16"/>
-    </row>
-    <row r="991" ht="15.75" customHeight="1">
-      <c r="B991" s="16"/>
-    </row>
-    <row r="992" ht="15.75" customHeight="1">
-      <c r="B992" s="16"/>
-    </row>
-    <row r="993" ht="15.75" customHeight="1">
-      <c r="B993" s="16"/>
-    </row>
-    <row r="994" ht="15.75" customHeight="1">
-      <c r="B994" s="16"/>
-    </row>
-    <row r="995" ht="15.75" customHeight="1">
-      <c r="B995" s="16"/>
-    </row>
-    <row r="996" ht="15.75" customHeight="1">
-      <c r="B996" s="16"/>
-    </row>
-    <row r="997" ht="15.75" customHeight="1">
-      <c r="B997" s="16"/>
-    </row>
-    <row r="998" ht="15.75" customHeight="1">
-      <c r="B998" s="16"/>
-    </row>
-    <row r="999" ht="15.75" customHeight="1">
-      <c r="B999" s="16"/>
+    <row r="226" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B226" s="14"/>
+    </row>
+    <row r="227" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B227" s="14"/>
+    </row>
+    <row r="228" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B228" s="14"/>
+    </row>
+    <row r="229" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B229" s="14"/>
+    </row>
+    <row r="230" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B230" s="14"/>
+    </row>
+    <row r="231" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B231" s="14"/>
+    </row>
+    <row r="232" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B232" s="14"/>
+    </row>
+    <row r="233" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B233" s="14"/>
+    </row>
+    <row r="234" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B234" s="14"/>
+    </row>
+    <row r="235" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B235" s="14"/>
+    </row>
+    <row r="236" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B236" s="14"/>
+    </row>
+    <row r="237" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B237" s="14"/>
+    </row>
+    <row r="238" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B238" s="14"/>
+    </row>
+    <row r="239" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B239" s="14"/>
+    </row>
+    <row r="240" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B240" s="14"/>
+    </row>
+    <row r="241" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B241" s="14"/>
+    </row>
+    <row r="242" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B242" s="14"/>
+    </row>
+    <row r="243" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B243" s="14"/>
+    </row>
+    <row r="244" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B244" s="14"/>
+    </row>
+    <row r="245" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B245" s="14"/>
+    </row>
+    <row r="246" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B246" s="14"/>
+    </row>
+    <row r="247" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B247" s="14"/>
+    </row>
+    <row r="248" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B248" s="14"/>
+    </row>
+    <row r="249" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B249" s="14"/>
+    </row>
+    <row r="250" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B250" s="14"/>
+    </row>
+    <row r="251" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B251" s="14"/>
+    </row>
+    <row r="252" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B252" s="14"/>
+    </row>
+    <row r="253" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B253" s="14"/>
+    </row>
+    <row r="254" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B254" s="14"/>
+    </row>
+    <row r="255" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B255" s="14"/>
+    </row>
+    <row r="256" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B256" s="14"/>
+    </row>
+    <row r="257" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B257" s="14"/>
+    </row>
+    <row r="258" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B258" s="14"/>
+    </row>
+    <row r="259" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B259" s="14"/>
+    </row>
+    <row r="260" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B260" s="14"/>
+    </row>
+    <row r="261" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B261" s="14"/>
+    </row>
+    <row r="262" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B262" s="14"/>
+    </row>
+    <row r="263" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B263" s="14"/>
+    </row>
+    <row r="264" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B264" s="14"/>
+    </row>
+    <row r="265" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B265" s="14"/>
+    </row>
+    <row r="266" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B266" s="14"/>
+    </row>
+    <row r="267" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B267" s="14"/>
+    </row>
+    <row r="268" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B268" s="14"/>
+    </row>
+    <row r="269" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B269" s="14"/>
+    </row>
+    <row r="270" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B270" s="14"/>
+    </row>
+    <row r="271" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B271" s="14"/>
+    </row>
+    <row r="272" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B272" s="14"/>
+    </row>
+    <row r="273" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B273" s="14"/>
+    </row>
+    <row r="274" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B274" s="14"/>
+    </row>
+    <row r="275" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B275" s="14"/>
+    </row>
+    <row r="276" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B276" s="14"/>
+    </row>
+    <row r="277" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B277" s="14"/>
+    </row>
+    <row r="278" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B278" s="14"/>
+    </row>
+    <row r="279" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B279" s="14"/>
+    </row>
+    <row r="280" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B280" s="14"/>
+    </row>
+    <row r="281" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B281" s="14"/>
+    </row>
+    <row r="282" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B282" s="14"/>
+    </row>
+    <row r="283" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B283" s="14"/>
+    </row>
+    <row r="284" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B284" s="14"/>
+    </row>
+    <row r="285" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B285" s="14"/>
+    </row>
+    <row r="286" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B286" s="14"/>
+    </row>
+    <row r="287" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B287" s="14"/>
+    </row>
+    <row r="288" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B288" s="14"/>
+    </row>
+    <row r="289" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B289" s="14"/>
+    </row>
+    <row r="290" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B290" s="14"/>
+    </row>
+    <row r="291" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B291" s="14"/>
+    </row>
+    <row r="292" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B292" s="14"/>
+    </row>
+    <row r="293" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B293" s="14"/>
+    </row>
+    <row r="294" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B294" s="14"/>
+    </row>
+    <row r="295" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B295" s="14"/>
+    </row>
+    <row r="296" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B296" s="14"/>
+    </row>
+    <row r="297" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B297" s="14"/>
+    </row>
+    <row r="298" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B298" s="14"/>
+    </row>
+    <row r="299" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B299" s="14"/>
+    </row>
+    <row r="300" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B300" s="14"/>
+    </row>
+    <row r="301" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B301" s="14"/>
+    </row>
+    <row r="302" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B302" s="14"/>
+    </row>
+    <row r="303" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B303" s="14"/>
+    </row>
+    <row r="304" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B304" s="14"/>
+    </row>
+    <row r="305" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B305" s="14"/>
+    </row>
+    <row r="306" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B306" s="14"/>
+    </row>
+    <row r="307" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B307" s="14"/>
+    </row>
+    <row r="308" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B308" s="14"/>
+    </row>
+    <row r="309" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B309" s="14"/>
+    </row>
+    <row r="310" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B310" s="14"/>
+    </row>
+    <row r="311" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B311" s="14"/>
+    </row>
+    <row r="312" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B312" s="14"/>
+    </row>
+    <row r="313" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B313" s="14"/>
+    </row>
+    <row r="314" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B314" s="14"/>
+    </row>
+    <row r="315" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B315" s="14"/>
+    </row>
+    <row r="316" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B316" s="14"/>
+    </row>
+    <row r="317" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B317" s="14"/>
+    </row>
+    <row r="318" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B318" s="14"/>
+    </row>
+    <row r="319" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B319" s="14"/>
+    </row>
+    <row r="320" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B320" s="14"/>
+    </row>
+    <row r="321" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B321" s="14"/>
+    </row>
+    <row r="322" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B322" s="14"/>
+    </row>
+    <row r="323" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B323" s="14"/>
+    </row>
+    <row r="324" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B324" s="14"/>
+    </row>
+    <row r="325" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B325" s="14"/>
+    </row>
+    <row r="326" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B326" s="14"/>
+    </row>
+    <row r="327" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B327" s="14"/>
+    </row>
+    <row r="328" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B328" s="14"/>
+    </row>
+    <row r="329" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B329" s="14"/>
+    </row>
+    <row r="330" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B330" s="14"/>
+    </row>
+    <row r="331" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B331" s="14"/>
+    </row>
+    <row r="332" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B332" s="14"/>
+    </row>
+    <row r="333" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B333" s="14"/>
+    </row>
+    <row r="334" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B334" s="14"/>
+    </row>
+    <row r="335" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B335" s="14"/>
+    </row>
+    <row r="336" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B336" s="14"/>
+    </row>
+    <row r="337" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B337" s="14"/>
+    </row>
+    <row r="338" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B338" s="14"/>
+    </row>
+    <row r="339" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B339" s="14"/>
+    </row>
+    <row r="340" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B340" s="14"/>
+    </row>
+    <row r="341" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B341" s="14"/>
+    </row>
+    <row r="342" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B342" s="14"/>
+    </row>
+    <row r="343" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B343" s="14"/>
+    </row>
+    <row r="344" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B344" s="14"/>
+    </row>
+    <row r="345" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B345" s="14"/>
+    </row>
+    <row r="346" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B346" s="14"/>
+    </row>
+    <row r="347" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B347" s="14"/>
+    </row>
+    <row r="348" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B348" s="14"/>
+    </row>
+    <row r="349" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B349" s="14"/>
+    </row>
+    <row r="350" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B350" s="14"/>
+    </row>
+    <row r="351" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B351" s="14"/>
+    </row>
+    <row r="352" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B352" s="14"/>
+    </row>
+    <row r="353" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B353" s="14"/>
+    </row>
+    <row r="354" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B354" s="14"/>
+    </row>
+    <row r="355" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B355" s="14"/>
+    </row>
+    <row r="356" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B356" s="14"/>
+    </row>
+    <row r="357" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B357" s="14"/>
+    </row>
+    <row r="358" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B358" s="14"/>
+    </row>
+    <row r="359" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B359" s="14"/>
+    </row>
+    <row r="360" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B360" s="14"/>
+    </row>
+    <row r="361" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B361" s="14"/>
+    </row>
+    <row r="362" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B362" s="14"/>
+    </row>
+    <row r="363" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B363" s="14"/>
+    </row>
+    <row r="364" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B364" s="14"/>
+    </row>
+    <row r="365" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B365" s="14"/>
+    </row>
+    <row r="366" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B366" s="14"/>
+    </row>
+    <row r="367" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B367" s="14"/>
+    </row>
+    <row r="368" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B368" s="14"/>
+    </row>
+    <row r="369" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B369" s="14"/>
+    </row>
+    <row r="370" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B370" s="14"/>
+    </row>
+    <row r="371" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B371" s="14"/>
+    </row>
+    <row r="372" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B372" s="14"/>
+    </row>
+    <row r="373" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B373" s="14"/>
+    </row>
+    <row r="374" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B374" s="14"/>
+    </row>
+    <row r="375" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B375" s="14"/>
+    </row>
+    <row r="376" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B376" s="14"/>
+    </row>
+    <row r="377" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B377" s="14"/>
+    </row>
+    <row r="378" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B378" s="14"/>
+    </row>
+    <row r="379" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B379" s="14"/>
+    </row>
+    <row r="380" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B380" s="14"/>
+    </row>
+    <row r="381" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B381" s="14"/>
+    </row>
+    <row r="382" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B382" s="14"/>
+    </row>
+    <row r="383" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B383" s="14"/>
+    </row>
+    <row r="384" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B384" s="14"/>
+    </row>
+    <row r="385" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B385" s="14"/>
+    </row>
+    <row r="386" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B386" s="14"/>
+    </row>
+    <row r="387" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B387" s="14"/>
+    </row>
+    <row r="388" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B388" s="14"/>
+    </row>
+    <row r="389" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B389" s="14"/>
+    </row>
+    <row r="390" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B390" s="14"/>
+    </row>
+    <row r="391" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B391" s="14"/>
+    </row>
+    <row r="392" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B392" s="14"/>
+    </row>
+    <row r="393" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B393" s="14"/>
+    </row>
+    <row r="394" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B394" s="14"/>
+    </row>
+    <row r="395" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B395" s="14"/>
+    </row>
+    <row r="396" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B396" s="14"/>
+    </row>
+    <row r="397" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B397" s="14"/>
+    </row>
+    <row r="398" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B398" s="14"/>
+    </row>
+    <row r="399" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B399" s="14"/>
+    </row>
+    <row r="400" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B400" s="14"/>
+    </row>
+    <row r="401" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B401" s="14"/>
+    </row>
+    <row r="402" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B402" s="14"/>
+    </row>
+    <row r="403" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B403" s="14"/>
+    </row>
+    <row r="404" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B404" s="14"/>
+    </row>
+    <row r="405" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B405" s="14"/>
+    </row>
+    <row r="406" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B406" s="14"/>
+    </row>
+    <row r="407" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B407" s="14"/>
+    </row>
+    <row r="408" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B408" s="14"/>
+    </row>
+    <row r="409" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B409" s="14"/>
+    </row>
+    <row r="410" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B410" s="14"/>
+    </row>
+    <row r="411" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B411" s="14"/>
+    </row>
+    <row r="412" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B412" s="14"/>
+    </row>
+    <row r="413" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B413" s="14"/>
+    </row>
+    <row r="414" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B414" s="14"/>
+    </row>
+    <row r="415" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B415" s="14"/>
+    </row>
+    <row r="416" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B416" s="14"/>
+    </row>
+    <row r="417" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B417" s="14"/>
+    </row>
+    <row r="418" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B418" s="14"/>
+    </row>
+    <row r="419" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B419" s="14"/>
+    </row>
+    <row r="420" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B420" s="14"/>
+    </row>
+    <row r="421" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B421" s="14"/>
+    </row>
+    <row r="422" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B422" s="14"/>
+    </row>
+    <row r="423" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B423" s="14"/>
+    </row>
+    <row r="424" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B424" s="14"/>
+    </row>
+    <row r="425" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B425" s="14"/>
+    </row>
+    <row r="426" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B426" s="14"/>
+    </row>
+    <row r="427" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B427" s="14"/>
+    </row>
+    <row r="428" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B428" s="14"/>
+    </row>
+    <row r="429" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B429" s="14"/>
+    </row>
+    <row r="430" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B430" s="14"/>
+    </row>
+    <row r="431" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B431" s="14"/>
+    </row>
+    <row r="432" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B432" s="14"/>
+    </row>
+    <row r="433" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B433" s="14"/>
+    </row>
+    <row r="434" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B434" s="14"/>
+    </row>
+    <row r="435" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B435" s="14"/>
+    </row>
+    <row r="436" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B436" s="14"/>
+    </row>
+    <row r="437" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B437" s="14"/>
+    </row>
+    <row r="438" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B438" s="14"/>
+    </row>
+    <row r="439" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B439" s="14"/>
+    </row>
+    <row r="440" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B440" s="14"/>
+    </row>
+    <row r="441" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B441" s="14"/>
+    </row>
+    <row r="442" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B442" s="14"/>
+    </row>
+    <row r="443" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B443" s="14"/>
+    </row>
+    <row r="444" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B444" s="14"/>
+    </row>
+    <row r="445" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B445" s="14"/>
+    </row>
+    <row r="446" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B446" s="14"/>
+    </row>
+    <row r="447" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B447" s="14"/>
+    </row>
+    <row r="448" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B448" s="14"/>
+    </row>
+    <row r="449" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B449" s="14"/>
+    </row>
+    <row r="450" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B450" s="14"/>
+    </row>
+    <row r="451" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B451" s="14"/>
+    </row>
+    <row r="452" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B452" s="14"/>
+    </row>
+    <row r="453" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B453" s="14"/>
+    </row>
+    <row r="454" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B454" s="14"/>
+    </row>
+    <row r="455" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B455" s="14"/>
+    </row>
+    <row r="456" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B456" s="14"/>
+    </row>
+    <row r="457" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B457" s="14"/>
+    </row>
+    <row r="458" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B458" s="14"/>
+    </row>
+    <row r="459" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B459" s="14"/>
+    </row>
+    <row r="460" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B460" s="14"/>
+    </row>
+    <row r="461" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B461" s="14"/>
+    </row>
+    <row r="462" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B462" s="14"/>
+    </row>
+    <row r="463" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B463" s="14"/>
+    </row>
+    <row r="464" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B464" s="14"/>
+    </row>
+    <row r="465" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B465" s="14"/>
+    </row>
+    <row r="466" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B466" s="14"/>
+    </row>
+    <row r="467" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B467" s="14"/>
+    </row>
+    <row r="468" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B468" s="14"/>
+    </row>
+    <row r="469" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B469" s="14"/>
+    </row>
+    <row r="470" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B470" s="14"/>
+    </row>
+    <row r="471" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B471" s="14"/>
+    </row>
+    <row r="472" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B472" s="14"/>
+    </row>
+    <row r="473" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B473" s="14"/>
+    </row>
+    <row r="474" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B474" s="14"/>
+    </row>
+    <row r="475" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B475" s="14"/>
+    </row>
+    <row r="476" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B476" s="14"/>
+    </row>
+    <row r="477" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B477" s="14"/>
+    </row>
+    <row r="478" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B478" s="14"/>
+    </row>
+    <row r="479" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B479" s="14"/>
+    </row>
+    <row r="480" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B480" s="14"/>
+    </row>
+    <row r="481" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B481" s="14"/>
+    </row>
+    <row r="482" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B482" s="14"/>
+    </row>
+    <row r="483" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B483" s="14"/>
+    </row>
+    <row r="484" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B484" s="14"/>
+    </row>
+    <row r="485" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B485" s="14"/>
+    </row>
+    <row r="486" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B486" s="14"/>
+    </row>
+    <row r="487" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B487" s="14"/>
+    </row>
+    <row r="488" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B488" s="14"/>
+    </row>
+    <row r="489" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B489" s="14"/>
+    </row>
+    <row r="490" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B490" s="14"/>
+    </row>
+    <row r="491" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B491" s="14"/>
+    </row>
+    <row r="492" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B492" s="14"/>
+    </row>
+    <row r="493" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B493" s="14"/>
+    </row>
+    <row r="494" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B494" s="14"/>
+    </row>
+    <row r="495" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B495" s="14"/>
+    </row>
+    <row r="496" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B496" s="14"/>
+    </row>
+    <row r="497" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B497" s="14"/>
+    </row>
+    <row r="498" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B498" s="14"/>
+    </row>
+    <row r="499" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B499" s="14"/>
+    </row>
+    <row r="500" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B500" s="14"/>
+    </row>
+    <row r="501" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B501" s="14"/>
+    </row>
+    <row r="502" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B502" s="14"/>
+    </row>
+    <row r="503" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B503" s="14"/>
+    </row>
+    <row r="504" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B504" s="14"/>
+    </row>
+    <row r="505" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B505" s="14"/>
+    </row>
+    <row r="506" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B506" s="14"/>
+    </row>
+    <row r="507" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B507" s="14"/>
+    </row>
+    <row r="508" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B508" s="14"/>
+    </row>
+    <row r="509" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B509" s="14"/>
+    </row>
+    <row r="510" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B510" s="14"/>
+    </row>
+    <row r="511" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B511" s="14"/>
+    </row>
+    <row r="512" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B512" s="14"/>
+    </row>
+    <row r="513" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B513" s="14"/>
+    </row>
+    <row r="514" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B514" s="14"/>
+    </row>
+    <row r="515" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B515" s="14"/>
+    </row>
+    <row r="516" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B516" s="14"/>
+    </row>
+    <row r="517" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B517" s="14"/>
+    </row>
+    <row r="518" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B518" s="14"/>
+    </row>
+    <row r="519" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B519" s="14"/>
+    </row>
+    <row r="520" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B520" s="14"/>
+    </row>
+    <row r="521" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B521" s="14"/>
+    </row>
+    <row r="522" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B522" s="14"/>
+    </row>
+    <row r="523" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B523" s="14"/>
+    </row>
+    <row r="524" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B524" s="14"/>
+    </row>
+    <row r="525" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B525" s="14"/>
+    </row>
+    <row r="526" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B526" s="14"/>
+    </row>
+    <row r="527" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B527" s="14"/>
+    </row>
+    <row r="528" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B528" s="14"/>
+    </row>
+    <row r="529" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B529" s="14"/>
+    </row>
+    <row r="530" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B530" s="14"/>
+    </row>
+    <row r="531" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B531" s="14"/>
+    </row>
+    <row r="532" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B532" s="14"/>
+    </row>
+    <row r="533" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B533" s="14"/>
+    </row>
+    <row r="534" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B534" s="14"/>
+    </row>
+    <row r="535" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B535" s="14"/>
+    </row>
+    <row r="536" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B536" s="14"/>
+    </row>
+    <row r="537" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B537" s="14"/>
+    </row>
+    <row r="538" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B538" s="14"/>
+    </row>
+    <row r="539" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B539" s="14"/>
+    </row>
+    <row r="540" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B540" s="14"/>
+    </row>
+    <row r="541" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B541" s="14"/>
+    </row>
+    <row r="542" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B542" s="14"/>
+    </row>
+    <row r="543" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B543" s="14"/>
+    </row>
+    <row r="544" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B544" s="14"/>
+    </row>
+    <row r="545" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B545" s="14"/>
+    </row>
+    <row r="546" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B546" s="14"/>
+    </row>
+    <row r="547" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B547" s="14"/>
+    </row>
+    <row r="548" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B548" s="14"/>
+    </row>
+    <row r="549" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B549" s="14"/>
+    </row>
+    <row r="550" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B550" s="14"/>
+    </row>
+    <row r="551" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B551" s="14"/>
+    </row>
+    <row r="552" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B552" s="14"/>
+    </row>
+    <row r="553" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B553" s="14"/>
+    </row>
+    <row r="554" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B554" s="14"/>
+    </row>
+    <row r="555" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B555" s="14"/>
+    </row>
+    <row r="556" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B556" s="14"/>
+    </row>
+    <row r="557" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B557" s="14"/>
+    </row>
+    <row r="558" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B558" s="14"/>
+    </row>
+    <row r="559" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B559" s="14"/>
+    </row>
+    <row r="560" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B560" s="14"/>
+    </row>
+    <row r="561" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B561" s="14"/>
+    </row>
+    <row r="562" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B562" s="14"/>
+    </row>
+    <row r="563" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B563" s="14"/>
+    </row>
+    <row r="564" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B564" s="14"/>
+    </row>
+    <row r="565" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B565" s="14"/>
+    </row>
+    <row r="566" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B566" s="14"/>
+    </row>
+    <row r="567" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B567" s="14"/>
+    </row>
+    <row r="568" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B568" s="14"/>
+    </row>
+    <row r="569" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B569" s="14"/>
+    </row>
+    <row r="570" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B570" s="14"/>
+    </row>
+    <row r="571" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B571" s="14"/>
+    </row>
+    <row r="572" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B572" s="14"/>
+    </row>
+    <row r="573" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B573" s="14"/>
+    </row>
+    <row r="574" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B574" s="14"/>
+    </row>
+    <row r="575" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B575" s="14"/>
+    </row>
+    <row r="576" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B576" s="14"/>
+    </row>
+    <row r="577" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B577" s="14"/>
+    </row>
+    <row r="578" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B578" s="14"/>
+    </row>
+    <row r="579" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B579" s="14"/>
+    </row>
+    <row r="580" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B580" s="14"/>
+    </row>
+    <row r="581" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B581" s="14"/>
+    </row>
+    <row r="582" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B582" s="14"/>
+    </row>
+    <row r="583" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B583" s="14"/>
+    </row>
+    <row r="584" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B584" s="14"/>
+    </row>
+    <row r="585" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B585" s="14"/>
+    </row>
+    <row r="586" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B586" s="14"/>
+    </row>
+    <row r="587" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B587" s="14"/>
+    </row>
+    <row r="588" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B588" s="14"/>
+    </row>
+    <row r="589" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B589" s="14"/>
+    </row>
+    <row r="590" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B590" s="14"/>
+    </row>
+    <row r="591" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B591" s="14"/>
+    </row>
+    <row r="592" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B592" s="14"/>
+    </row>
+    <row r="593" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B593" s="14"/>
+    </row>
+    <row r="594" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B594" s="14"/>
+    </row>
+    <row r="595" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B595" s="14"/>
+    </row>
+    <row r="596" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B596" s="14"/>
+    </row>
+    <row r="597" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B597" s="14"/>
+    </row>
+    <row r="598" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B598" s="14"/>
+    </row>
+    <row r="599" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B599" s="14"/>
+    </row>
+    <row r="600" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B600" s="14"/>
+    </row>
+    <row r="601" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B601" s="14"/>
+    </row>
+    <row r="602" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B602" s="14"/>
+    </row>
+    <row r="603" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B603" s="14"/>
+    </row>
+    <row r="604" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B604" s="14"/>
+    </row>
+    <row r="605" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B605" s="14"/>
+    </row>
+    <row r="606" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B606" s="14"/>
+    </row>
+    <row r="607" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B607" s="14"/>
+    </row>
+    <row r="608" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B608" s="14"/>
+    </row>
+    <row r="609" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B609" s="14"/>
+    </row>
+    <row r="610" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B610" s="14"/>
+    </row>
+    <row r="611" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B611" s="14"/>
+    </row>
+    <row r="612" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B612" s="14"/>
+    </row>
+    <row r="613" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B613" s="14"/>
+    </row>
+    <row r="614" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B614" s="14"/>
+    </row>
+    <row r="615" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B615" s="14"/>
+    </row>
+    <row r="616" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B616" s="14"/>
+    </row>
+    <row r="617" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B617" s="14"/>
+    </row>
+    <row r="618" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B618" s="14"/>
+    </row>
+    <row r="619" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B619" s="14"/>
+    </row>
+    <row r="620" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B620" s="14"/>
+    </row>
+    <row r="621" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B621" s="14"/>
+    </row>
+    <row r="622" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B622" s="14"/>
+    </row>
+    <row r="623" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B623" s="14"/>
+    </row>
+    <row r="624" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B624" s="14"/>
+    </row>
+    <row r="625" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B625" s="14"/>
+    </row>
+    <row r="626" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B626" s="14"/>
+    </row>
+    <row r="627" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B627" s="14"/>
+    </row>
+    <row r="628" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B628" s="14"/>
+    </row>
+    <row r="629" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B629" s="14"/>
+    </row>
+    <row r="630" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B630" s="14"/>
+    </row>
+    <row r="631" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B631" s="14"/>
+    </row>
+    <row r="632" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B632" s="14"/>
+    </row>
+    <row r="633" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B633" s="14"/>
+    </row>
+    <row r="634" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B634" s="14"/>
+    </row>
+    <row r="635" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B635" s="14"/>
+    </row>
+    <row r="636" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B636" s="14"/>
+    </row>
+    <row r="637" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B637" s="14"/>
+    </row>
+    <row r="638" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B638" s="14"/>
+    </row>
+    <row r="639" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B639" s="14"/>
+    </row>
+    <row r="640" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B640" s="14"/>
+    </row>
+    <row r="641" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B641" s="14"/>
+    </row>
+    <row r="642" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B642" s="14"/>
+    </row>
+    <row r="643" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B643" s="14"/>
+    </row>
+    <row r="644" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B644" s="14"/>
+    </row>
+    <row r="645" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B645" s="14"/>
+    </row>
+    <row r="646" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B646" s="14"/>
+    </row>
+    <row r="647" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B647" s="14"/>
+    </row>
+    <row r="648" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B648" s="14"/>
+    </row>
+    <row r="649" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B649" s="14"/>
+    </row>
+    <row r="650" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B650" s="14"/>
+    </row>
+    <row r="651" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B651" s="14"/>
+    </row>
+    <row r="652" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B652" s="14"/>
+    </row>
+    <row r="653" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B653" s="14"/>
+    </row>
+    <row r="654" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B654" s="14"/>
+    </row>
+    <row r="655" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B655" s="14"/>
+    </row>
+    <row r="656" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B656" s="14"/>
+    </row>
+    <row r="657" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B657" s="14"/>
+    </row>
+    <row r="658" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B658" s="14"/>
+    </row>
+    <row r="659" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B659" s="14"/>
+    </row>
+    <row r="660" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B660" s="14"/>
+    </row>
+    <row r="661" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B661" s="14"/>
+    </row>
+    <row r="662" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B662" s="14"/>
+    </row>
+    <row r="663" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B663" s="14"/>
+    </row>
+    <row r="664" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B664" s="14"/>
+    </row>
+    <row r="665" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B665" s="14"/>
+    </row>
+    <row r="666" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B666" s="14"/>
+    </row>
+    <row r="667" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B667" s="14"/>
+    </row>
+    <row r="668" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B668" s="14"/>
+    </row>
+    <row r="669" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B669" s="14"/>
+    </row>
+    <row r="670" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B670" s="14"/>
+    </row>
+    <row r="671" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B671" s="14"/>
+    </row>
+    <row r="672" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B672" s="14"/>
+    </row>
+    <row r="673" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B673" s="14"/>
+    </row>
+    <row r="674" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B674" s="14"/>
+    </row>
+    <row r="675" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B675" s="14"/>
+    </row>
+    <row r="676" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B676" s="14"/>
+    </row>
+    <row r="677" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B677" s="14"/>
+    </row>
+    <row r="678" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B678" s="14"/>
+    </row>
+    <row r="679" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B679" s="14"/>
+    </row>
+    <row r="680" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B680" s="14"/>
+    </row>
+    <row r="681" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B681" s="14"/>
+    </row>
+    <row r="682" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B682" s="14"/>
+    </row>
+    <row r="683" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B683" s="14"/>
+    </row>
+    <row r="684" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B684" s="14"/>
+    </row>
+    <row r="685" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B685" s="14"/>
+    </row>
+    <row r="686" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B686" s="14"/>
+    </row>
+    <row r="687" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B687" s="14"/>
+    </row>
+    <row r="688" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B688" s="14"/>
+    </row>
+    <row r="689" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B689" s="14"/>
+    </row>
+    <row r="690" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B690" s="14"/>
+    </row>
+    <row r="691" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B691" s="14"/>
+    </row>
+    <row r="692" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B692" s="14"/>
+    </row>
+    <row r="693" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B693" s="14"/>
+    </row>
+    <row r="694" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B694" s="14"/>
+    </row>
+    <row r="695" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B695" s="14"/>
+    </row>
+    <row r="696" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B696" s="14"/>
+    </row>
+    <row r="697" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B697" s="14"/>
+    </row>
+    <row r="698" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B698" s="14"/>
+    </row>
+    <row r="699" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B699" s="14"/>
+    </row>
+    <row r="700" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B700" s="14"/>
+    </row>
+    <row r="701" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B701" s="14"/>
+    </row>
+    <row r="702" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B702" s="14"/>
+    </row>
+    <row r="703" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B703" s="14"/>
+    </row>
+    <row r="704" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B704" s="14"/>
+    </row>
+    <row r="705" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B705" s="14"/>
+    </row>
+    <row r="706" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B706" s="14"/>
+    </row>
+    <row r="707" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B707" s="14"/>
+    </row>
+    <row r="708" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B708" s="14"/>
+    </row>
+    <row r="709" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B709" s="14"/>
+    </row>
+    <row r="710" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B710" s="14"/>
+    </row>
+    <row r="711" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B711" s="14"/>
+    </row>
+    <row r="712" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B712" s="14"/>
+    </row>
+    <row r="713" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B713" s="14"/>
+    </row>
+    <row r="714" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B714" s="14"/>
+    </row>
+    <row r="715" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B715" s="14"/>
+    </row>
+    <row r="716" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B716" s="14"/>
+    </row>
+    <row r="717" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B717" s="14"/>
+    </row>
+    <row r="718" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B718" s="14"/>
+    </row>
+    <row r="719" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B719" s="14"/>
+    </row>
+    <row r="720" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B720" s="14"/>
+    </row>
+    <row r="721" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B721" s="14"/>
+    </row>
+    <row r="722" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B722" s="14"/>
+    </row>
+    <row r="723" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B723" s="14"/>
+    </row>
+    <row r="724" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B724" s="14"/>
+    </row>
+    <row r="725" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B725" s="14"/>
+    </row>
+    <row r="726" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B726" s="14"/>
+    </row>
+    <row r="727" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B727" s="14"/>
+    </row>
+    <row r="728" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B728" s="14"/>
+    </row>
+    <row r="729" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B729" s="14"/>
+    </row>
+    <row r="730" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B730" s="14"/>
+    </row>
+    <row r="731" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B731" s="14"/>
+    </row>
+    <row r="732" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B732" s="14"/>
+    </row>
+    <row r="733" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B733" s="14"/>
+    </row>
+    <row r="734" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B734" s="14"/>
+    </row>
+    <row r="735" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B735" s="14"/>
+    </row>
+    <row r="736" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B736" s="14"/>
+    </row>
+    <row r="737" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B737" s="14"/>
+    </row>
+    <row r="738" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B738" s="14"/>
+    </row>
+    <row r="739" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B739" s="14"/>
+    </row>
+    <row r="740" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B740" s="14"/>
+    </row>
+    <row r="741" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B741" s="14"/>
+    </row>
+    <row r="742" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B742" s="14"/>
+    </row>
+    <row r="743" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B743" s="14"/>
+    </row>
+    <row r="744" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B744" s="14"/>
+    </row>
+    <row r="745" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B745" s="14"/>
+    </row>
+    <row r="746" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B746" s="14"/>
+    </row>
+    <row r="747" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B747" s="14"/>
+    </row>
+    <row r="748" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B748" s="14"/>
+    </row>
+    <row r="749" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B749" s="14"/>
+    </row>
+    <row r="750" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B750" s="14"/>
+    </row>
+    <row r="751" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B751" s="14"/>
+    </row>
+    <row r="752" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B752" s="14"/>
+    </row>
+    <row r="753" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B753" s="14"/>
+    </row>
+    <row r="754" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B754" s="14"/>
+    </row>
+    <row r="755" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B755" s="14"/>
+    </row>
+    <row r="756" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B756" s="14"/>
+    </row>
+    <row r="757" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B757" s="14"/>
+    </row>
+    <row r="758" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B758" s="14"/>
+    </row>
+    <row r="759" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B759" s="14"/>
+    </row>
+    <row r="760" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B760" s="14"/>
+    </row>
+    <row r="761" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B761" s="14"/>
+    </row>
+    <row r="762" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B762" s="14"/>
+    </row>
+    <row r="763" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B763" s="14"/>
+    </row>
+    <row r="764" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B764" s="14"/>
+    </row>
+    <row r="765" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B765" s="14"/>
+    </row>
+    <row r="766" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B766" s="14"/>
+    </row>
+    <row r="767" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B767" s="14"/>
+    </row>
+    <row r="768" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B768" s="14"/>
+    </row>
+    <row r="769" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B769" s="14"/>
+    </row>
+    <row r="770" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B770" s="14"/>
+    </row>
+    <row r="771" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B771" s="14"/>
+    </row>
+    <row r="772" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B772" s="14"/>
+    </row>
+    <row r="773" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B773" s="14"/>
+    </row>
+    <row r="774" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B774" s="14"/>
+    </row>
+    <row r="775" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B775" s="14"/>
+    </row>
+    <row r="776" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B776" s="14"/>
+    </row>
+    <row r="777" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B777" s="14"/>
+    </row>
+    <row r="778" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B778" s="14"/>
+    </row>
+    <row r="779" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B779" s="14"/>
+    </row>
+    <row r="780" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B780" s="14"/>
+    </row>
+    <row r="781" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B781" s="14"/>
+    </row>
+    <row r="782" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B782" s="14"/>
+    </row>
+    <row r="783" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B783" s="14"/>
+    </row>
+    <row r="784" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B784" s="14"/>
+    </row>
+    <row r="785" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B785" s="14"/>
+    </row>
+    <row r="786" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B786" s="14"/>
+    </row>
+    <row r="787" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B787" s="14"/>
+    </row>
+    <row r="788" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B788" s="14"/>
+    </row>
+    <row r="789" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B789" s="14"/>
+    </row>
+    <row r="790" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B790" s="14"/>
+    </row>
+    <row r="791" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B791" s="14"/>
+    </row>
+    <row r="792" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B792" s="14"/>
+    </row>
+    <row r="793" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B793" s="14"/>
+    </row>
+    <row r="794" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B794" s="14"/>
+    </row>
+    <row r="795" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B795" s="14"/>
+    </row>
+    <row r="796" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B796" s="14"/>
+    </row>
+    <row r="797" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B797" s="14"/>
+    </row>
+    <row r="798" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B798" s="14"/>
+    </row>
+    <row r="799" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B799" s="14"/>
+    </row>
+    <row r="800" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B800" s="14"/>
+    </row>
+    <row r="801" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B801" s="14"/>
+    </row>
+    <row r="802" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B802" s="14"/>
+    </row>
+    <row r="803" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B803" s="14"/>
+    </row>
+    <row r="804" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B804" s="14"/>
+    </row>
+    <row r="805" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B805" s="14"/>
+    </row>
+    <row r="806" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B806" s="14"/>
+    </row>
+    <row r="807" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B807" s="14"/>
+    </row>
+    <row r="808" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B808" s="14"/>
+    </row>
+    <row r="809" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B809" s="14"/>
+    </row>
+    <row r="810" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B810" s="14"/>
+    </row>
+    <row r="811" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B811" s="14"/>
+    </row>
+    <row r="812" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B812" s="14"/>
+    </row>
+    <row r="813" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B813" s="14"/>
+    </row>
+    <row r="814" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B814" s="14"/>
+    </row>
+    <row r="815" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B815" s="14"/>
+    </row>
+    <row r="816" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B816" s="14"/>
+    </row>
+    <row r="817" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B817" s="14"/>
+    </row>
+    <row r="818" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B818" s="14"/>
+    </row>
+    <row r="819" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B819" s="14"/>
+    </row>
+    <row r="820" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B820" s="14"/>
+    </row>
+    <row r="821" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B821" s="14"/>
+    </row>
+    <row r="822" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B822" s="14"/>
+    </row>
+    <row r="823" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B823" s="14"/>
+    </row>
+    <row r="824" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B824" s="14"/>
+    </row>
+    <row r="825" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B825" s="14"/>
+    </row>
+    <row r="826" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B826" s="14"/>
+    </row>
+    <row r="827" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B827" s="14"/>
+    </row>
+    <row r="828" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B828" s="14"/>
+    </row>
+    <row r="829" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B829" s="14"/>
+    </row>
+    <row r="830" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B830" s="14"/>
+    </row>
+    <row r="831" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B831" s="14"/>
+    </row>
+    <row r="832" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B832" s="14"/>
+    </row>
+    <row r="833" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B833" s="14"/>
+    </row>
+    <row r="834" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B834" s="14"/>
+    </row>
+    <row r="835" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B835" s="14"/>
+    </row>
+    <row r="836" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B836" s="14"/>
+    </row>
+    <row r="837" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B837" s="14"/>
+    </row>
+    <row r="838" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B838" s="14"/>
+    </row>
+    <row r="839" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B839" s="14"/>
+    </row>
+    <row r="840" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B840" s="14"/>
+    </row>
+    <row r="841" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B841" s="14"/>
+    </row>
+    <row r="842" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B842" s="14"/>
+    </row>
+    <row r="843" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B843" s="14"/>
+    </row>
+    <row r="844" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B844" s="14"/>
+    </row>
+    <row r="845" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B845" s="14"/>
+    </row>
+    <row r="846" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B846" s="14"/>
+    </row>
+    <row r="847" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B847" s="14"/>
+    </row>
+    <row r="848" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B848" s="14"/>
+    </row>
+    <row r="849" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B849" s="14"/>
+    </row>
+    <row r="850" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B850" s="14"/>
+    </row>
+    <row r="851" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B851" s="14"/>
+    </row>
+    <row r="852" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B852" s="14"/>
+    </row>
+    <row r="853" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B853" s="14"/>
+    </row>
+    <row r="854" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B854" s="14"/>
+    </row>
+    <row r="855" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B855" s="14"/>
+    </row>
+    <row r="856" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B856" s="14"/>
+    </row>
+    <row r="857" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B857" s="14"/>
+    </row>
+    <row r="858" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B858" s="14"/>
+    </row>
+    <row r="859" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B859" s="14"/>
+    </row>
+    <row r="860" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B860" s="14"/>
+    </row>
+    <row r="861" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B861" s="14"/>
+    </row>
+    <row r="862" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B862" s="14"/>
+    </row>
+    <row r="863" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B863" s="14"/>
+    </row>
+    <row r="864" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B864" s="14"/>
+    </row>
+    <row r="865" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B865" s="14"/>
+    </row>
+    <row r="866" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B866" s="14"/>
+    </row>
+    <row r="867" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B867" s="14"/>
+    </row>
+    <row r="868" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B868" s="14"/>
+    </row>
+    <row r="869" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B869" s="14"/>
+    </row>
+    <row r="870" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B870" s="14"/>
+    </row>
+    <row r="871" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B871" s="14"/>
+    </row>
+    <row r="872" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B872" s="14"/>
+    </row>
+    <row r="873" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B873" s="14"/>
+    </row>
+    <row r="874" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B874" s="14"/>
+    </row>
+    <row r="875" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B875" s="14"/>
+    </row>
+    <row r="876" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B876" s="14"/>
+    </row>
+    <row r="877" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B877" s="14"/>
+    </row>
+    <row r="878" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B878" s="14"/>
+    </row>
+    <row r="879" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B879" s="14"/>
+    </row>
+    <row r="880" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B880" s="14"/>
+    </row>
+    <row r="881" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B881" s="14"/>
+    </row>
+    <row r="882" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B882" s="14"/>
+    </row>
+    <row r="883" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B883" s="14"/>
+    </row>
+    <row r="884" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B884" s="14"/>
+    </row>
+    <row r="885" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B885" s="14"/>
+    </row>
+    <row r="886" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B886" s="14"/>
+    </row>
+    <row r="887" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B887" s="14"/>
+    </row>
+    <row r="888" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B888" s="14"/>
+    </row>
+    <row r="889" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B889" s="14"/>
+    </row>
+    <row r="890" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B890" s="14"/>
+    </row>
+    <row r="891" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B891" s="14"/>
+    </row>
+    <row r="892" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B892" s="14"/>
+    </row>
+    <row r="893" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B893" s="14"/>
+    </row>
+    <row r="894" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B894" s="14"/>
+    </row>
+    <row r="895" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B895" s="14"/>
+    </row>
+    <row r="896" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B896" s="14"/>
+    </row>
+    <row r="897" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B897" s="14"/>
+    </row>
+    <row r="898" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B898" s="14"/>
+    </row>
+    <row r="899" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B899" s="14"/>
+    </row>
+    <row r="900" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B900" s="14"/>
+    </row>
+    <row r="901" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B901" s="14"/>
+    </row>
+    <row r="902" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B902" s="14"/>
+    </row>
+    <row r="903" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B903" s="14"/>
+    </row>
+    <row r="904" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B904" s="14"/>
+    </row>
+    <row r="905" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B905" s="14"/>
+    </row>
+    <row r="906" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B906" s="14"/>
+    </row>
+    <row r="907" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B907" s="14"/>
+    </row>
+    <row r="908" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B908" s="14"/>
+    </row>
+    <row r="909" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B909" s="14"/>
+    </row>
+    <row r="910" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B910" s="14"/>
+    </row>
+    <row r="911" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B911" s="14"/>
+    </row>
+    <row r="912" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B912" s="14"/>
+    </row>
+    <row r="913" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B913" s="14"/>
+    </row>
+    <row r="914" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B914" s="14"/>
+    </row>
+    <row r="915" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B915" s="14"/>
+    </row>
+    <row r="916" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B916" s="14"/>
+    </row>
+    <row r="917" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B917" s="14"/>
+    </row>
+    <row r="918" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B918" s="14"/>
+    </row>
+    <row r="919" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B919" s="14"/>
+    </row>
+    <row r="920" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B920" s="14"/>
+    </row>
+    <row r="921" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B921" s="14"/>
+    </row>
+    <row r="922" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B922" s="14"/>
+    </row>
+    <row r="923" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B923" s="14"/>
+    </row>
+    <row r="924" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B924" s="14"/>
+    </row>
+    <row r="925" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B925" s="14"/>
+    </row>
+    <row r="926" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B926" s="14"/>
+    </row>
+    <row r="927" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B927" s="14"/>
+    </row>
+    <row r="928" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B928" s="14"/>
+    </row>
+    <row r="929" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B929" s="14"/>
+    </row>
+    <row r="930" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B930" s="14"/>
+    </row>
+    <row r="931" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B931" s="14"/>
+    </row>
+    <row r="932" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B932" s="14"/>
+    </row>
+    <row r="933" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B933" s="14"/>
+    </row>
+    <row r="934" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B934" s="14"/>
+    </row>
+    <row r="935" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B935" s="14"/>
+    </row>
+    <row r="936" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B936" s="14"/>
+    </row>
+    <row r="937" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B937" s="14"/>
+    </row>
+    <row r="938" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B938" s="14"/>
+    </row>
+    <row r="939" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B939" s="14"/>
+    </row>
+    <row r="940" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B940" s="14"/>
+    </row>
+    <row r="941" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B941" s="14"/>
+    </row>
+    <row r="942" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B942" s="14"/>
+    </row>
+    <row r="943" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B943" s="14"/>
+    </row>
+    <row r="944" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B944" s="14"/>
+    </row>
+    <row r="945" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B945" s="14"/>
+    </row>
+    <row r="946" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B946" s="14"/>
+    </row>
+    <row r="947" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B947" s="14"/>
+    </row>
+    <row r="948" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B948" s="14"/>
+    </row>
+    <row r="949" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B949" s="14"/>
+    </row>
+    <row r="950" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B950" s="14"/>
+    </row>
+    <row r="951" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B951" s="14"/>
+    </row>
+    <row r="952" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B952" s="14"/>
+    </row>
+    <row r="953" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B953" s="14"/>
+    </row>
+    <row r="954" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B954" s="14"/>
+    </row>
+    <row r="955" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B955" s="14"/>
+    </row>
+    <row r="956" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B956" s="14"/>
+    </row>
+    <row r="957" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B957" s="14"/>
+    </row>
+    <row r="958" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B958" s="14"/>
+    </row>
+    <row r="959" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B959" s="14"/>
+    </row>
+    <row r="960" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B960" s="14"/>
+    </row>
+    <row r="961" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B961" s="14"/>
+    </row>
+    <row r="962" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B962" s="14"/>
+    </row>
+    <row r="963" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B963" s="14"/>
+    </row>
+    <row r="964" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B964" s="14"/>
+    </row>
+    <row r="965" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B965" s="14"/>
+    </row>
+    <row r="966" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B966" s="14"/>
+    </row>
+    <row r="967" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B967" s="14"/>
+    </row>
+    <row r="968" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B968" s="14"/>
+    </row>
+    <row r="969" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B969" s="14"/>
+    </row>
+    <row r="970" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B970" s="14"/>
+    </row>
+    <row r="971" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B971" s="14"/>
+    </row>
+    <row r="972" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B972" s="14"/>
+    </row>
+    <row r="973" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B973" s="14"/>
+    </row>
+    <row r="974" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B974" s="14"/>
+    </row>
+    <row r="975" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B975" s="14"/>
+    </row>
+    <row r="976" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B976" s="14"/>
+    </row>
+    <row r="977" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B977" s="14"/>
+    </row>
+    <row r="978" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B978" s="14"/>
+    </row>
+    <row r="979" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B979" s="14"/>
+    </row>
+    <row r="980" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B980" s="14"/>
+    </row>
+    <row r="981" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B981" s="14"/>
+    </row>
+    <row r="982" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B982" s="14"/>
+    </row>
+    <row r="983" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B983" s="14"/>
+    </row>
+    <row r="984" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B984" s="14"/>
+    </row>
+    <row r="985" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B985" s="14"/>
+    </row>
+    <row r="986" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B986" s="14"/>
+    </row>
+    <row r="987" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B987" s="14"/>
+    </row>
+    <row r="988" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B988" s="14"/>
+    </row>
+    <row r="989" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B989" s="14"/>
+    </row>
+    <row r="990" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B990" s="14"/>
+    </row>
+    <row r="991" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B991" s="14"/>
+    </row>
+    <row r="992" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B992" s="14"/>
+    </row>
+    <row r="993" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B993" s="14"/>
+    </row>
+    <row r="994" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B994" s="14"/>
+    </row>
+    <row r="995" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B995" s="14"/>
+    </row>
+    <row r="996" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B996" s="14"/>
+    </row>
+    <row r="997" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B997" s="14"/>
+    </row>
+    <row r="998" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B998" s="14"/>
+    </row>
+    <row r="999" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B999" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A35:E35"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A35:E35"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestCases_of_Idx-Auto-Tester.xlsx
+++ b/TestCases_of_Idx-Auto-Tester.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kritiksh/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kritiksh/Desktop/idx-auto-tester/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37590449-1AF3-6C42-8320-F51C123A0A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22BAF0E-7768-544C-AD28-FED66106C9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{9550F3D5-A8D2-EA40-95F3-69C57A51D18A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19580" xr2:uid="{9550F3D5-A8D2-EA40-95F3-69C57A51D18A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="142">
   <si>
     <t>Test case ID</t>
   </si>
@@ -617,6 +617,27 @@
   </si>
   <si>
     <t>TC_31</t>
+  </si>
+  <si>
+    <t>Verify that it should show validation message when enter email field left blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to Site URL
+2. Navigate to Login Page
+3. Leave Email Id blank and enter random Password
+4. Click on Login button </t>
+  </si>
+  <si>
+    <t>Verify that it should show validation message when enter password field left blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to Site URL
+2. Navigate to Login Page
+3. Enter Email Id  and leave Password blank
+4. Click on Login button </t>
+  </si>
+  <si>
+    <t>A validation message should show under the password input field</t>
   </si>
 </sst>
 </file>
@@ -636,21 +657,25 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF032F62"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -710,16 +735,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -736,9 +758,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -763,6 +782,13 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1078,10 +1104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D91CF45-591A-F240-8555-244BE922987C}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1093,7 +1119,7 @@
     <col min="5" max="5" width="45.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1110,563 +1136,594 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="70" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:6" ht="70" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="56" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="70" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:6" ht="70" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="84" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:6" ht="84" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="56" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:6" s="3" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="3" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="70" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+    <row r="12" spans="1:6" ht="70" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="70" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+    <row r="13" spans="1:6" ht="70" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="70" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+    <row r="14" spans="1:6" ht="70" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="126" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+    <row r="15" spans="1:6" ht="126" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="84" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+    <row r="16" spans="1:6" ht="84" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6" t="s">
+      <c r="D16" s="4"/>
+      <c r="E16" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="84" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+    <row r="17" spans="1:5" ht="84" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="70" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+    <row r="18" spans="1:5" ht="70" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+    <row r="19" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" ht="42" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+    </row>
+    <row r="20" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B20" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C20" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="42" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
+    <row r="21" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B21" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C21" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12" t="s">
+      <c r="D21" s="9"/>
+      <c r="E21" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+    <row r="22" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" ht="126" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+    </row>
+    <row r="23" spans="1:5" ht="126" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B23" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C23" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12" t="s">
+      <c r="D23" s="9"/>
+      <c r="E23" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="126" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
+    <row r="24" spans="1:5" ht="126" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B24" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C24" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12" t="s">
+      <c r="D24" s="9"/>
+      <c r="E24" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="140" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
+    <row r="25" spans="1:5" ht="140" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B25" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C25" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="12" t="s">
+      <c r="D25" s="12"/>
+      <c r="E25" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="140" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
+    <row r="26" spans="1:5" ht="140" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B26" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C26" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="12" t="s">
+      <c r="D26" s="12"/>
+      <c r="E26" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="140" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
+    <row r="27" spans="1:5" ht="140" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B27" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C27" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="12" t="s">
+      <c r="D27" s="12"/>
+      <c r="E27" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
+    <row r="28" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" ht="140" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+    </row>
+    <row r="29" spans="1:5" ht="140" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B29" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C29" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12" t="s">
+      <c r="D29" s="9"/>
+      <c r="E29" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="126" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
+    <row r="30" spans="1:5" ht="126" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B30" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C30" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12" t="s">
+      <c r="D30" s="9"/>
+      <c r="E30" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
+    <row r="31" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" ht="196" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+    </row>
+    <row r="32" spans="1:5" ht="196" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B32" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C32" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12" t="s">
+      <c r="D32" s="9"/>
+      <c r="E32" s="10" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
+    <row r="33" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" ht="126" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+    </row>
+    <row r="34" spans="1:5" ht="126" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B34" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C34" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="17" t="s">
+      <c r="D34" s="14"/>
+      <c r="E34" s="15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="112" x14ac:dyDescent="0.2">
-      <c r="A33" s="16" t="s">
+    <row r="35" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B35" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C35" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="17" t="s">
+      <c r="D35" s="14"/>
+      <c r="E35" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
+    <row r="36" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" ht="98" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+    </row>
+    <row r="37" spans="1:5" ht="98" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B37" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C37" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="12" t="s">
+      <c r="D37" s="9"/>
+      <c r="E37" s="10" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="70" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
+    <row r="38" spans="1:5" ht="70" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B38" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C38" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="18" t="s">
+      <c r="D38" s="9"/>
+      <c r="E38" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="56" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
+    <row r="39" spans="1:5" ht="56" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B39" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C39" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="18" t="s">
+      <c r="D39" s="9"/>
+      <c r="E39" s="16" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="10" t="s">
+    <row r="40" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="1:5" ht="196" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+    </row>
+    <row r="41" spans="1:5" ht="196" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B41" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C41" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="12" t="s">
+      <c r="D41" s="9"/>
+      <c r="E41" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="168" x14ac:dyDescent="0.2">
-      <c r="A40" s="11" t="s">
+    <row r="42" spans="1:5" ht="168" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B42" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C42" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="12" t="s">
+      <c r="D42" s="9"/>
+      <c r="E42" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="84" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="s">
+    <row r="43" spans="1:5" ht="84" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B43" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C43" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="12" t="s">
+      <c r="D43" s="9"/>
+      <c r="E43" s="10" t="s">
         <v>134</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A29:E29"/>
     <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A40:E40"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A28:E28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
